--- a/Semestre 3/Derivados Financieros/S3.xlsx
+++ b/Semestre 3/Derivados Financieros/S3.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26529"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26626"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\NIGOJ\OneDrive\Desktop\NICO\MAF\Semestre 3\Derivados Financieros\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{626DDD27-FCE8-4BD5-9AF7-C44B029DF629}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F172F63C-3057-4306-B9EE-8BF75DF0B07C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{0731B205-C92E-4420-8ACF-481E76A02D29}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{0731B205-C92E-4420-8ACF-481E76A02D29}"/>
   </bookViews>
   <sheets>
     <sheet name="S1" sheetId="18" r:id="rId1"/>
@@ -22,6 +22,9 @@
   </externalReferences>
   <calcPr calcId="191028"/>
   <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
+      <x14:workbookPr defaultImageDpi="32767"/>
+    </ext>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
@@ -40,8 +43,140 @@
 </workbook>
 </file>
 
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>NICOLÁS GONZÁLEZ</author>
+  </authors>
+  <commentList>
+    <comment ref="AK4" authorId="0" shapeId="0" xr:uid="{D9990DBA-8E81-4484-90B2-9D1AE68B8DDB}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>NICOLÁS GONZÁLEZ:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Yo perdí el V. Intrínseco y recibo solo primas.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="AL4" authorId="0" shapeId="0" xr:uid="{4D156B52-6681-4393-BB62-FD38A9BEABE4}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>NICOLÁS GONZÁLEZ:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Lo que gané en el neto menos lo que perdí.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="H48" authorId="0" shapeId="0" xr:uid="{A230163A-6AEC-4B57-B832-35592CCA800C}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>NICOLÁS GONZÁLEZ:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+El Spot al tiempo 0 es el mismo Str
+ike</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="N48" authorId="0" shapeId="0" xr:uid="{59C09AD8-AEBF-4B96-A326-70EF0C5B232D}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>NICOLÁS GONZÁLEZ:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+El VF de la inversion en dolares multiplicado el valor al que yo cambio esos dolares a pesos (El maximo entre el Strike y el Spot) Dividido la inversión inicial que es el Strike más la Prima. Menos 1 para calcular la rentabilidad.
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="X48" authorId="0" shapeId="0" xr:uid="{F6EB83AF-005B-454F-BC79-2E7F88A99853}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>NICOLÁS GONZÁLEZ:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Si soy indifernte a la moneda puedo eliminar el Valor Intrínseco de la ecuacion.</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="259" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="259" uniqueCount="76">
   <si>
     <t>Pregunta 1:</t>
   </si>
@@ -259,14 +394,23 @@
     <t>Perfiles de inversionistas</t>
   </si>
   <si>
-    <t>Escuchar el capítulo 4 de Oído al Riesgo (temporada 1) y emitir su opinión en un párrafo</t>
+    <t>Spot TY1</t>
+  </si>
+  <si>
+    <t>VI Put 1</t>
+  </si>
+  <si>
+    <t>VI Put 2</t>
+  </si>
+  <si>
+    <t>The Big Short: El prota decide empezar especular con otro producto. ¿Como hariamos el mismo trade del protagonista al final?</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -310,6 +454,19 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="5">
@@ -397,7 +554,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -437,6 +594,9 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1123,6 +1283,54 @@
               <c:numCache>
                 <c:formatCode>#,##0</c:formatCode>
                 <c:ptCount val="16"/>
+                <c:pt idx="0">
+                  <c:v>4700</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4700</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4700</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4700</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4700</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>4700</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>4700</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>4700</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>4700</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>4700</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>4900</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>5100</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>5300</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>5500</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>5700</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>5900</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -1214,6 +1422,54 @@
               <c:numCache>
                 <c:formatCode>#,##0</c:formatCode>
                 <c:ptCount val="16"/>
+                <c:pt idx="0">
+                  <c:v>5000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5000</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5000</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>5000</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>5000</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>5000</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>5000</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>5000</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>5000</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>5000</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>5000</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>5000</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>5000</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -1709,6 +1965,54 @@
               <c:numCache>
                 <c:formatCode>#,##0</c:formatCode>
                 <c:ptCount val="16"/>
+                <c:pt idx="0">
+                  <c:v>5000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5000</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5000</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>5000</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>5000</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>5100</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>5300</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>5300</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>5300</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>5300</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>5300</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>5300</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>5300</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -2330,6 +2634,54 @@
               <c:numCache>
                 <c:formatCode>0%</c:formatCode>
                 <c:ptCount val="16"/>
+                <c:pt idx="0">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3.3333333333333335</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.6666666666666665</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.3333333333333333</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.66666666666666663</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>-0.66666666666666663</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>-0.66666666666666663</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.66666666666666663</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1.3333333333333333</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>2.6666666666666665</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>3.3333333333333335</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>4</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -2774,6 +3126,54 @@
               <c:numCache>
                 <c:formatCode>0%</c:formatCode>
                 <c:ptCount val="16"/>
+                <c:pt idx="0">
+                  <c:v>-0.8666666666666667</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-0.84615384615384615</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-0.81818181818181823</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-0.77777777777777779</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-0.7142857142857143</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>-0.6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>-0.33333333333333331</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>-0.33333333333333331</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>-0.6</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>-0.7142857142857143</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>-0.77777777777777779</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>-0.81818181818181823</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>-0.84615384615384615</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>-0.8666666666666667</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -3218,6 +3618,54 @@
               <c:numCache>
                 <c:formatCode>0%</c:formatCode>
                 <c:ptCount val="16"/>
+                <c:pt idx="0">
+                  <c:v>0.48247978436657668</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.40234574196838335</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.33043057571359458</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.26553152323976081</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.20666959192628354</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.15303983228511542</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.10397430750702519</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>5.891413169041182E-2</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>3.7735849056603765E-2</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>3.7735849056603765E-2</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>3.7735849056603765E-2</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>3.7735849056603765E-2</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>3.7735849056603765E-2</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>3.7735849056603765E-2</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>3.7735849056603765E-2</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>3.7735849056603765E-2</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -3670,6 +4118,54 @@
               <c:numCache>
                 <c:formatCode>0%</c:formatCode>
                 <c:ptCount val="16"/>
+                <c:pt idx="0">
+                  <c:v>9.1800000000000104E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>9.1800000000000104E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>9.1800000000000104E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>9.1800000000000104E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>9.1800000000000104E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>9.1800000000000104E-2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>9.1800000000000104E-2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>9.1800000000000104E-2</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>7.0392156862745026E-2</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>3.0000000000000027E-2</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>-7.4545454545454914E-3</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>-4.2280701754385919E-2</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>-7.4745762711864394E-2</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>-0.1050819672131148</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>-0.13349206349206344</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>-0.1601538461538462</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -3762,6 +4258,54 @@
               <c:numCache>
                 <c:formatCode>0%</c:formatCode>
                 <c:ptCount val="16"/>
+                <c:pt idx="0">
+                  <c:v>9.1800000000000104E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>9.1800000000000104E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>9.1800000000000104E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>9.1800000000000104E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>9.1800000000000104E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>9.1800000000000104E-2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>9.1800000000000104E-2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>9.1800000000000104E-2</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9.1800000000000104E-2</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>9.1800000000000104E-2</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>9.1800000000000104E-2</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>9.1800000000000104E-2</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>9.1800000000000104E-2</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>9.1800000000000104E-2</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>9.1800000000000104E-2</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>9.1800000000000104E-2</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -4131,6 +4675,54 @@
               <c:numCache>
                 <c:formatCode>0%</c:formatCode>
                 <c:ptCount val="16"/>
+                <c:pt idx="0">
+                  <c:v>-0.10307692307692295</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-7.4603174603174449E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-4.4262295081967107E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-1.186440677966083E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2.280701754385972E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6.0000000000000275E-2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.10000000000000009</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.14313725490196094</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.16600000000000015</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.16600000000000015</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.16600000000000015</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.16600000000000015</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.16600000000000015</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.16600000000000015</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.16600000000000015</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.16600000000000015</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -4223,6 +4815,54 @@
               <c:numCache>
                 <c:formatCode>0%</c:formatCode>
                 <c:ptCount val="16"/>
+                <c:pt idx="0">
+                  <c:v>0.16600000000000015</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.16600000000000015</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.16600000000000015</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.16600000000000015</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.16600000000000015</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.16600000000000015</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.16600000000000015</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.16600000000000015</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.16600000000000015</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.16600000000000015</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.16600000000000015</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.16600000000000015</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.16600000000000015</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.16600000000000015</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.16600000000000015</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.16600000000000015</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -4594,6 +5234,54 @@
               <c:numCache>
                 <c:formatCode>0%</c:formatCode>
                 <c:ptCount val="16"/>
+                <c:pt idx="0">
+                  <c:v>7.8000000000000069E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>7.8000000000000069E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>7.8000000000000069E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>7.8000000000000069E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>7.8000000000000069E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>7.8000000000000069E-2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7.8000000000000069E-2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>7.8000000000000069E-2</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9.8000000000000087E-2</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.1379999999999999</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.1379999999999999</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.1379999999999999</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.1379999999999999</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.1379999999999999</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.1379999999999999</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.1379999999999999</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -5063,6 +5751,54 @@
               <c:numCache>
                 <c:formatCode>0%</c:formatCode>
                 <c:ptCount val="16"/>
+                <c:pt idx="0">
+                  <c:v>0.1160000000000001</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.1160000000000001</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.1160000000000001</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.1160000000000001</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.1160000000000001</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.1160000000000001</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.1160000000000001</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.1160000000000001</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9.6000000000000085E-2</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>5.600000000000005E-2</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>5.600000000000005E-2</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>5.600000000000005E-2</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>5.600000000000005E-2</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>5.600000000000005E-2</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>5.600000000000005E-2</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>5.600000000000005E-2</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -5209,7 +5945,7 @@
         <c:axId val="146181408"/>
         <c:scaling>
           <c:orientation val="minMax"/>
-          <c:min val="7.0000000000000007E-2"/>
+          <c:min val="3.0000000000000006E-2"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -5522,6 +6258,54 @@
               <c:numCache>
                 <c:formatCode>0%</c:formatCode>
                 <c:ptCount val="16"/>
+                <c:pt idx="0">
+                  <c:v>0.15640000000000009</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.13640000000000008</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.11640000000000006</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>9.6400000000000041E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>7.6400000000000023E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5.6400000000000006E-2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3.6399999999999988E-2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1.639999999999997E-2</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>-3.6000000000000476E-3</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1.639999999999997E-2</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>3.6399999999999988E-2</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>5.6400000000000006E-2</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>7.6400000000000023E-2</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>9.6400000000000041E-2</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.11640000000000006</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.13640000000000008</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -7366,6 +8150,54 @@
               <c:numCache>
                 <c:formatCode>0%</c:formatCode>
                 <c:ptCount val="16"/>
+                <c:pt idx="0">
+                  <c:v>-9.6153846153845812E-3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-9.6153846153845812E-3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-9.6153846153845812E-3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-9.6153846153845812E-3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-9.6153846153845812E-3</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>-9.6153846153845812E-3</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>-9.6153846153845812E-3</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>-9.6153846153845812E-3</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1.0192307692307612E-2</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>4.980769230769222E-2</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>8.9423076923076827E-2</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.12903846153846144</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.16865384615384604</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.20826923076923087</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.24788461538461548</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.28750000000000009</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -7810,6 +8642,54 @@
               <c:numCache>
                 <c:formatCode>#,##0</c:formatCode>
                 <c:ptCount val="16"/>
+                <c:pt idx="0">
+                  <c:v>3600</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3800</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4200</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4400</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>4600</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>4800</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>5000</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>5100</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>5100</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>5100</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>5100</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>5100</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>5100</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>5100</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>5100</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -8208,57 +9088,12 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>'S2,3,4'!$K$27:$K$42</c:f>
+              <c:f>'S2,3,4'!$K$27</c:f>
               <c:numCache>
                 <c:formatCode>#,##0</c:formatCode>
-                <c:ptCount val="16"/>
+                <c:ptCount val="1"/>
                 <c:pt idx="0">
                   <c:v>3500</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>3700</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>3900</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>4100</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>4300</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>4500</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>4700</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>4900</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>5100</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>5300</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>5500</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>5700</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>5900</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>6100</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>6300</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>6500</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8269,6 +9104,54 @@
               <c:numCache>
                 <c:formatCode>#,##0</c:formatCode>
                 <c:ptCount val="16"/>
+                <c:pt idx="0">
+                  <c:v>4900</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4900</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4900</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4900</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4900</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>4900</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>4900</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>4900</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>5000</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>5200</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>5400</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>5600</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>5800</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>6000</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>6200</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>6400</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -8728,6 +9611,54 @@
               <c:numCache>
                 <c:formatCode>0%</c:formatCode>
                 <c:ptCount val="16"/>
+                <c:pt idx="0">
+                  <c:v>-1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-1</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-1</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-1</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>-1</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>-1</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>-1</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>14</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -9186,6 +10117,54 @@
               <c:numCache>
                 <c:formatCode>0%</c:formatCode>
                 <c:ptCount val="16"/>
+                <c:pt idx="0">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>-1</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>-1</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>-1</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>-1</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>-1</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>-1</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>-1</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>-1</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -21902,7 +22881,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BBBA2A15-AB0F-497B-ABD5-08F2D334FE8C}">
   <dimension ref="B1:Q23"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="H1" workbookViewId="0">
+    <sheetView showGridLines="0" topLeftCell="H1" workbookViewId="0">
       <selection activeCell="Q16" sqref="Q16"/>
     </sheetView>
   </sheetViews>
@@ -21915,10 +22894,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="D1" s="14"/>
-      <c r="E1" s="14"/>
-      <c r="H1" s="14"/>
-      <c r="I1" s="14"/>
+      <c r="D1" s="15"/>
+      <c r="E1" s="15"/>
+      <c r="H1" s="15"/>
+      <c r="I1" s="15"/>
     </row>
     <row r="2" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B2" s="5" t="s">
@@ -22631,11 +23610,11 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EC71D9D0-3670-4047-9963-6EA3E1A952EE}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EC71D9D0-3670-4047-9963-6EA3E1A952EE}">
   <dimension ref="B1:AP106"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="E20" sqref="E20"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="N22" workbookViewId="0">
+      <selection activeCell="G69" sqref="G69:G70"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -22651,7 +23630,9 @@
     <col min="16" max="18" width="12.5546875" style="1" customWidth="1"/>
     <col min="19" max="19" width="4" style="1" customWidth="1"/>
     <col min="20" max="22" width="11.5546875" style="1" customWidth="1"/>
-    <col min="23" max="16384" width="11.44140625" style="1"/>
+    <col min="23" max="30" width="11.44140625" style="1"/>
+    <col min="31" max="31" width="14.21875" style="1" bestFit="1" customWidth="1"/>
+    <col min="32" max="16384" width="11.44140625" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:42" ht="12" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -22677,93 +23658,93 @@
       <c r="I3" s="4"/>
       <c r="L3" s="5"/>
       <c r="M3" s="4"/>
-      <c r="T3" s="16" t="s">
+      <c r="T3" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="U3" s="16"/>
-      <c r="V3" s="16"/>
-      <c r="W3" s="16"/>
-      <c r="X3" s="16"/>
-      <c r="Y3" s="16"/>
-      <c r="Z3" s="16"/>
-      <c r="AF3" s="16" t="s">
+      <c r="U3" s="17"/>
+      <c r="V3" s="17"/>
+      <c r="W3" s="17"/>
+      <c r="X3" s="17"/>
+      <c r="Y3" s="17"/>
+      <c r="Z3" s="17"/>
+      <c r="AF3" s="17" t="s">
         <v>17</v>
       </c>
-      <c r="AG3" s="16"/>
-      <c r="AH3" s="16"/>
-      <c r="AI3" s="16"/>
-      <c r="AJ3" s="16"/>
-      <c r="AK3" s="16"/>
-      <c r="AL3" s="16"/>
+      <c r="AG3" s="17"/>
+      <c r="AH3" s="17"/>
+      <c r="AI3" s="17"/>
+      <c r="AJ3" s="17"/>
+      <c r="AK3" s="17"/>
+      <c r="AL3" s="17"/>
     </row>
     <row r="4" spans="2:42" s="8" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="15" t="s">
+      <c r="B4" s="16" t="s">
         <v>18</v>
       </c>
-      <c r="C4" s="15"/>
-      <c r="D4" s="15"/>
-      <c r="E4" s="15"/>
+      <c r="C4" s="16"/>
+      <c r="D4" s="16"/>
+      <c r="E4" s="16"/>
       <c r="F4" s="7"/>
-      <c r="G4" s="15" t="s">
+      <c r="G4" s="16" t="s">
         <v>19</v>
       </c>
-      <c r="H4" s="15"/>
-      <c r="I4" s="15"/>
-      <c r="K4" s="15" t="s">
+      <c r="H4" s="16"/>
+      <c r="I4" s="16"/>
+      <c r="K4" s="16" t="s">
         <v>20</v>
       </c>
-      <c r="L4" s="15"/>
-      <c r="M4" s="15"/>
-      <c r="N4" s="15"/>
-      <c r="P4" s="15" t="s">
+      <c r="L4" s="16"/>
+      <c r="M4" s="16"/>
+      <c r="N4" s="16"/>
+      <c r="P4" s="16" t="s">
         <v>19</v>
       </c>
-      <c r="Q4" s="15"/>
-      <c r="R4" s="15"/>
-      <c r="T4" s="17" t="s">
+      <c r="Q4" s="16"/>
+      <c r="R4" s="16"/>
+      <c r="T4" s="18" t="s">
         <v>9</v>
       </c>
-      <c r="U4" s="19" t="s">
+      <c r="U4" s="20" t="s">
         <v>21</v>
       </c>
-      <c r="V4" s="19"/>
-      <c r="W4" s="19" t="s">
+      <c r="V4" s="20"/>
+      <c r="W4" s="20" t="s">
         <v>22</v>
       </c>
-      <c r="X4" s="19"/>
-      <c r="Y4" s="17" t="s">
+      <c r="X4" s="20"/>
+      <c r="Y4" s="18" t="s">
         <v>23</v>
       </c>
-      <c r="Z4" s="17" t="s">
+      <c r="Z4" s="18" t="s">
         <v>24</v>
       </c>
-      <c r="AB4" s="15" t="s">
+      <c r="AB4" s="16" t="s">
         <v>19</v>
       </c>
-      <c r="AC4" s="15"/>
-      <c r="AD4" s="15"/>
-      <c r="AF4" s="17" t="s">
+      <c r="AC4" s="16"/>
+      <c r="AD4" s="16"/>
+      <c r="AF4" s="18" t="s">
         <v>9</v>
       </c>
-      <c r="AG4" s="19" t="s">
+      <c r="AG4" s="20" t="s">
         <v>25</v>
       </c>
-      <c r="AH4" s="19"/>
-      <c r="AI4" s="19" t="s">
+      <c r="AH4" s="20"/>
+      <c r="AI4" s="20" t="s">
         <v>26</v>
       </c>
-      <c r="AJ4" s="19"/>
-      <c r="AK4" s="17" t="s">
+      <c r="AJ4" s="20"/>
+      <c r="AK4" s="18" t="s">
         <v>23</v>
       </c>
-      <c r="AL4" s="17" t="s">
+      <c r="AL4" s="18" t="s">
         <v>24</v>
       </c>
-      <c r="AN4" s="15" t="s">
+      <c r="AN4" s="16" t="s">
         <v>19</v>
       </c>
-      <c r="AO4" s="15"/>
-      <c r="AP4" s="15"/>
+      <c r="AO4" s="16"/>
+      <c r="AP4" s="16"/>
     </row>
     <row r="5" spans="2:42" x14ac:dyDescent="0.3">
       <c r="B5" s="6" t="s">
@@ -22809,7 +23790,7 @@
       <c r="R5" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="T5" s="18"/>
+      <c r="T5" s="19"/>
       <c r="U5" s="6" t="s">
         <v>12</v>
       </c>
@@ -22822,8 +23803,8 @@
       <c r="X5" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="Y5" s="18"/>
-      <c r="Z5" s="18"/>
+      <c r="Y5" s="19"/>
+      <c r="Z5" s="19"/>
       <c r="AB5" s="6" t="s">
         <v>8</v>
       </c>
@@ -22833,7 +23814,7 @@
       <c r="AD5" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="AF5" s="18"/>
+      <c r="AF5" s="19"/>
       <c r="AG5" s="6" t="s">
         <v>12</v>
       </c>
@@ -22846,8 +23827,8 @@
       <c r="AJ5" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="AK5" s="18"/>
-      <c r="AL5" s="18"/>
+      <c r="AK5" s="19"/>
+      <c r="AL5" s="19"/>
       <c r="AN5" s="6" t="s">
         <v>8</v>
       </c>
@@ -22862,9 +23843,18 @@
       <c r="B6" s="4">
         <v>3500</v>
       </c>
-      <c r="C6" s="4"/>
-      <c r="D6" s="4"/>
-      <c r="E6" s="9"/>
+      <c r="C6" s="4">
+        <f>MAX(B6-$H$6,0)</f>
+        <v>0</v>
+      </c>
+      <c r="D6" s="4">
+        <f>$I$6</f>
+        <v>100</v>
+      </c>
+      <c r="E6" s="9">
+        <f>C6/D6-1</f>
+        <v>-1</v>
+      </c>
       <c r="F6" s="4"/>
       <c r="G6" s="1" t="s">
         <v>13</v>
@@ -22879,9 +23869,18 @@
         <f>B6</f>
         <v>3500</v>
       </c>
-      <c r="L6" s="4"/>
-      <c r="M6" s="4"/>
-      <c r="N6" s="9"/>
+      <c r="L6" s="4">
+        <f>MAX($H$6-K6,0)</f>
+        <v>1500</v>
+      </c>
+      <c r="M6" s="4">
+        <f>$I$6</f>
+        <v>100</v>
+      </c>
+      <c r="N6" s="9">
+        <f>L6/M6-1</f>
+        <v>14</v>
+      </c>
       <c r="P6" s="1" t="s">
         <v>14</v>
       </c>
@@ -22895,11 +23894,30 @@
         <f>K6</f>
         <v>3500</v>
       </c>
-      <c r="U6" s="4"/>
-      <c r="V6" s="4"/>
-      <c r="W6" s="4"/>
-      <c r="Y6" s="4"/>
-      <c r="Z6" s="9"/>
+      <c r="U6" s="4">
+        <f>MAX(T6-$AC$6,0)</f>
+        <v>0</v>
+      </c>
+      <c r="V6" s="4">
+        <f>$AD$6</f>
+        <v>200</v>
+      </c>
+      <c r="W6" s="4">
+        <f>MAX($AC$6-T6,0)</f>
+        <v>1500</v>
+      </c>
+      <c r="X6" s="1">
+        <f>$AD$7</f>
+        <v>100</v>
+      </c>
+      <c r="Y6" s="4">
+        <f>(U6+W6)-(V6+X6)</f>
+        <v>1200</v>
+      </c>
+      <c r="Z6" s="9">
+        <f>Y6/(V6+X6)</f>
+        <v>4</v>
+      </c>
       <c r="AB6" s="1" t="s">
         <v>21</v>
       </c>
@@ -22913,11 +23931,30 @@
         <f>T6</f>
         <v>3500</v>
       </c>
-      <c r="AG6" s="4"/>
-      <c r="AH6" s="4"/>
-      <c r="AI6" s="4"/>
-      <c r="AK6" s="4"/>
-      <c r="AL6" s="9"/>
+      <c r="AG6" s="4">
+        <f>MAX(AF6-$AO$6,0)</f>
+        <v>0</v>
+      </c>
+      <c r="AH6" s="4">
+        <f>$AP$6</f>
+        <v>100</v>
+      </c>
+      <c r="AI6" s="4">
+        <f>MAX($AO$7-AF6,0)</f>
+        <v>1500</v>
+      </c>
+      <c r="AJ6" s="1">
+        <f>$AP$7</f>
+        <v>100</v>
+      </c>
+      <c r="AK6" s="4">
+        <f>AJ6+AH6-(AG6+AI6)</f>
+        <v>-1300</v>
+      </c>
+      <c r="AL6" s="9">
+        <f>AK6/(AG6+AI6)</f>
+        <v>-0.8666666666666667</v>
+      </c>
       <c r="AN6" s="1" t="s">
         <v>25</v>
       </c>
@@ -22933,27 +23970,64 @@
         <f>B6+200</f>
         <v>3700</v>
       </c>
-      <c r="C7" s="4"/>
-      <c r="D7" s="4"/>
-      <c r="E7" s="9"/>
+      <c r="C7" s="4">
+        <f t="shared" ref="C7:C21" si="0">MAX(B7-$H$6,0)</f>
+        <v>0</v>
+      </c>
+      <c r="D7" s="4">
+        <f t="shared" ref="D7:D21" si="1">$I$6</f>
+        <v>100</v>
+      </c>
+      <c r="E7" s="9">
+        <f t="shared" ref="E7:E21" si="2">C7/D7-1</f>
+        <v>-1</v>
+      </c>
       <c r="F7" s="4"/>
       <c r="I7" s="4"/>
       <c r="K7" s="4">
         <f>K6+200</f>
         <v>3700</v>
       </c>
-      <c r="L7" s="4"/>
-      <c r="M7" s="4"/>
-      <c r="N7" s="9"/>
+      <c r="L7" s="4">
+        <f t="shared" ref="L7:L21" si="3">MAX($H$6-K7,0)</f>
+        <v>1300</v>
+      </c>
+      <c r="M7" s="4">
+        <f t="shared" ref="M7:M21" si="4">$I$6</f>
+        <v>100</v>
+      </c>
+      <c r="N7" s="9">
+        <f t="shared" ref="N7:N21" si="5">L7/M7-1</f>
+        <v>12</v>
+      </c>
       <c r="T7" s="4">
-        <f t="shared" ref="T7:T21" si="0">K7</f>
+        <f t="shared" ref="T7:T13" si="6">K7</f>
         <v>3700</v>
       </c>
-      <c r="U7" s="4"/>
-      <c r="V7" s="4"/>
-      <c r="W7" s="4"/>
-      <c r="Y7" s="4"/>
-      <c r="Z7" s="9"/>
+      <c r="U7" s="4">
+        <f t="shared" ref="U7:U21" si="7">MAX(T7-$AC$6,0)</f>
+        <v>0</v>
+      </c>
+      <c r="V7" s="4">
+        <f t="shared" ref="V7:V21" si="8">$AD$6</f>
+        <v>200</v>
+      </c>
+      <c r="W7" s="4">
+        <f t="shared" ref="W7:W21" si="9">MAX($AC$6-T7,0)</f>
+        <v>1300</v>
+      </c>
+      <c r="X7" s="1">
+        <f t="shared" ref="X7:X21" si="10">$AD$7</f>
+        <v>100</v>
+      </c>
+      <c r="Y7" s="4">
+        <f t="shared" ref="Y7:Y21" si="11">(U7+W7)-(V7+X7)</f>
+        <v>1000</v>
+      </c>
+      <c r="Z7" s="9">
+        <f t="shared" ref="Z7:Z21" si="12">Y7/(V7+X7)</f>
+        <v>3.3333333333333335</v>
+      </c>
       <c r="AB7" s="1" t="s">
         <v>22</v>
       </c>
@@ -22964,14 +24038,33 @@
         <v>100</v>
       </c>
       <c r="AF7" s="4">
-        <f t="shared" ref="AF7:AF21" si="1">T7</f>
+        <f t="shared" ref="AF7:AF13" si="13">T7</f>
         <v>3700</v>
       </c>
-      <c r="AG7" s="4"/>
-      <c r="AH7" s="4"/>
-      <c r="AI7" s="4"/>
-      <c r="AK7" s="4"/>
-      <c r="AL7" s="9"/>
+      <c r="AG7" s="4">
+        <f t="shared" ref="AG7:AG21" si="14">MAX(AF7-$AO$6,0)</f>
+        <v>0</v>
+      </c>
+      <c r="AH7" s="4">
+        <f t="shared" ref="AH7:AH21" si="15">$AP$6</f>
+        <v>100</v>
+      </c>
+      <c r="AI7" s="4">
+        <f t="shared" ref="AI7:AI21" si="16">MAX($AO$7-AF7,0)</f>
+        <v>1300</v>
+      </c>
+      <c r="AJ7" s="1">
+        <f t="shared" ref="AJ7:AJ21" si="17">$AP$7</f>
+        <v>100</v>
+      </c>
+      <c r="AK7" s="4">
+        <f t="shared" ref="AK7:AK21" si="18">AJ7+AH7-(AG7+AI7)</f>
+        <v>-1100</v>
+      </c>
+      <c r="AL7" s="9">
+        <f t="shared" ref="AL7:AL21" si="19">AK7/(AG7+AI7)</f>
+        <v>-0.84615384615384615</v>
+      </c>
       <c r="AN7" s="1" t="s">
         <v>26</v>
       </c>
@@ -22984,542 +24077,1332 @@
     </row>
     <row r="8" spans="2:42" x14ac:dyDescent="0.3">
       <c r="B8" s="4">
-        <f t="shared" ref="B8:B21" si="2">B7+200</f>
+        <f t="shared" ref="B8:B21" si="20">B7+200</f>
         <v>3900</v>
       </c>
-      <c r="C8" s="4"/>
-      <c r="D8" s="4"/>
-      <c r="E8" s="9"/>
+      <c r="C8" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="D8" s="4">
+        <f t="shared" si="1"/>
+        <v>100</v>
+      </c>
+      <c r="E8" s="9">
+        <f t="shared" si="2"/>
+        <v>-1</v>
+      </c>
       <c r="F8" s="4"/>
-      <c r="G8" s="22" t="s">
+      <c r="G8" s="23" t="s">
         <v>27</v>
       </c>
-      <c r="H8" s="23"/>
-      <c r="I8" s="10"/>
+      <c r="H8" s="24"/>
+      <c r="I8" s="10">
+        <f>H6/I6</f>
+        <v>50</v>
+      </c>
       <c r="K8" s="4">
-        <f t="shared" ref="K8:K21" si="3">K7+200</f>
+        <f t="shared" ref="K8:K21" si="21">K7+200</f>
         <v>3900</v>
       </c>
-      <c r="L8" s="4"/>
-      <c r="M8" s="4"/>
-      <c r="N8" s="9"/>
-      <c r="P8" s="22" t="s">
+      <c r="L8" s="4">
+        <f t="shared" si="3"/>
+        <v>1100</v>
+      </c>
+      <c r="M8" s="4">
+        <f t="shared" si="4"/>
+        <v>100</v>
+      </c>
+      <c r="N8" s="9">
+        <f t="shared" si="5"/>
+        <v>10</v>
+      </c>
+      <c r="P8" s="23" t="s">
         <v>27</v>
       </c>
-      <c r="Q8" s="23"/>
-      <c r="R8" s="10"/>
+      <c r="Q8" s="24"/>
+      <c r="R8" s="10">
+        <f>Q6/R6</f>
+        <v>50</v>
+      </c>
       <c r="T8" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="6"/>
         <v>3900</v>
       </c>
-      <c r="U8" s="4"/>
-      <c r="V8" s="4"/>
-      <c r="W8" s="4"/>
-      <c r="Y8" s="4"/>
-      <c r="Z8" s="9"/>
+      <c r="U8" s="4">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="V8" s="4">
+        <f t="shared" si="8"/>
+        <v>200</v>
+      </c>
+      <c r="W8" s="4">
+        <f t="shared" si="9"/>
+        <v>1100</v>
+      </c>
+      <c r="X8" s="1">
+        <f t="shared" si="10"/>
+        <v>100</v>
+      </c>
+      <c r="Y8" s="4">
+        <f t="shared" si="11"/>
+        <v>800</v>
+      </c>
+      <c r="Z8" s="9">
+        <f t="shared" si="12"/>
+        <v>2.6666666666666665</v>
+      </c>
       <c r="AF8" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="13"/>
         <v>3900</v>
       </c>
-      <c r="AG8" s="4"/>
-      <c r="AH8" s="4"/>
-      <c r="AI8" s="4"/>
-      <c r="AK8" s="4"/>
-      <c r="AL8" s="9"/>
+      <c r="AG8" s="4">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="AH8" s="4">
+        <f t="shared" si="15"/>
+        <v>100</v>
+      </c>
+      <c r="AI8" s="4">
+        <f t="shared" si="16"/>
+        <v>1100</v>
+      </c>
+      <c r="AJ8" s="1">
+        <f t="shared" si="17"/>
+        <v>100</v>
+      </c>
+      <c r="AK8" s="4">
+        <f t="shared" si="18"/>
+        <v>-900</v>
+      </c>
+      <c r="AL8" s="9">
+        <f t="shared" si="19"/>
+        <v>-0.81818181818181823</v>
+      </c>
     </row>
     <row r="9" spans="2:42" x14ac:dyDescent="0.3">
       <c r="B9" s="4">
+        <f t="shared" si="20"/>
+        <v>4100</v>
+      </c>
+      <c r="C9" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="D9" s="4">
+        <f t="shared" si="1"/>
+        <v>100</v>
+      </c>
+      <c r="E9" s="9">
         <f t="shared" si="2"/>
-        <v>4100</v>
-      </c>
-      <c r="C9" s="4"/>
-      <c r="D9" s="4"/>
-      <c r="E9" s="9"/>
+        <v>-1</v>
+      </c>
       <c r="F9" s="4"/>
       <c r="G9" s="4"/>
       <c r="H9" s="4"/>
       <c r="I9" s="4"/>
       <c r="K9" s="4">
+        <f t="shared" si="21"/>
+        <v>4100</v>
+      </c>
+      <c r="L9" s="4">
         <f t="shared" si="3"/>
+        <v>900</v>
+      </c>
+      <c r="M9" s="4">
+        <f t="shared" si="4"/>
+        <v>100</v>
+      </c>
+      <c r="N9" s="9">
+        <f t="shared" si="5"/>
+        <v>8</v>
+      </c>
+      <c r="T9" s="4">
+        <f t="shared" si="6"/>
         <v>4100</v>
       </c>
-      <c r="L9" s="4"/>
-      <c r="M9" s="4"/>
-      <c r="N9" s="9"/>
-      <c r="T9" s="4">
-        <f t="shared" si="0"/>
+      <c r="U9" s="4">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="V9" s="4">
+        <f t="shared" si="8"/>
+        <v>200</v>
+      </c>
+      <c r="W9" s="4">
+        <f t="shared" si="9"/>
+        <v>900</v>
+      </c>
+      <c r="X9" s="1">
+        <f t="shared" si="10"/>
+        <v>100</v>
+      </c>
+      <c r="Y9" s="4">
+        <f t="shared" si="11"/>
+        <v>600</v>
+      </c>
+      <c r="Z9" s="9">
+        <f t="shared" si="12"/>
+        <v>2</v>
+      </c>
+      <c r="AF9" s="4">
+        <f t="shared" si="13"/>
         <v>4100</v>
       </c>
-      <c r="U9" s="4"/>
-      <c r="V9" s="4"/>
-      <c r="W9" s="4"/>
-      <c r="Y9" s="4"/>
-      <c r="Z9" s="9"/>
-      <c r="AF9" s="4">
-        <f t="shared" si="1"/>
-        <v>4100</v>
-      </c>
-      <c r="AG9" s="4"/>
-      <c r="AH9" s="4"/>
-      <c r="AI9" s="4"/>
-      <c r="AK9" s="4"/>
-      <c r="AL9" s="9"/>
+      <c r="AG9" s="4">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="AH9" s="4">
+        <f t="shared" si="15"/>
+        <v>100</v>
+      </c>
+      <c r="AI9" s="4">
+        <f t="shared" si="16"/>
+        <v>900</v>
+      </c>
+      <c r="AJ9" s="1">
+        <f t="shared" si="17"/>
+        <v>100</v>
+      </c>
+      <c r="AK9" s="4">
+        <f t="shared" si="18"/>
+        <v>-700</v>
+      </c>
+      <c r="AL9" s="9">
+        <f t="shared" si="19"/>
+        <v>-0.77777777777777779</v>
+      </c>
     </row>
     <row r="10" spans="2:42" x14ac:dyDescent="0.3">
       <c r="B10" s="4">
+        <f t="shared" si="20"/>
+        <v>4300</v>
+      </c>
+      <c r="C10" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="D10" s="4">
+        <f t="shared" si="1"/>
+        <v>100</v>
+      </c>
+      <c r="E10" s="9">
         <f t="shared" si="2"/>
-        <v>4300</v>
-      </c>
-      <c r="C10" s="4"/>
-      <c r="D10" s="4"/>
-      <c r="E10" s="9"/>
+        <v>-1</v>
+      </c>
       <c r="F10" s="4"/>
       <c r="G10" s="4"/>
       <c r="H10" s="4"/>
       <c r="I10" s="4"/>
       <c r="K10" s="4">
+        <f t="shared" si="21"/>
+        <v>4300</v>
+      </c>
+      <c r="L10" s="4">
         <f t="shared" si="3"/>
+        <v>700</v>
+      </c>
+      <c r="M10" s="4">
+        <f t="shared" si="4"/>
+        <v>100</v>
+      </c>
+      <c r="N10" s="9">
+        <f t="shared" si="5"/>
+        <v>6</v>
+      </c>
+      <c r="T10" s="4">
+        <f t="shared" si="6"/>
         <v>4300</v>
       </c>
-      <c r="L10" s="4"/>
-      <c r="M10" s="4"/>
-      <c r="N10" s="9"/>
-      <c r="T10" s="4">
-        <f t="shared" si="0"/>
+      <c r="U10" s="4">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="V10" s="4">
+        <f t="shared" si="8"/>
+        <v>200</v>
+      </c>
+      <c r="W10" s="4">
+        <f t="shared" si="9"/>
+        <v>700</v>
+      </c>
+      <c r="X10" s="1">
+        <f t="shared" si="10"/>
+        <v>100</v>
+      </c>
+      <c r="Y10" s="4">
+        <f t="shared" si="11"/>
+        <v>400</v>
+      </c>
+      <c r="Z10" s="9">
+        <f t="shared" si="12"/>
+        <v>1.3333333333333333</v>
+      </c>
+      <c r="AF10" s="4">
+        <f t="shared" si="13"/>
         <v>4300</v>
       </c>
-      <c r="U10" s="4"/>
-      <c r="V10" s="4"/>
-      <c r="W10" s="4"/>
-      <c r="Y10" s="4"/>
-      <c r="Z10" s="9"/>
-      <c r="AF10" s="4">
-        <f t="shared" si="1"/>
-        <v>4300</v>
-      </c>
-      <c r="AG10" s="4"/>
-      <c r="AH10" s="4"/>
-      <c r="AI10" s="4"/>
-      <c r="AK10" s="4"/>
-      <c r="AL10" s="9"/>
+      <c r="AG10" s="4">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="AH10" s="4">
+        <f t="shared" si="15"/>
+        <v>100</v>
+      </c>
+      <c r="AI10" s="4">
+        <f t="shared" si="16"/>
+        <v>700</v>
+      </c>
+      <c r="AJ10" s="1">
+        <f t="shared" si="17"/>
+        <v>100</v>
+      </c>
+      <c r="AK10" s="4">
+        <f t="shared" si="18"/>
+        <v>-500</v>
+      </c>
+      <c r="AL10" s="9">
+        <f t="shared" si="19"/>
+        <v>-0.7142857142857143</v>
+      </c>
     </row>
     <row r="11" spans="2:42" x14ac:dyDescent="0.3">
       <c r="B11" s="4">
+        <f t="shared" si="20"/>
+        <v>4500</v>
+      </c>
+      <c r="C11" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="D11" s="4">
+        <f t="shared" si="1"/>
+        <v>100</v>
+      </c>
+      <c r="E11" s="9">
         <f t="shared" si="2"/>
-        <v>4500</v>
-      </c>
-      <c r="C11" s="4"/>
-      <c r="D11" s="4"/>
-      <c r="E11" s="9"/>
+        <v>-1</v>
+      </c>
       <c r="F11" s="4"/>
       <c r="G11" s="4"/>
       <c r="H11" s="4"/>
       <c r="I11" s="4"/>
       <c r="K11" s="4">
+        <f t="shared" si="21"/>
+        <v>4500</v>
+      </c>
+      <c r="L11" s="4">
         <f t="shared" si="3"/>
+        <v>500</v>
+      </c>
+      <c r="M11" s="4">
+        <f t="shared" si="4"/>
+        <v>100</v>
+      </c>
+      <c r="N11" s="9">
+        <f t="shared" si="5"/>
+        <v>4</v>
+      </c>
+      <c r="T11" s="4">
+        <f t="shared" si="6"/>
         <v>4500</v>
       </c>
-      <c r="L11" s="4"/>
-      <c r="M11" s="4"/>
-      <c r="N11" s="9"/>
-      <c r="T11" s="4">
-        <f t="shared" si="0"/>
+      <c r="U11" s="4">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="V11" s="4">
+        <f t="shared" si="8"/>
+        <v>200</v>
+      </c>
+      <c r="W11" s="4">
+        <f t="shared" si="9"/>
+        <v>500</v>
+      </c>
+      <c r="X11" s="1">
+        <f t="shared" si="10"/>
+        <v>100</v>
+      </c>
+      <c r="Y11" s="4">
+        <f t="shared" si="11"/>
+        <v>200</v>
+      </c>
+      <c r="Z11" s="9">
+        <f t="shared" si="12"/>
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="AF11" s="4">
+        <f t="shared" si="13"/>
         <v>4500</v>
       </c>
-      <c r="U11" s="4"/>
-      <c r="V11" s="4"/>
-      <c r="W11" s="4"/>
-      <c r="Y11" s="4"/>
-      <c r="Z11" s="9"/>
-      <c r="AF11" s="4">
-        <f t="shared" si="1"/>
-        <v>4500</v>
-      </c>
-      <c r="AG11" s="4"/>
-      <c r="AH11" s="4"/>
-      <c r="AI11" s="4"/>
-      <c r="AK11" s="4"/>
-      <c r="AL11" s="9"/>
+      <c r="AG11" s="4">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="AH11" s="4">
+        <f t="shared" si="15"/>
+        <v>100</v>
+      </c>
+      <c r="AI11" s="4">
+        <f t="shared" si="16"/>
+        <v>500</v>
+      </c>
+      <c r="AJ11" s="1">
+        <f t="shared" si="17"/>
+        <v>100</v>
+      </c>
+      <c r="AK11" s="4">
+        <f t="shared" si="18"/>
+        <v>-300</v>
+      </c>
+      <c r="AL11" s="9">
+        <f t="shared" si="19"/>
+        <v>-0.6</v>
+      </c>
     </row>
     <row r="12" spans="2:42" x14ac:dyDescent="0.3">
       <c r="B12" s="4">
+        <f t="shared" si="20"/>
+        <v>4700</v>
+      </c>
+      <c r="C12" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="D12" s="4">
+        <f t="shared" si="1"/>
+        <v>100</v>
+      </c>
+      <c r="E12" s="9">
         <f t="shared" si="2"/>
-        <v>4700</v>
-      </c>
-      <c r="C12" s="4"/>
-      <c r="D12" s="4"/>
-      <c r="E12" s="9"/>
+        <v>-1</v>
+      </c>
       <c r="F12" s="4"/>
       <c r="G12" s="4"/>
       <c r="H12" s="4"/>
       <c r="I12" s="4"/>
       <c r="K12" s="4">
+        <f t="shared" si="21"/>
+        <v>4700</v>
+      </c>
+      <c r="L12" s="4">
         <f t="shared" si="3"/>
+        <v>300</v>
+      </c>
+      <c r="M12" s="4">
+        <f t="shared" si="4"/>
+        <v>100</v>
+      </c>
+      <c r="N12" s="9">
+        <f t="shared" si="5"/>
+        <v>2</v>
+      </c>
+      <c r="T12" s="4">
+        <f t="shared" si="6"/>
         <v>4700</v>
       </c>
-      <c r="L12" s="4"/>
-      <c r="M12" s="4"/>
-      <c r="N12" s="9"/>
-      <c r="T12" s="4">
-        <f t="shared" si="0"/>
+      <c r="U12" s="4">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="V12" s="4">
+        <f t="shared" si="8"/>
+        <v>200</v>
+      </c>
+      <c r="W12" s="4">
+        <f t="shared" si="9"/>
+        <v>300</v>
+      </c>
+      <c r="X12" s="1">
+        <f t="shared" si="10"/>
+        <v>100</v>
+      </c>
+      <c r="Y12" s="4">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="Z12" s="9">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="AF12" s="4">
+        <f t="shared" si="13"/>
         <v>4700</v>
       </c>
-      <c r="U12" s="4"/>
-      <c r="V12" s="4"/>
-      <c r="W12" s="4"/>
-      <c r="Y12" s="4"/>
-      <c r="Z12" s="9"/>
-      <c r="AF12" s="4">
-        <f t="shared" si="1"/>
-        <v>4700</v>
-      </c>
-      <c r="AG12" s="4"/>
-      <c r="AH12" s="4"/>
-      <c r="AI12" s="4"/>
-      <c r="AK12" s="4"/>
-      <c r="AL12" s="9"/>
+      <c r="AG12" s="4">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="AH12" s="4">
+        <f t="shared" si="15"/>
+        <v>100</v>
+      </c>
+      <c r="AI12" s="4">
+        <f t="shared" si="16"/>
+        <v>300</v>
+      </c>
+      <c r="AJ12" s="1">
+        <f t="shared" si="17"/>
+        <v>100</v>
+      </c>
+      <c r="AK12" s="4">
+        <f t="shared" si="18"/>
+        <v>-100</v>
+      </c>
+      <c r="AL12" s="9">
+        <f t="shared" si="19"/>
+        <v>-0.33333333333333331</v>
+      </c>
     </row>
     <row r="13" spans="2:42" x14ac:dyDescent="0.3">
       <c r="B13" s="4">
+        <f t="shared" si="20"/>
+        <v>4900</v>
+      </c>
+      <c r="C13" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="D13" s="4">
+        <f t="shared" si="1"/>
+        <v>100</v>
+      </c>
+      <c r="E13" s="9">
         <f t="shared" si="2"/>
-        <v>4900</v>
-      </c>
-      <c r="C13" s="4"/>
-      <c r="D13" s="4"/>
-      <c r="E13" s="9"/>
+        <v>-1</v>
+      </c>
       <c r="F13" s="4"/>
       <c r="G13" s="4"/>
       <c r="H13" s="4"/>
       <c r="I13" s="4"/>
       <c r="K13" s="4">
+        <f t="shared" si="21"/>
+        <v>4900</v>
+      </c>
+      <c r="L13" s="4">
         <f t="shared" si="3"/>
+        <v>100</v>
+      </c>
+      <c r="M13" s="4">
+        <f t="shared" si="4"/>
+        <v>100</v>
+      </c>
+      <c r="N13" s="9">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="T13" s="4">
+        <f t="shared" si="6"/>
         <v>4900</v>
       </c>
-      <c r="L13" s="4"/>
-      <c r="M13" s="4"/>
-      <c r="N13" s="9"/>
-      <c r="T13" s="4">
-        <f t="shared" si="0"/>
+      <c r="U13" s="4">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="V13" s="4">
+        <f t="shared" si="8"/>
+        <v>200</v>
+      </c>
+      <c r="W13" s="4">
+        <f t="shared" si="9"/>
+        <v>100</v>
+      </c>
+      <c r="X13" s="1">
+        <f t="shared" si="10"/>
+        <v>100</v>
+      </c>
+      <c r="Y13" s="4">
+        <f t="shared" si="11"/>
+        <v>-200</v>
+      </c>
+      <c r="Z13" s="9">
+        <f t="shared" si="12"/>
+        <v>-0.66666666666666663</v>
+      </c>
+      <c r="AF13" s="4">
+        <f t="shared" si="13"/>
         <v>4900</v>
       </c>
-      <c r="U13" s="4"/>
-      <c r="V13" s="4"/>
-      <c r="W13" s="4"/>
-      <c r="Y13" s="4"/>
-      <c r="Z13" s="9"/>
-      <c r="AF13" s="4">
-        <f t="shared" si="1"/>
-        <v>4900</v>
-      </c>
-      <c r="AG13" s="4"/>
-      <c r="AH13" s="4"/>
-      <c r="AI13" s="4"/>
-      <c r="AK13" s="4"/>
-      <c r="AL13" s="9"/>
+      <c r="AG13" s="4">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="AH13" s="4">
+        <f t="shared" si="15"/>
+        <v>100</v>
+      </c>
+      <c r="AI13" s="4">
+        <f t="shared" si="16"/>
+        <v>100</v>
+      </c>
+      <c r="AJ13" s="1">
+        <f t="shared" si="17"/>
+        <v>100</v>
+      </c>
+      <c r="AK13" s="4">
+        <f t="shared" si="18"/>
+        <v>100</v>
+      </c>
+      <c r="AL13" s="9">
+        <f t="shared" si="19"/>
+        <v>1</v>
+      </c>
     </row>
     <row r="14" spans="2:42" x14ac:dyDescent="0.3">
       <c r="B14" s="4">
+        <f t="shared" si="20"/>
+        <v>5100</v>
+      </c>
+      <c r="C14" s="4">
+        <f t="shared" si="0"/>
+        <v>100</v>
+      </c>
+      <c r="D14" s="4">
+        <f t="shared" si="1"/>
+        <v>100</v>
+      </c>
+      <c r="E14" s="9">
         <f t="shared" si="2"/>
-        <v>5100</v>
-      </c>
-      <c r="C14" s="4"/>
-      <c r="D14" s="4"/>
-      <c r="E14" s="9"/>
+        <v>0</v>
+      </c>
       <c r="F14" s="4"/>
       <c r="G14" s="4"/>
       <c r="H14" s="4"/>
       <c r="I14" s="4"/>
       <c r="K14" s="4">
+        <f t="shared" si="21"/>
+        <v>5100</v>
+      </c>
+      <c r="L14" s="4">
         <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="M14" s="4">
+        <f t="shared" si="4"/>
+        <v>100</v>
+      </c>
+      <c r="N14" s="9">
+        <f t="shared" si="5"/>
+        <v>-1</v>
+      </c>
+      <c r="T14" s="4">
+        <f t="shared" ref="T14:T21" si="22">K14</f>
         <v>5100</v>
       </c>
-      <c r="L14" s="4"/>
-      <c r="M14" s="4"/>
-      <c r="N14" s="9"/>
-      <c r="T14" s="4">
-        <f t="shared" si="0"/>
+      <c r="U14" s="4">
+        <f t="shared" si="7"/>
+        <v>100</v>
+      </c>
+      <c r="V14" s="4">
+        <f t="shared" si="8"/>
+        <v>200</v>
+      </c>
+      <c r="W14" s="4">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="X14" s="1">
+        <f t="shared" si="10"/>
+        <v>100</v>
+      </c>
+      <c r="Y14" s="4">
+        <f t="shared" si="11"/>
+        <v>-200</v>
+      </c>
+      <c r="Z14" s="9">
+        <f t="shared" si="12"/>
+        <v>-0.66666666666666663</v>
+      </c>
+      <c r="AF14" s="4">
+        <f t="shared" ref="AF14:AF21" si="23">T14</f>
         <v>5100</v>
       </c>
-      <c r="U14" s="4"/>
-      <c r="V14" s="4"/>
-      <c r="W14" s="4"/>
-      <c r="Y14" s="4"/>
-      <c r="Z14" s="9"/>
-      <c r="AF14" s="4">
-        <f t="shared" si="1"/>
-        <v>5100</v>
-      </c>
-      <c r="AG14" s="4"/>
-      <c r="AH14" s="4"/>
-      <c r="AI14" s="4"/>
-      <c r="AK14" s="4"/>
-      <c r="AL14" s="9"/>
+      <c r="AG14" s="4">
+        <f t="shared" si="14"/>
+        <v>100</v>
+      </c>
+      <c r="AH14" s="4">
+        <f t="shared" si="15"/>
+        <v>100</v>
+      </c>
+      <c r="AI14" s="4">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="AJ14" s="1">
+        <f t="shared" si="17"/>
+        <v>100</v>
+      </c>
+      <c r="AK14" s="4">
+        <f t="shared" si="18"/>
+        <v>100</v>
+      </c>
+      <c r="AL14" s="9">
+        <f t="shared" si="19"/>
+        <v>1</v>
+      </c>
     </row>
     <row r="15" spans="2:42" x14ac:dyDescent="0.3">
       <c r="B15" s="4">
+        <f t="shared" si="20"/>
+        <v>5300</v>
+      </c>
+      <c r="C15" s="4">
+        <f t="shared" si="0"/>
+        <v>300</v>
+      </c>
+      <c r="D15" s="4">
+        <f t="shared" si="1"/>
+        <v>100</v>
+      </c>
+      <c r="E15" s="9">
         <f t="shared" si="2"/>
-        <v>5300</v>
-      </c>
-      <c r="C15" s="4"/>
-      <c r="D15" s="4"/>
-      <c r="E15" s="9"/>
+        <v>2</v>
+      </c>
       <c r="F15" s="4"/>
       <c r="G15" s="4"/>
       <c r="H15" s="4"/>
       <c r="I15" s="4"/>
       <c r="K15" s="4">
+        <f t="shared" si="21"/>
+        <v>5300</v>
+      </c>
+      <c r="L15" s="4">
         <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="M15" s="4">
+        <f t="shared" si="4"/>
+        <v>100</v>
+      </c>
+      <c r="N15" s="9">
+        <f t="shared" si="5"/>
+        <v>-1</v>
+      </c>
+      <c r="T15" s="4">
+        <f t="shared" si="22"/>
         <v>5300</v>
       </c>
-      <c r="L15" s="4"/>
-      <c r="M15" s="4"/>
-      <c r="N15" s="9"/>
-      <c r="T15" s="4">
-        <f t="shared" si="0"/>
+      <c r="U15" s="4">
+        <f t="shared" si="7"/>
+        <v>300</v>
+      </c>
+      <c r="V15" s="4">
+        <f t="shared" si="8"/>
+        <v>200</v>
+      </c>
+      <c r="W15" s="4">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="X15" s="1">
+        <f t="shared" si="10"/>
+        <v>100</v>
+      </c>
+      <c r="Y15" s="4">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="Z15" s="9">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="AF15" s="4">
+        <f t="shared" si="23"/>
         <v>5300</v>
       </c>
-      <c r="U15" s="4"/>
-      <c r="V15" s="4"/>
-      <c r="W15" s="4"/>
-      <c r="Y15" s="4"/>
-      <c r="Z15" s="9"/>
-      <c r="AF15" s="4">
-        <f t="shared" si="1"/>
-        <v>5300</v>
-      </c>
-      <c r="AG15" s="4"/>
-      <c r="AH15" s="4"/>
-      <c r="AI15" s="4"/>
-      <c r="AK15" s="4"/>
-      <c r="AL15" s="9"/>
+      <c r="AG15" s="4">
+        <f t="shared" si="14"/>
+        <v>300</v>
+      </c>
+      <c r="AH15" s="4">
+        <f t="shared" si="15"/>
+        <v>100</v>
+      </c>
+      <c r="AI15" s="4">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="AJ15" s="1">
+        <f t="shared" si="17"/>
+        <v>100</v>
+      </c>
+      <c r="AK15" s="4">
+        <f t="shared" si="18"/>
+        <v>-100</v>
+      </c>
+      <c r="AL15" s="9">
+        <f t="shared" si="19"/>
+        <v>-0.33333333333333331</v>
+      </c>
     </row>
     <row r="16" spans="2:42" x14ac:dyDescent="0.3">
       <c r="B16" s="4">
+        <f t="shared" si="20"/>
+        <v>5500</v>
+      </c>
+      <c r="C16" s="4">
+        <f t="shared" si="0"/>
+        <v>500</v>
+      </c>
+      <c r="D16" s="4">
+        <f t="shared" si="1"/>
+        <v>100</v>
+      </c>
+      <c r="E16" s="9">
         <f t="shared" si="2"/>
-        <v>5500</v>
-      </c>
-      <c r="C16" s="4"/>
-      <c r="D16" s="4"/>
-      <c r="E16" s="9"/>
+        <v>4</v>
+      </c>
       <c r="F16" s="4"/>
       <c r="G16" s="4"/>
       <c r="H16" s="4"/>
       <c r="I16" s="4"/>
       <c r="K16" s="4">
+        <f t="shared" si="21"/>
+        <v>5500</v>
+      </c>
+      <c r="L16" s="4">
         <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="M16" s="4">
+        <f t="shared" si="4"/>
+        <v>100</v>
+      </c>
+      <c r="N16" s="9">
+        <f t="shared" si="5"/>
+        <v>-1</v>
+      </c>
+      <c r="T16" s="4">
+        <f t="shared" si="22"/>
         <v>5500</v>
       </c>
-      <c r="L16" s="4"/>
-      <c r="M16" s="4"/>
-      <c r="N16" s="9"/>
-      <c r="T16" s="4">
-        <f t="shared" si="0"/>
+      <c r="U16" s="4">
+        <f t="shared" si="7"/>
+        <v>500</v>
+      </c>
+      <c r="V16" s="4">
+        <f t="shared" si="8"/>
+        <v>200</v>
+      </c>
+      <c r="W16" s="4">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="X16" s="1">
+        <f t="shared" si="10"/>
+        <v>100</v>
+      </c>
+      <c r="Y16" s="4">
+        <f t="shared" si="11"/>
+        <v>200</v>
+      </c>
+      <c r="Z16" s="9">
+        <f t="shared" si="12"/>
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="AF16" s="4">
+        <f t="shared" si="23"/>
         <v>5500</v>
       </c>
-      <c r="U16" s="4"/>
-      <c r="V16" s="4"/>
-      <c r="W16" s="4"/>
-      <c r="Y16" s="4"/>
-      <c r="Z16" s="9"/>
-      <c r="AF16" s="4">
-        <f t="shared" si="1"/>
-        <v>5500</v>
-      </c>
-      <c r="AG16" s="4"/>
-      <c r="AH16" s="4"/>
-      <c r="AI16" s="4"/>
-      <c r="AK16" s="4"/>
-      <c r="AL16" s="9"/>
+      <c r="AG16" s="4">
+        <f t="shared" si="14"/>
+        <v>500</v>
+      </c>
+      <c r="AH16" s="4">
+        <f t="shared" si="15"/>
+        <v>100</v>
+      </c>
+      <c r="AI16" s="4">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="AJ16" s="1">
+        <f t="shared" si="17"/>
+        <v>100</v>
+      </c>
+      <c r="AK16" s="4">
+        <f t="shared" si="18"/>
+        <v>-300</v>
+      </c>
+      <c r="AL16" s="9">
+        <f t="shared" si="19"/>
+        <v>-0.6</v>
+      </c>
     </row>
     <row r="17" spans="2:40" x14ac:dyDescent="0.3">
       <c r="B17" s="4">
+        <f t="shared" si="20"/>
+        <v>5700</v>
+      </c>
+      <c r="C17" s="4">
+        <f t="shared" si="0"/>
+        <v>700</v>
+      </c>
+      <c r="D17" s="4">
+        <f t="shared" si="1"/>
+        <v>100</v>
+      </c>
+      <c r="E17" s="9">
         <f t="shared" si="2"/>
-        <v>5700</v>
-      </c>
-      <c r="C17" s="4"/>
-      <c r="D17" s="4"/>
-      <c r="E17" s="9"/>
+        <v>6</v>
+      </c>
       <c r="F17" s="4"/>
       <c r="G17" s="4"/>
       <c r="H17" s="4"/>
       <c r="I17" s="4"/>
       <c r="K17" s="4">
+        <f t="shared" si="21"/>
+        <v>5700</v>
+      </c>
+      <c r="L17" s="4">
         <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="M17" s="4">
+        <f t="shared" si="4"/>
+        <v>100</v>
+      </c>
+      <c r="N17" s="9">
+        <f t="shared" si="5"/>
+        <v>-1</v>
+      </c>
+      <c r="T17" s="4">
+        <f t="shared" si="22"/>
         <v>5700</v>
       </c>
-      <c r="L17" s="4"/>
-      <c r="M17" s="4"/>
-      <c r="N17" s="9"/>
-      <c r="T17" s="4">
-        <f t="shared" si="0"/>
+      <c r="U17" s="4">
+        <f t="shared" si="7"/>
+        <v>700</v>
+      </c>
+      <c r="V17" s="4">
+        <f t="shared" si="8"/>
+        <v>200</v>
+      </c>
+      <c r="W17" s="4">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="X17" s="1">
+        <f t="shared" si="10"/>
+        <v>100</v>
+      </c>
+      <c r="Y17" s="4">
+        <f t="shared" si="11"/>
+        <v>400</v>
+      </c>
+      <c r="Z17" s="9">
+        <f t="shared" si="12"/>
+        <v>1.3333333333333333</v>
+      </c>
+      <c r="AF17" s="4">
+        <f t="shared" si="23"/>
         <v>5700</v>
       </c>
-      <c r="U17" s="4"/>
-      <c r="V17" s="4"/>
-      <c r="W17" s="4"/>
-      <c r="Y17" s="4"/>
-      <c r="Z17" s="9"/>
-      <c r="AF17" s="4">
-        <f t="shared" si="1"/>
-        <v>5700</v>
-      </c>
-      <c r="AG17" s="4"/>
-      <c r="AH17" s="4"/>
-      <c r="AI17" s="4"/>
-      <c r="AK17" s="4"/>
-      <c r="AL17" s="9"/>
+      <c r="AG17" s="4">
+        <f t="shared" si="14"/>
+        <v>700</v>
+      </c>
+      <c r="AH17" s="4">
+        <f t="shared" si="15"/>
+        <v>100</v>
+      </c>
+      <c r="AI17" s="4">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="AJ17" s="1">
+        <f t="shared" si="17"/>
+        <v>100</v>
+      </c>
+      <c r="AK17" s="4">
+        <f t="shared" si="18"/>
+        <v>-500</v>
+      </c>
+      <c r="AL17" s="9">
+        <f t="shared" si="19"/>
+        <v>-0.7142857142857143</v>
+      </c>
     </row>
     <row r="18" spans="2:40" x14ac:dyDescent="0.3">
       <c r="B18" s="4">
+        <f t="shared" si="20"/>
+        <v>5900</v>
+      </c>
+      <c r="C18" s="4">
+        <f t="shared" si="0"/>
+        <v>900</v>
+      </c>
+      <c r="D18" s="4">
+        <f t="shared" si="1"/>
+        <v>100</v>
+      </c>
+      <c r="E18" s="9">
         <f t="shared" si="2"/>
-        <v>5900</v>
-      </c>
-      <c r="C18" s="4"/>
-      <c r="D18" s="4"/>
-      <c r="E18" s="9"/>
+        <v>8</v>
+      </c>
       <c r="F18" s="4"/>
       <c r="G18" s="4"/>
       <c r="H18" s="4"/>
       <c r="I18" s="4"/>
       <c r="K18" s="4">
+        <f t="shared" si="21"/>
+        <v>5900</v>
+      </c>
+      <c r="L18" s="4">
         <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="M18" s="4">
+        <f t="shared" si="4"/>
+        <v>100</v>
+      </c>
+      <c r="N18" s="9">
+        <f t="shared" si="5"/>
+        <v>-1</v>
+      </c>
+      <c r="T18" s="4">
+        <f t="shared" si="22"/>
         <v>5900</v>
       </c>
-      <c r="L18" s="4"/>
-      <c r="M18" s="4"/>
-      <c r="N18" s="9"/>
-      <c r="T18" s="4">
-        <f t="shared" si="0"/>
+      <c r="U18" s="4">
+        <f t="shared" si="7"/>
+        <v>900</v>
+      </c>
+      <c r="V18" s="4">
+        <f t="shared" si="8"/>
+        <v>200</v>
+      </c>
+      <c r="W18" s="4">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="X18" s="1">
+        <f t="shared" si="10"/>
+        <v>100</v>
+      </c>
+      <c r="Y18" s="4">
+        <f t="shared" si="11"/>
+        <v>600</v>
+      </c>
+      <c r="Z18" s="9">
+        <f t="shared" si="12"/>
+        <v>2</v>
+      </c>
+      <c r="AF18" s="4">
+        <f t="shared" si="23"/>
         <v>5900</v>
       </c>
-      <c r="U18" s="4"/>
-      <c r="V18" s="4"/>
-      <c r="W18" s="4"/>
-      <c r="Y18" s="4"/>
-      <c r="Z18" s="9"/>
-      <c r="AF18" s="4">
-        <f t="shared" si="1"/>
-        <v>5900</v>
-      </c>
-      <c r="AG18" s="4"/>
-      <c r="AH18" s="4"/>
-      <c r="AI18" s="4"/>
-      <c r="AK18" s="4"/>
-      <c r="AL18" s="9"/>
+      <c r="AG18" s="4">
+        <f t="shared" si="14"/>
+        <v>900</v>
+      </c>
+      <c r="AH18" s="4">
+        <f t="shared" si="15"/>
+        <v>100</v>
+      </c>
+      <c r="AI18" s="4">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="AJ18" s="1">
+        <f t="shared" si="17"/>
+        <v>100</v>
+      </c>
+      <c r="AK18" s="4">
+        <f t="shared" si="18"/>
+        <v>-700</v>
+      </c>
+      <c r="AL18" s="9">
+        <f t="shared" si="19"/>
+        <v>-0.77777777777777779</v>
+      </c>
     </row>
     <row r="19" spans="2:40" x14ac:dyDescent="0.3">
       <c r="B19" s="4">
+        <f t="shared" si="20"/>
+        <v>6100</v>
+      </c>
+      <c r="C19" s="4">
+        <f t="shared" si="0"/>
+        <v>1100</v>
+      </c>
+      <c r="D19" s="4">
+        <f t="shared" si="1"/>
+        <v>100</v>
+      </c>
+      <c r="E19" s="9">
         <f t="shared" si="2"/>
-        <v>6100</v>
-      </c>
-      <c r="C19" s="4"/>
-      <c r="D19" s="4"/>
-      <c r="E19" s="9"/>
+        <v>10</v>
+      </c>
       <c r="F19" s="4"/>
       <c r="G19" s="4"/>
       <c r="H19" s="4"/>
       <c r="I19" s="4"/>
       <c r="K19" s="4">
+        <f t="shared" si="21"/>
+        <v>6100</v>
+      </c>
+      <c r="L19" s="4">
         <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="M19" s="4">
+        <f t="shared" si="4"/>
+        <v>100</v>
+      </c>
+      <c r="N19" s="9">
+        <f t="shared" si="5"/>
+        <v>-1</v>
+      </c>
+      <c r="T19" s="4">
+        <f t="shared" si="22"/>
         <v>6100</v>
       </c>
-      <c r="L19" s="4"/>
-      <c r="M19" s="4"/>
-      <c r="N19" s="9"/>
-      <c r="T19" s="4">
-        <f t="shared" si="0"/>
+      <c r="U19" s="4">
+        <f t="shared" si="7"/>
+        <v>1100</v>
+      </c>
+      <c r="V19" s="4">
+        <f t="shared" si="8"/>
+        <v>200</v>
+      </c>
+      <c r="W19" s="4">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="X19" s="1">
+        <f t="shared" si="10"/>
+        <v>100</v>
+      </c>
+      <c r="Y19" s="4">
+        <f t="shared" si="11"/>
+        <v>800</v>
+      </c>
+      <c r="Z19" s="9">
+        <f t="shared" si="12"/>
+        <v>2.6666666666666665</v>
+      </c>
+      <c r="AF19" s="4">
+        <f t="shared" si="23"/>
         <v>6100</v>
       </c>
-      <c r="U19" s="4"/>
-      <c r="V19" s="4"/>
-      <c r="W19" s="4"/>
-      <c r="Y19" s="4"/>
-      <c r="Z19" s="9"/>
-      <c r="AF19" s="4">
-        <f t="shared" si="1"/>
-        <v>6100</v>
-      </c>
-      <c r="AG19" s="4"/>
-      <c r="AH19" s="4"/>
-      <c r="AI19" s="4"/>
-      <c r="AK19" s="4"/>
-      <c r="AL19" s="9"/>
+      <c r="AG19" s="4">
+        <f t="shared" si="14"/>
+        <v>1100</v>
+      </c>
+      <c r="AH19" s="4">
+        <f t="shared" si="15"/>
+        <v>100</v>
+      </c>
+      <c r="AI19" s="4">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="AJ19" s="1">
+        <f t="shared" si="17"/>
+        <v>100</v>
+      </c>
+      <c r="AK19" s="4">
+        <f t="shared" si="18"/>
+        <v>-900</v>
+      </c>
+      <c r="AL19" s="9">
+        <f t="shared" si="19"/>
+        <v>-0.81818181818181823</v>
+      </c>
     </row>
     <row r="20" spans="2:40" x14ac:dyDescent="0.3">
       <c r="B20" s="4">
+        <f t="shared" si="20"/>
+        <v>6300</v>
+      </c>
+      <c r="C20" s="4">
+        <f t="shared" si="0"/>
+        <v>1300</v>
+      </c>
+      <c r="D20" s="4">
+        <f t="shared" si="1"/>
+        <v>100</v>
+      </c>
+      <c r="E20" s="9">
         <f t="shared" si="2"/>
-        <v>6300</v>
-      </c>
-      <c r="C20" s="4"/>
-      <c r="D20" s="4"/>
-      <c r="E20" s="9"/>
+        <v>12</v>
+      </c>
       <c r="F20" s="4"/>
       <c r="G20" s="4"/>
       <c r="H20" s="4"/>
       <c r="I20" s="4"/>
       <c r="K20" s="4">
+        <f t="shared" si="21"/>
+        <v>6300</v>
+      </c>
+      <c r="L20" s="4">
         <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="M20" s="4">
+        <f t="shared" si="4"/>
+        <v>100</v>
+      </c>
+      <c r="N20" s="9">
+        <f t="shared" si="5"/>
+        <v>-1</v>
+      </c>
+      <c r="T20" s="4">
+        <f t="shared" si="22"/>
         <v>6300</v>
       </c>
-      <c r="L20" s="4"/>
-      <c r="M20" s="4"/>
-      <c r="N20" s="9"/>
-      <c r="T20" s="4">
-        <f t="shared" si="0"/>
+      <c r="U20" s="4">
+        <f t="shared" si="7"/>
+        <v>1300</v>
+      </c>
+      <c r="V20" s="4">
+        <f t="shared" si="8"/>
+        <v>200</v>
+      </c>
+      <c r="W20" s="4">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="X20" s="1">
+        <f t="shared" si="10"/>
+        <v>100</v>
+      </c>
+      <c r="Y20" s="4">
+        <f t="shared" si="11"/>
+        <v>1000</v>
+      </c>
+      <c r="Z20" s="9">
+        <f t="shared" si="12"/>
+        <v>3.3333333333333335</v>
+      </c>
+      <c r="AF20" s="4">
+        <f t="shared" si="23"/>
         <v>6300</v>
       </c>
-      <c r="U20" s="4"/>
-      <c r="V20" s="4"/>
-      <c r="W20" s="4"/>
-      <c r="Y20" s="4"/>
-      <c r="Z20" s="9"/>
-      <c r="AF20" s="4">
-        <f t="shared" si="1"/>
-        <v>6300</v>
-      </c>
-      <c r="AG20" s="4"/>
-      <c r="AH20" s="4"/>
-      <c r="AI20" s="4"/>
-      <c r="AK20" s="4"/>
-      <c r="AL20" s="9"/>
+      <c r="AG20" s="4">
+        <f t="shared" si="14"/>
+        <v>1300</v>
+      </c>
+      <c r="AH20" s="4">
+        <f t="shared" si="15"/>
+        <v>100</v>
+      </c>
+      <c r="AI20" s="4">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="AJ20" s="1">
+        <f t="shared" si="17"/>
+        <v>100</v>
+      </c>
+      <c r="AK20" s="4">
+        <f t="shared" si="18"/>
+        <v>-1100</v>
+      </c>
+      <c r="AL20" s="9">
+        <f t="shared" si="19"/>
+        <v>-0.84615384615384615</v>
+      </c>
     </row>
     <row r="21" spans="2:40" x14ac:dyDescent="0.3">
       <c r="B21" s="4">
+        <f t="shared" si="20"/>
+        <v>6500</v>
+      </c>
+      <c r="C21" s="4">
+        <f t="shared" si="0"/>
+        <v>1500</v>
+      </c>
+      <c r="D21" s="4">
+        <f t="shared" si="1"/>
+        <v>100</v>
+      </c>
+      <c r="E21" s="9">
         <f t="shared" si="2"/>
-        <v>6500</v>
-      </c>
-      <c r="C21" s="4"/>
-      <c r="D21" s="4"/>
-      <c r="E21" s="9"/>
+        <v>14</v>
+      </c>
       <c r="F21" s="4"/>
       <c r="G21" s="4"/>
       <c r="H21" s="4"/>
       <c r="I21" s="4"/>
       <c r="K21" s="4">
+        <f t="shared" si="21"/>
+        <v>6500</v>
+      </c>
+      <c r="L21" s="4">
         <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="M21" s="4">
+        <f t="shared" si="4"/>
+        <v>100</v>
+      </c>
+      <c r="N21" s="9">
+        <f t="shared" si="5"/>
+        <v>-1</v>
+      </c>
+      <c r="T21" s="4">
+        <f t="shared" si="22"/>
         <v>6500</v>
       </c>
-      <c r="L21" s="4"/>
-      <c r="M21" s="4"/>
-      <c r="N21" s="9"/>
-      <c r="T21" s="4">
-        <f t="shared" si="0"/>
+      <c r="U21" s="4">
+        <f t="shared" si="7"/>
+        <v>1500</v>
+      </c>
+      <c r="V21" s="4">
+        <f t="shared" si="8"/>
+        <v>200</v>
+      </c>
+      <c r="W21" s="4">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="X21" s="1">
+        <f t="shared" si="10"/>
+        <v>100</v>
+      </c>
+      <c r="Y21" s="4">
+        <f t="shared" si="11"/>
+        <v>1200</v>
+      </c>
+      <c r="Z21" s="9">
+        <f t="shared" si="12"/>
+        <v>4</v>
+      </c>
+      <c r="AF21" s="4">
+        <f t="shared" si="23"/>
         <v>6500</v>
       </c>
-      <c r="U21" s="4"/>
-      <c r="V21" s="4"/>
-      <c r="W21" s="4"/>
-      <c r="Y21" s="4"/>
-      <c r="Z21" s="9"/>
-      <c r="AF21" s="4">
-        <f t="shared" si="1"/>
-        <v>6500</v>
-      </c>
-      <c r="AG21" s="4"/>
-      <c r="AH21" s="4"/>
-      <c r="AI21" s="4"/>
-      <c r="AK21" s="4"/>
-      <c r="AL21" s="9"/>
+      <c r="AG21" s="4">
+        <f t="shared" si="14"/>
+        <v>1500</v>
+      </c>
+      <c r="AH21" s="4">
+        <f t="shared" si="15"/>
+        <v>100</v>
+      </c>
+      <c r="AI21" s="4">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="AJ21" s="1">
+        <f t="shared" si="17"/>
+        <v>100</v>
+      </c>
+      <c r="AK21" s="4">
+        <f t="shared" si="18"/>
+        <v>-1300</v>
+      </c>
+      <c r="AL21" s="9">
+        <f t="shared" si="19"/>
+        <v>-0.8666666666666667</v>
+      </c>
     </row>
     <row r="22" spans="2:40" x14ac:dyDescent="0.3">
       <c r="B22" s="4"/>
@@ -23553,85 +25436,85 @@
     </row>
     <row r="24" spans="2:40" x14ac:dyDescent="0.3">
       <c r="B24" s="4"/>
-      <c r="T24" s="16" t="s">
+      <c r="T24" s="17" t="s">
         <v>28</v>
       </c>
-      <c r="U24" s="16"/>
-      <c r="V24" s="16"/>
-      <c r="W24" s="16"/>
-      <c r="X24" s="16"/>
-      <c r="Y24" s="16"/>
-      <c r="AE24" s="16" t="s">
+      <c r="U24" s="17"/>
+      <c r="V24" s="17"/>
+      <c r="W24" s="17"/>
+      <c r="X24" s="17"/>
+      <c r="Y24" s="17"/>
+      <c r="AE24" s="17" t="s">
         <v>29</v>
       </c>
-      <c r="AF24" s="16"/>
-      <c r="AG24" s="16"/>
-      <c r="AH24" s="16"/>
-      <c r="AI24" s="16"/>
-      <c r="AJ24" s="16"/>
+      <c r="AF24" s="17"/>
+      <c r="AG24" s="17"/>
+      <c r="AH24" s="17"/>
+      <c r="AI24" s="17"/>
+      <c r="AJ24" s="17"/>
     </row>
     <row r="25" spans="2:40" s="8" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B25" s="15" t="s">
+      <c r="B25" s="16" t="s">
         <v>30</v>
       </c>
-      <c r="C25" s="15"/>
-      <c r="D25" s="15"/>
-      <c r="E25" s="15"/>
+      <c r="C25" s="16"/>
+      <c r="D25" s="16"/>
+      <c r="E25" s="16"/>
       <c r="F25" s="7"/>
-      <c r="G25" s="15" t="s">
+      <c r="G25" s="16" t="s">
         <v>19</v>
       </c>
-      <c r="H25" s="15"/>
-      <c r="I25" s="15"/>
-      <c r="K25" s="15" t="s">
+      <c r="H25" s="16"/>
+      <c r="I25" s="16"/>
+      <c r="K25" s="16" t="s">
         <v>31</v>
       </c>
-      <c r="L25" s="15"/>
-      <c r="M25" s="15"/>
-      <c r="N25" s="15"/>
-      <c r="P25" s="15" t="s">
+      <c r="L25" s="16"/>
+      <c r="M25" s="16"/>
+      <c r="N25" s="16"/>
+      <c r="P25" s="16" t="s">
         <v>19</v>
       </c>
-      <c r="Q25" s="15"/>
-      <c r="R25" s="15"/>
-      <c r="T25" s="17" t="s">
+      <c r="Q25" s="16"/>
+      <c r="R25" s="16"/>
+      <c r="T25" s="18" t="s">
         <v>9</v>
       </c>
-      <c r="U25" s="19" t="s">
+      <c r="U25" s="20" t="s">
         <v>32</v>
       </c>
-      <c r="V25" s="19"/>
-      <c r="W25" s="19" t="s">
+      <c r="V25" s="20"/>
+      <c r="W25" s="20" t="s">
         <v>33</v>
       </c>
-      <c r="X25" s="19"/>
-      <c r="Y25" s="17" t="s">
+      <c r="X25" s="20"/>
+      <c r="Y25" s="18" t="s">
         <v>34</v>
       </c>
-      <c r="AA25" s="15" t="s">
+      <c r="AA25" s="16" t="s">
         <v>19</v>
       </c>
-      <c r="AB25" s="15"/>
-      <c r="AC25" s="15"/>
-      <c r="AE25" s="17" t="s">
+      <c r="AB25" s="16"/>
+      <c r="AC25" s="16"/>
+      <c r="AE25" s="18" t="s">
         <v>9</v>
       </c>
-      <c r="AF25" s="19" t="s">
+      <c r="AF25" s="20" t="s">
         <v>35</v>
       </c>
-      <c r="AG25" s="19"/>
-      <c r="AH25" s="19" t="s">
+      <c r="AG25" s="20"/>
+      <c r="AH25" s="20" t="s">
         <v>36</v>
       </c>
-      <c r="AI25" s="19"/>
-      <c r="AJ25" s="17" t="s">
+      <c r="AI25" s="20"/>
+      <c r="AJ25" s="18" t="s">
         <v>37</v>
       </c>
-      <c r="AL25" s="15" t="s">
+      <c r="AL25" s="16" t="s">
         <v>19</v>
       </c>
-      <c r="AM25" s="15"/>
-      <c r="AN25" s="15"/>
+      <c r="AM25" s="16"/>
+      <c r="AN25" s="16"/>
     </row>
     <row r="26" spans="2:40" x14ac:dyDescent="0.3">
       <c r="B26" s="6" t="s">
@@ -23677,7 +25560,7 @@
       <c r="R26" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="T26" s="18"/>
+      <c r="T26" s="19"/>
       <c r="U26" s="6" t="s">
         <v>10</v>
       </c>
@@ -23690,7 +25573,7 @@
       <c r="X26" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="Y26" s="18"/>
+      <c r="Y26" s="19"/>
       <c r="AA26" s="6" t="s">
         <v>8</v>
       </c>
@@ -23700,7 +25583,7 @@
       <c r="AC26" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="AE26" s="18"/>
+      <c r="AE26" s="19"/>
       <c r="AF26" s="6" t="s">
         <v>12</v>
       </c>
@@ -23713,7 +25596,7 @@
       <c r="AI26" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="AJ26" s="18"/>
+      <c r="AJ26" s="19"/>
       <c r="AL26" s="6" t="s">
         <v>8</v>
       </c>
@@ -23728,9 +25611,18 @@
       <c r="B27" s="4">
         <v>3500</v>
       </c>
-      <c r="C27" s="4"/>
-      <c r="D27" s="4"/>
-      <c r="E27" s="4"/>
+      <c r="C27" s="4">
+        <f>MAX(B27-$H$27,0)</f>
+        <v>0</v>
+      </c>
+      <c r="D27" s="4">
+        <f>$I$27</f>
+        <v>100</v>
+      </c>
+      <c r="E27" s="4">
+        <f>B27-C27+D27</f>
+        <v>3600</v>
+      </c>
       <c r="F27" s="4"/>
       <c r="G27" s="1" t="s">
         <v>13</v>
@@ -23745,9 +25637,18 @@
         <f>B27</f>
         <v>3500</v>
       </c>
-      <c r="L27" s="4"/>
-      <c r="M27" s="4"/>
-      <c r="N27" s="4"/>
+      <c r="L27" s="4">
+        <f>MAX($H$27-K27,0)</f>
+        <v>1500</v>
+      </c>
+      <c r="M27" s="4">
+        <f>$I$27</f>
+        <v>100</v>
+      </c>
+      <c r="N27" s="4">
+        <f>K27-M27+L27</f>
+        <v>4900</v>
+      </c>
       <c r="P27" s="1" t="s">
         <v>14</v>
       </c>
@@ -23758,14 +25659,29 @@
         <v>100</v>
       </c>
       <c r="T27" s="4">
-        <f>K27</f>
+        <f t="shared" ref="T27:T42" si="24">K27</f>
         <v>3500</v>
       </c>
-      <c r="U27" s="4"/>
-      <c r="V27" s="4"/>
-      <c r="W27" s="4"/>
-      <c r="X27" s="4"/>
-      <c r="Y27" s="4"/>
+      <c r="U27" s="4">
+        <f>$AB$27</f>
+        <v>5000</v>
+      </c>
+      <c r="V27" s="4">
+        <f>U27+$AC$27</f>
+        <v>5000</v>
+      </c>
+      <c r="W27" s="4">
+        <f>MAX(T27-$AB$28,0)</f>
+        <v>0</v>
+      </c>
+      <c r="X27" s="4">
+        <f>$AC$28</f>
+        <v>300</v>
+      </c>
+      <c r="Y27" s="4">
+        <f>V27-X27+W27</f>
+        <v>4700</v>
+      </c>
       <c r="AA27" s="1" t="s">
         <v>39</v>
       </c>
@@ -23776,14 +25692,29 @@
         <v>0</v>
       </c>
       <c r="AE27" s="4">
-        <f>T27</f>
+        <f t="shared" ref="AE27:AE42" si="25">T27</f>
         <v>3500</v>
       </c>
-      <c r="AF27" s="4"/>
-      <c r="AG27" s="4"/>
-      <c r="AH27" s="4"/>
-      <c r="AI27" s="4"/>
-      <c r="AJ27" s="4"/>
+      <c r="AF27" s="4">
+        <f>MAX($AM$27-AE27,0)</f>
+        <v>1500</v>
+      </c>
+      <c r="AG27" s="4">
+        <f>$AN$27</f>
+        <v>100</v>
+      </c>
+      <c r="AH27" s="4">
+        <f>MAX(AE27-$AM$28,0)</f>
+        <v>0</v>
+      </c>
+      <c r="AI27" s="4">
+        <f>$AN$28</f>
+        <v>100</v>
+      </c>
+      <c r="AJ27" s="4">
+        <f>AE27+AF27+AI27-AG27-AH27</f>
+        <v>5000</v>
+      </c>
       <c r="AL27" s="1" t="s">
         <v>14</v>
       </c>
@@ -23799,27 +25730,60 @@
         <f>B27+200</f>
         <v>3700</v>
       </c>
-      <c r="C28" s="4"/>
-      <c r="D28" s="4"/>
-      <c r="E28" s="4"/>
+      <c r="C28" s="4">
+        <f t="shared" ref="C28:C42" si="26">MAX(B28-$H$27,0)</f>
+        <v>0</v>
+      </c>
+      <c r="D28" s="4">
+        <f t="shared" ref="D28:D42" si="27">$I$27</f>
+        <v>100</v>
+      </c>
+      <c r="E28" s="4">
+        <f t="shared" ref="E28:E42" si="28">B28-C28+D28</f>
+        <v>3800</v>
+      </c>
       <c r="F28" s="4"/>
       <c r="I28" s="4"/>
       <c r="K28" s="4">
         <f>K27+200</f>
         <v>3700</v>
       </c>
-      <c r="L28" s="4"/>
-      <c r="M28" s="4"/>
-      <c r="N28" s="4"/>
+      <c r="L28" s="4">
+        <f t="shared" ref="L28:L42" si="29">MAX($H$27-K28,0)</f>
+        <v>1300</v>
+      </c>
+      <c r="M28" s="4">
+        <f t="shared" ref="M28:M42" si="30">$I$27</f>
+        <v>100</v>
+      </c>
+      <c r="N28" s="4">
+        <f t="shared" ref="N28:N42" si="31">K28-M28+L28</f>
+        <v>4900</v>
+      </c>
       <c r="T28" s="4">
-        <f t="shared" ref="T28:T42" si="4">K28</f>
+        <f t="shared" si="24"/>
         <v>3700</v>
       </c>
-      <c r="U28" s="4"/>
-      <c r="V28" s="4"/>
-      <c r="W28" s="4"/>
-      <c r="X28" s="4"/>
-      <c r="Y28" s="4"/>
+      <c r="U28" s="4">
+        <f t="shared" ref="U28:U42" si="32">$AB$27</f>
+        <v>5000</v>
+      </c>
+      <c r="V28" s="4">
+        <f t="shared" ref="V28:V42" si="33">U28+$AC$27</f>
+        <v>5000</v>
+      </c>
+      <c r="W28" s="4">
+        <f t="shared" ref="W28:W42" si="34">MAX(T28-$AB$28,0)</f>
+        <v>0</v>
+      </c>
+      <c r="X28" s="4">
+        <f t="shared" ref="X28:X42" si="35">$AC$28</f>
+        <v>300</v>
+      </c>
+      <c r="Y28" s="4">
+        <f t="shared" ref="Y28:Y42" si="36">V28-X28+W28</f>
+        <v>4700</v>
+      </c>
       <c r="AA28" s="1" t="s">
         <v>13</v>
       </c>
@@ -23827,17 +25791,32 @@
         <v>5300</v>
       </c>
       <c r="AC28" s="4">
+        <v>300</v>
+      </c>
+      <c r="AE28" s="4">
+        <f t="shared" si="25"/>
+        <v>3700</v>
+      </c>
+      <c r="AF28" s="4">
+        <f t="shared" ref="AF28:AF42" si="37">MAX($AM$27-AE28,0)</f>
+        <v>1300</v>
+      </c>
+      <c r="AG28" s="4">
+        <f t="shared" ref="AG28:AG42" si="38">$AN$27</f>
         <v>100</v>
       </c>
-      <c r="AE28" s="4">
-        <f t="shared" ref="AE28:AE42" si="5">T28</f>
-        <v>3700</v>
-      </c>
-      <c r="AF28" s="4"/>
-      <c r="AG28" s="4"/>
-      <c r="AH28" s="4"/>
-      <c r="AI28" s="4"/>
-      <c r="AJ28" s="4"/>
+      <c r="AH28" s="4">
+        <f t="shared" ref="AH28:AH42" si="39">MAX(AE28-$AM$28,0)</f>
+        <v>0</v>
+      </c>
+      <c r="AI28" s="4">
+        <f t="shared" ref="AI28:AI42" si="40">$AN$28</f>
+        <v>100</v>
+      </c>
+      <c r="AJ28" s="4">
+        <f t="shared" ref="AJ28:AJ42" si="41">AE28+AF28+AI28-AG28-AH28</f>
+        <v>5000</v>
+      </c>
       <c r="AL28" s="1" t="s">
         <v>13</v>
       </c>
@@ -23850,535 +25829,1207 @@
     </row>
     <row r="29" spans="2:40" x14ac:dyDescent="0.3">
       <c r="B29" s="4">
-        <f t="shared" ref="B29:B42" si="6">B28+200</f>
+        <f t="shared" ref="B29:B42" si="42">B28+200</f>
         <v>3900</v>
       </c>
-      <c r="C29" s="4"/>
-      <c r="D29" s="4"/>
-      <c r="E29" s="4"/>
+      <c r="C29" s="4">
+        <f t="shared" si="26"/>
+        <v>0</v>
+      </c>
+      <c r="D29" s="4">
+        <f t="shared" si="27"/>
+        <v>100</v>
+      </c>
+      <c r="E29" s="4">
+        <f t="shared" si="28"/>
+        <v>4000</v>
+      </c>
       <c r="F29" s="4"/>
       <c r="G29" s="4"/>
       <c r="H29" s="4"/>
       <c r="I29" s="4"/>
       <c r="K29" s="4">
-        <f t="shared" ref="K29:K42" si="7">K28+200</f>
+        <f t="shared" ref="K29:K42" si="43">K28+200</f>
         <v>3900</v>
       </c>
-      <c r="L29" s="4"/>
-      <c r="M29" s="4"/>
-      <c r="N29" s="4"/>
+      <c r="L29" s="4">
+        <f t="shared" si="29"/>
+        <v>1100</v>
+      </c>
+      <c r="M29" s="4">
+        <f t="shared" si="30"/>
+        <v>100</v>
+      </c>
+      <c r="N29" s="4">
+        <f t="shared" si="31"/>
+        <v>4900</v>
+      </c>
       <c r="T29" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="24"/>
         <v>3900</v>
       </c>
-      <c r="U29" s="4"/>
-      <c r="V29" s="4"/>
-      <c r="W29" s="4"/>
-      <c r="X29" s="4"/>
-      <c r="Y29" s="4"/>
+      <c r="U29" s="4">
+        <f t="shared" si="32"/>
+        <v>5000</v>
+      </c>
+      <c r="V29" s="4">
+        <f t="shared" si="33"/>
+        <v>5000</v>
+      </c>
+      <c r="W29" s="4">
+        <f t="shared" si="34"/>
+        <v>0</v>
+      </c>
+      <c r="X29" s="4">
+        <f t="shared" si="35"/>
+        <v>300</v>
+      </c>
+      <c r="Y29" s="4">
+        <f t="shared" si="36"/>
+        <v>4700</v>
+      </c>
       <c r="AE29" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="25"/>
         <v>3900</v>
       </c>
-      <c r="AF29" s="4"/>
-      <c r="AG29" s="4"/>
-      <c r="AH29" s="4"/>
-      <c r="AI29" s="4"/>
-      <c r="AJ29" s="4"/>
+      <c r="AF29" s="4">
+        <f t="shared" si="37"/>
+        <v>1100</v>
+      </c>
+      <c r="AG29" s="4">
+        <f t="shared" si="38"/>
+        <v>100</v>
+      </c>
+      <c r="AH29" s="4">
+        <f t="shared" si="39"/>
+        <v>0</v>
+      </c>
+      <c r="AI29" s="4">
+        <f t="shared" si="40"/>
+        <v>100</v>
+      </c>
+      <c r="AJ29" s="4">
+        <f t="shared" si="41"/>
+        <v>5000</v>
+      </c>
     </row>
     <row r="30" spans="2:40" x14ac:dyDescent="0.3">
       <c r="B30" s="4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="42"/>
         <v>4100</v>
       </c>
-      <c r="C30" s="4"/>
-      <c r="D30" s="4"/>
-      <c r="E30" s="4"/>
+      <c r="C30" s="4">
+        <f t="shared" si="26"/>
+        <v>0</v>
+      </c>
+      <c r="D30" s="4">
+        <f t="shared" si="27"/>
+        <v>100</v>
+      </c>
+      <c r="E30" s="4">
+        <f t="shared" si="28"/>
+        <v>4200</v>
+      </c>
       <c r="F30" s="4"/>
       <c r="G30" s="4"/>
       <c r="H30" s="4"/>
       <c r="I30" s="4"/>
       <c r="K30" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="43"/>
         <v>4100</v>
       </c>
-      <c r="L30" s="4"/>
-      <c r="M30" s="4"/>
-      <c r="N30" s="4"/>
+      <c r="L30" s="4">
+        <f t="shared" si="29"/>
+        <v>900</v>
+      </c>
+      <c r="M30" s="4">
+        <f t="shared" si="30"/>
+        <v>100</v>
+      </c>
+      <c r="N30" s="4">
+        <f t="shared" si="31"/>
+        <v>4900</v>
+      </c>
       <c r="T30" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="24"/>
         <v>4100</v>
       </c>
-      <c r="U30" s="4"/>
-      <c r="V30" s="4"/>
-      <c r="W30" s="4"/>
-      <c r="X30" s="4"/>
-      <c r="Y30" s="4"/>
+      <c r="U30" s="4">
+        <f t="shared" si="32"/>
+        <v>5000</v>
+      </c>
+      <c r="V30" s="4">
+        <f t="shared" si="33"/>
+        <v>5000</v>
+      </c>
+      <c r="W30" s="4">
+        <f t="shared" si="34"/>
+        <v>0</v>
+      </c>
+      <c r="X30" s="4">
+        <f t="shared" si="35"/>
+        <v>300</v>
+      </c>
+      <c r="Y30" s="4">
+        <f t="shared" si="36"/>
+        <v>4700</v>
+      </c>
       <c r="AE30" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="25"/>
         <v>4100</v>
       </c>
-      <c r="AF30" s="4"/>
-      <c r="AG30" s="4"/>
-      <c r="AH30" s="4"/>
-      <c r="AI30" s="4"/>
-      <c r="AJ30" s="4"/>
+      <c r="AF30" s="4">
+        <f t="shared" si="37"/>
+        <v>900</v>
+      </c>
+      <c r="AG30" s="4">
+        <f t="shared" si="38"/>
+        <v>100</v>
+      </c>
+      <c r="AH30" s="4">
+        <f t="shared" si="39"/>
+        <v>0</v>
+      </c>
+      <c r="AI30" s="4">
+        <f t="shared" si="40"/>
+        <v>100</v>
+      </c>
+      <c r="AJ30" s="4">
+        <f t="shared" si="41"/>
+        <v>5000</v>
+      </c>
     </row>
     <row r="31" spans="2:40" x14ac:dyDescent="0.3">
       <c r="B31" s="4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="42"/>
         <v>4300</v>
       </c>
-      <c r="C31" s="4"/>
-      <c r="D31" s="4"/>
-      <c r="E31" s="4"/>
+      <c r="C31" s="4">
+        <f t="shared" si="26"/>
+        <v>0</v>
+      </c>
+      <c r="D31" s="4">
+        <f t="shared" si="27"/>
+        <v>100</v>
+      </c>
+      <c r="E31" s="4">
+        <f t="shared" si="28"/>
+        <v>4400</v>
+      </c>
       <c r="F31" s="4"/>
       <c r="G31" s="4"/>
       <c r="H31" s="4"/>
       <c r="I31" s="4"/>
       <c r="K31" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="43"/>
         <v>4300</v>
       </c>
-      <c r="L31" s="4"/>
-      <c r="M31" s="4"/>
-      <c r="N31" s="4"/>
+      <c r="L31" s="4">
+        <f t="shared" si="29"/>
+        <v>700</v>
+      </c>
+      <c r="M31" s="4">
+        <f t="shared" si="30"/>
+        <v>100</v>
+      </c>
+      <c r="N31" s="4">
+        <f t="shared" si="31"/>
+        <v>4900</v>
+      </c>
       <c r="T31" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="24"/>
         <v>4300</v>
       </c>
-      <c r="U31" s="4"/>
-      <c r="V31" s="4"/>
-      <c r="W31" s="4"/>
-      <c r="X31" s="4"/>
-      <c r="Y31" s="4"/>
+      <c r="U31" s="4">
+        <f t="shared" si="32"/>
+        <v>5000</v>
+      </c>
+      <c r="V31" s="4">
+        <f t="shared" si="33"/>
+        <v>5000</v>
+      </c>
+      <c r="W31" s="4">
+        <f t="shared" si="34"/>
+        <v>0</v>
+      </c>
+      <c r="X31" s="4">
+        <f t="shared" si="35"/>
+        <v>300</v>
+      </c>
+      <c r="Y31" s="4">
+        <f t="shared" si="36"/>
+        <v>4700</v>
+      </c>
       <c r="AE31" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="25"/>
         <v>4300</v>
       </c>
-      <c r="AF31" s="4"/>
-      <c r="AG31" s="4"/>
-      <c r="AH31" s="4"/>
-      <c r="AI31" s="4"/>
-      <c r="AJ31" s="4"/>
+      <c r="AF31" s="4">
+        <f t="shared" si="37"/>
+        <v>700</v>
+      </c>
+      <c r="AG31" s="4">
+        <f t="shared" si="38"/>
+        <v>100</v>
+      </c>
+      <c r="AH31" s="4">
+        <f t="shared" si="39"/>
+        <v>0</v>
+      </c>
+      <c r="AI31" s="4">
+        <f t="shared" si="40"/>
+        <v>100</v>
+      </c>
+      <c r="AJ31" s="4">
+        <f t="shared" si="41"/>
+        <v>5000</v>
+      </c>
     </row>
     <row r="32" spans="2:40" x14ac:dyDescent="0.3">
       <c r="B32" s="4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="42"/>
         <v>4500</v>
       </c>
-      <c r="C32" s="4"/>
-      <c r="D32" s="4"/>
-      <c r="E32" s="4"/>
+      <c r="C32" s="4">
+        <f t="shared" si="26"/>
+        <v>0</v>
+      </c>
+      <c r="D32" s="4">
+        <f t="shared" si="27"/>
+        <v>100</v>
+      </c>
+      <c r="E32" s="4">
+        <f t="shared" si="28"/>
+        <v>4600</v>
+      </c>
       <c r="F32" s="4"/>
       <c r="G32" s="4"/>
       <c r="H32" s="4"/>
       <c r="I32" s="4"/>
       <c r="K32" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="43"/>
         <v>4500</v>
       </c>
-      <c r="L32" s="4"/>
-      <c r="M32" s="4"/>
-      <c r="N32" s="4"/>
+      <c r="L32" s="4">
+        <f t="shared" si="29"/>
+        <v>500</v>
+      </c>
+      <c r="M32" s="4">
+        <f t="shared" si="30"/>
+        <v>100</v>
+      </c>
+      <c r="N32" s="4">
+        <f t="shared" si="31"/>
+        <v>4900</v>
+      </c>
       <c r="T32" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="24"/>
         <v>4500</v>
       </c>
-      <c r="U32" s="4"/>
-      <c r="V32" s="4"/>
-      <c r="W32" s="4"/>
-      <c r="X32" s="4"/>
-      <c r="Y32" s="4"/>
+      <c r="U32" s="4">
+        <f t="shared" si="32"/>
+        <v>5000</v>
+      </c>
+      <c r="V32" s="4">
+        <f t="shared" si="33"/>
+        <v>5000</v>
+      </c>
+      <c r="W32" s="4">
+        <f t="shared" si="34"/>
+        <v>0</v>
+      </c>
+      <c r="X32" s="4">
+        <f t="shared" si="35"/>
+        <v>300</v>
+      </c>
+      <c r="Y32" s="4">
+        <f t="shared" si="36"/>
+        <v>4700</v>
+      </c>
       <c r="AE32" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="25"/>
         <v>4500</v>
       </c>
-      <c r="AF32" s="4"/>
-      <c r="AG32" s="4"/>
-      <c r="AH32" s="4"/>
-      <c r="AI32" s="4"/>
-      <c r="AJ32" s="4"/>
+      <c r="AF32" s="4">
+        <f t="shared" si="37"/>
+        <v>500</v>
+      </c>
+      <c r="AG32" s="4">
+        <f t="shared" si="38"/>
+        <v>100</v>
+      </c>
+      <c r="AH32" s="4">
+        <f t="shared" si="39"/>
+        <v>0</v>
+      </c>
+      <c r="AI32" s="4">
+        <f t="shared" si="40"/>
+        <v>100</v>
+      </c>
+      <c r="AJ32" s="4">
+        <f t="shared" si="41"/>
+        <v>5000</v>
+      </c>
     </row>
     <row r="33" spans="2:38" x14ac:dyDescent="0.3">
       <c r="B33" s="4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="42"/>
         <v>4700</v>
       </c>
-      <c r="C33" s="4"/>
-      <c r="D33" s="4"/>
-      <c r="E33" s="4"/>
+      <c r="C33" s="4">
+        <f t="shared" si="26"/>
+        <v>0</v>
+      </c>
+      <c r="D33" s="4">
+        <f t="shared" si="27"/>
+        <v>100</v>
+      </c>
+      <c r="E33" s="4">
+        <f t="shared" si="28"/>
+        <v>4800</v>
+      </c>
       <c r="F33" s="4"/>
       <c r="G33" s="4"/>
       <c r="H33" s="4"/>
       <c r="I33" s="4"/>
       <c r="K33" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="43"/>
         <v>4700</v>
       </c>
-      <c r="L33" s="4"/>
-      <c r="M33" s="4"/>
-      <c r="N33" s="4"/>
+      <c r="L33" s="4">
+        <f t="shared" si="29"/>
+        <v>300</v>
+      </c>
+      <c r="M33" s="4">
+        <f t="shared" si="30"/>
+        <v>100</v>
+      </c>
+      <c r="N33" s="4">
+        <f t="shared" si="31"/>
+        <v>4900</v>
+      </c>
       <c r="T33" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="24"/>
         <v>4700</v>
       </c>
-      <c r="U33" s="4"/>
-      <c r="V33" s="4"/>
-      <c r="W33" s="4"/>
-      <c r="X33" s="4"/>
-      <c r="Y33" s="4"/>
+      <c r="U33" s="4">
+        <f t="shared" si="32"/>
+        <v>5000</v>
+      </c>
+      <c r="V33" s="4">
+        <f t="shared" si="33"/>
+        <v>5000</v>
+      </c>
+      <c r="W33" s="4">
+        <f t="shared" si="34"/>
+        <v>0</v>
+      </c>
+      <c r="X33" s="4">
+        <f t="shared" si="35"/>
+        <v>300</v>
+      </c>
+      <c r="Y33" s="4">
+        <f t="shared" si="36"/>
+        <v>4700</v>
+      </c>
       <c r="AE33" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="25"/>
         <v>4700</v>
       </c>
-      <c r="AF33" s="4"/>
-      <c r="AG33" s="4"/>
-      <c r="AH33" s="4"/>
-      <c r="AI33" s="4"/>
-      <c r="AJ33" s="4"/>
+      <c r="AF33" s="4">
+        <f t="shared" si="37"/>
+        <v>300</v>
+      </c>
+      <c r="AG33" s="4">
+        <f t="shared" si="38"/>
+        <v>100</v>
+      </c>
+      <c r="AH33" s="4">
+        <f t="shared" si="39"/>
+        <v>0</v>
+      </c>
+      <c r="AI33" s="4">
+        <f t="shared" si="40"/>
+        <v>100</v>
+      </c>
+      <c r="AJ33" s="4">
+        <f t="shared" si="41"/>
+        <v>5000</v>
+      </c>
     </row>
     <row r="34" spans="2:38" x14ac:dyDescent="0.3">
       <c r="B34" s="4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="42"/>
         <v>4900</v>
       </c>
-      <c r="C34" s="4"/>
-      <c r="D34" s="4"/>
-      <c r="E34" s="4"/>
+      <c r="C34" s="4">
+        <f t="shared" si="26"/>
+        <v>0</v>
+      </c>
+      <c r="D34" s="4">
+        <f t="shared" si="27"/>
+        <v>100</v>
+      </c>
+      <c r="E34" s="4">
+        <f t="shared" si="28"/>
+        <v>5000</v>
+      </c>
       <c r="F34" s="4"/>
       <c r="G34" s="4"/>
       <c r="H34" s="4"/>
       <c r="I34" s="4"/>
       <c r="K34" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="43"/>
         <v>4900</v>
       </c>
-      <c r="L34" s="4"/>
-      <c r="M34" s="4"/>
-      <c r="N34" s="4"/>
+      <c r="L34" s="4">
+        <f t="shared" si="29"/>
+        <v>100</v>
+      </c>
+      <c r="M34" s="4">
+        <f t="shared" si="30"/>
+        <v>100</v>
+      </c>
+      <c r="N34" s="4">
+        <f t="shared" si="31"/>
+        <v>4900</v>
+      </c>
       <c r="T34" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="24"/>
         <v>4900</v>
       </c>
-      <c r="U34" s="4"/>
-      <c r="V34" s="4"/>
-      <c r="W34" s="4"/>
-      <c r="X34" s="4"/>
-      <c r="Y34" s="4"/>
+      <c r="U34" s="4">
+        <f t="shared" si="32"/>
+        <v>5000</v>
+      </c>
+      <c r="V34" s="4">
+        <f t="shared" si="33"/>
+        <v>5000</v>
+      </c>
+      <c r="W34" s="4">
+        <f t="shared" si="34"/>
+        <v>0</v>
+      </c>
+      <c r="X34" s="4">
+        <f t="shared" si="35"/>
+        <v>300</v>
+      </c>
+      <c r="Y34" s="4">
+        <f t="shared" si="36"/>
+        <v>4700</v>
+      </c>
       <c r="AE34" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="25"/>
         <v>4900</v>
       </c>
-      <c r="AF34" s="4"/>
-      <c r="AG34" s="4"/>
-      <c r="AH34" s="4"/>
-      <c r="AI34" s="4"/>
-      <c r="AJ34" s="4"/>
+      <c r="AF34" s="4">
+        <f t="shared" si="37"/>
+        <v>100</v>
+      </c>
+      <c r="AG34" s="4">
+        <f t="shared" si="38"/>
+        <v>100</v>
+      </c>
+      <c r="AH34" s="4">
+        <f t="shared" si="39"/>
+        <v>0</v>
+      </c>
+      <c r="AI34" s="4">
+        <f t="shared" si="40"/>
+        <v>100</v>
+      </c>
+      <c r="AJ34" s="4">
+        <f t="shared" si="41"/>
+        <v>5000</v>
+      </c>
     </row>
     <row r="35" spans="2:38" x14ac:dyDescent="0.3">
       <c r="B35" s="4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="42"/>
         <v>5100</v>
       </c>
-      <c r="C35" s="4"/>
-      <c r="D35" s="4"/>
-      <c r="E35" s="4"/>
+      <c r="C35" s="4">
+        <f t="shared" si="26"/>
+        <v>100</v>
+      </c>
+      <c r="D35" s="4">
+        <f t="shared" si="27"/>
+        <v>100</v>
+      </c>
+      <c r="E35" s="4">
+        <f t="shared" ref="E35:E40" si="44">B35-C35+D35</f>
+        <v>5100</v>
+      </c>
       <c r="F35" s="4"/>
       <c r="G35" s="4"/>
       <c r="H35" s="4"/>
       <c r="I35" s="4"/>
       <c r="K35" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="43"/>
         <v>5100</v>
       </c>
-      <c r="L35" s="4"/>
-      <c r="M35" s="4"/>
-      <c r="N35" s="4"/>
+      <c r="L35" s="4">
+        <f t="shared" si="29"/>
+        <v>0</v>
+      </c>
+      <c r="M35" s="4">
+        <f t="shared" si="30"/>
+        <v>100</v>
+      </c>
+      <c r="N35" s="4">
+        <f t="shared" si="31"/>
+        <v>5000</v>
+      </c>
       <c r="T35" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="24"/>
         <v>5100</v>
       </c>
-      <c r="U35" s="4"/>
-      <c r="V35" s="4"/>
-      <c r="W35" s="4"/>
-      <c r="X35" s="4"/>
-      <c r="Y35" s="4"/>
+      <c r="U35" s="4">
+        <f t="shared" si="32"/>
+        <v>5000</v>
+      </c>
+      <c r="V35" s="4">
+        <f t="shared" si="33"/>
+        <v>5000</v>
+      </c>
+      <c r="W35" s="4">
+        <f t="shared" si="34"/>
+        <v>0</v>
+      </c>
+      <c r="X35" s="4">
+        <f t="shared" si="35"/>
+        <v>300</v>
+      </c>
+      <c r="Y35" s="4">
+        <f t="shared" si="36"/>
+        <v>4700</v>
+      </c>
       <c r="AE35" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="25"/>
         <v>5100</v>
       </c>
-      <c r="AF35" s="4"/>
-      <c r="AG35" s="4"/>
-      <c r="AH35" s="4"/>
-      <c r="AI35" s="4"/>
-      <c r="AJ35" s="4"/>
+      <c r="AF35" s="4">
+        <f t="shared" si="37"/>
+        <v>0</v>
+      </c>
+      <c r="AG35" s="4">
+        <f t="shared" si="38"/>
+        <v>100</v>
+      </c>
+      <c r="AH35" s="4">
+        <f t="shared" si="39"/>
+        <v>0</v>
+      </c>
+      <c r="AI35" s="4">
+        <f t="shared" si="40"/>
+        <v>100</v>
+      </c>
+      <c r="AJ35" s="4">
+        <f t="shared" si="41"/>
+        <v>5100</v>
+      </c>
     </row>
     <row r="36" spans="2:38" x14ac:dyDescent="0.3">
       <c r="B36" s="4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="42"/>
         <v>5300</v>
       </c>
-      <c r="C36" s="4"/>
-      <c r="D36" s="4"/>
-      <c r="E36" s="4"/>
+      <c r="C36" s="4">
+        <f t="shared" si="26"/>
+        <v>300</v>
+      </c>
+      <c r="D36" s="4">
+        <f t="shared" si="27"/>
+        <v>100</v>
+      </c>
+      <c r="E36" s="4">
+        <f t="shared" si="44"/>
+        <v>5100</v>
+      </c>
       <c r="F36" s="4"/>
       <c r="G36" s="4"/>
       <c r="H36" s="4"/>
       <c r="I36" s="4"/>
       <c r="K36" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="43"/>
         <v>5300</v>
       </c>
-      <c r="L36" s="4"/>
-      <c r="M36" s="4"/>
-      <c r="N36" s="4"/>
+      <c r="L36" s="4">
+        <f t="shared" si="29"/>
+        <v>0</v>
+      </c>
+      <c r="M36" s="4">
+        <f t="shared" si="30"/>
+        <v>100</v>
+      </c>
+      <c r="N36" s="4">
+        <f t="shared" si="31"/>
+        <v>5200</v>
+      </c>
       <c r="T36" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="24"/>
         <v>5300</v>
       </c>
-      <c r="U36" s="4"/>
-      <c r="V36" s="4"/>
-      <c r="W36" s="4"/>
-      <c r="X36" s="4"/>
-      <c r="Y36" s="4"/>
+      <c r="U36" s="4">
+        <f t="shared" si="32"/>
+        <v>5000</v>
+      </c>
+      <c r="V36" s="4">
+        <f t="shared" si="33"/>
+        <v>5000</v>
+      </c>
+      <c r="W36" s="4">
+        <f t="shared" si="34"/>
+        <v>0</v>
+      </c>
+      <c r="X36" s="4">
+        <f t="shared" si="35"/>
+        <v>300</v>
+      </c>
+      <c r="Y36" s="4">
+        <f t="shared" si="36"/>
+        <v>4700</v>
+      </c>
       <c r="AE36" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="25"/>
         <v>5300</v>
       </c>
-      <c r="AF36" s="4"/>
-      <c r="AG36" s="4"/>
-      <c r="AH36" s="4"/>
-      <c r="AI36" s="4"/>
-      <c r="AJ36" s="4"/>
+      <c r="AF36" s="4">
+        <f t="shared" si="37"/>
+        <v>0</v>
+      </c>
+      <c r="AG36" s="4">
+        <f t="shared" si="38"/>
+        <v>100</v>
+      </c>
+      <c r="AH36" s="4">
+        <f t="shared" si="39"/>
+        <v>0</v>
+      </c>
+      <c r="AI36" s="4">
+        <f t="shared" si="40"/>
+        <v>100</v>
+      </c>
+      <c r="AJ36" s="4">
+        <f t="shared" si="41"/>
+        <v>5300</v>
+      </c>
     </row>
     <row r="37" spans="2:38" x14ac:dyDescent="0.3">
       <c r="B37" s="4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="42"/>
         <v>5500</v>
       </c>
-      <c r="C37" s="4"/>
-      <c r="D37" s="4"/>
-      <c r="E37" s="4"/>
+      <c r="C37" s="4">
+        <f t="shared" si="26"/>
+        <v>500</v>
+      </c>
+      <c r="D37" s="4">
+        <f t="shared" si="27"/>
+        <v>100</v>
+      </c>
+      <c r="E37" s="4">
+        <f t="shared" si="44"/>
+        <v>5100</v>
+      </c>
       <c r="F37" s="4"/>
       <c r="G37" s="4"/>
       <c r="H37" s="4"/>
       <c r="I37" s="4"/>
       <c r="K37" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="43"/>
         <v>5500</v>
       </c>
-      <c r="L37" s="4"/>
-      <c r="M37" s="4"/>
-      <c r="N37" s="4"/>
+      <c r="L37" s="4">
+        <f t="shared" si="29"/>
+        <v>0</v>
+      </c>
+      <c r="M37" s="4">
+        <f t="shared" si="30"/>
+        <v>100</v>
+      </c>
+      <c r="N37" s="4">
+        <f t="shared" si="31"/>
+        <v>5400</v>
+      </c>
       <c r="T37" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="24"/>
         <v>5500</v>
       </c>
-      <c r="U37" s="4"/>
-      <c r="V37" s="4"/>
-      <c r="W37" s="4"/>
-      <c r="X37" s="4"/>
-      <c r="Y37" s="4"/>
+      <c r="U37" s="4">
+        <f t="shared" si="32"/>
+        <v>5000</v>
+      </c>
+      <c r="V37" s="4">
+        <f t="shared" si="33"/>
+        <v>5000</v>
+      </c>
+      <c r="W37" s="4">
+        <f t="shared" si="34"/>
+        <v>200</v>
+      </c>
+      <c r="X37" s="4">
+        <f t="shared" si="35"/>
+        <v>300</v>
+      </c>
+      <c r="Y37" s="4">
+        <f t="shared" si="36"/>
+        <v>4900</v>
+      </c>
       <c r="AE37" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="25"/>
         <v>5500</v>
       </c>
-      <c r="AF37" s="4"/>
-      <c r="AG37" s="4"/>
-      <c r="AH37" s="4"/>
-      <c r="AI37" s="4"/>
-      <c r="AJ37" s="4"/>
+      <c r="AF37" s="4">
+        <f t="shared" si="37"/>
+        <v>0</v>
+      </c>
+      <c r="AG37" s="4">
+        <f t="shared" si="38"/>
+        <v>100</v>
+      </c>
+      <c r="AH37" s="4">
+        <f t="shared" si="39"/>
+        <v>200</v>
+      </c>
+      <c r="AI37" s="4">
+        <f t="shared" si="40"/>
+        <v>100</v>
+      </c>
+      <c r="AJ37" s="4">
+        <f t="shared" si="41"/>
+        <v>5300</v>
+      </c>
     </row>
     <row r="38" spans="2:38" x14ac:dyDescent="0.3">
       <c r="B38" s="4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="42"/>
         <v>5700</v>
       </c>
-      <c r="C38" s="4"/>
-      <c r="D38" s="4"/>
-      <c r="E38" s="4"/>
+      <c r="C38" s="4">
+        <f t="shared" si="26"/>
+        <v>700</v>
+      </c>
+      <c r="D38" s="4">
+        <f t="shared" si="27"/>
+        <v>100</v>
+      </c>
+      <c r="E38" s="4">
+        <f t="shared" si="44"/>
+        <v>5100</v>
+      </c>
       <c r="F38" s="4"/>
       <c r="G38" s="4"/>
       <c r="H38" s="4"/>
       <c r="I38" s="4"/>
       <c r="K38" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="43"/>
         <v>5700</v>
       </c>
-      <c r="L38" s="4"/>
-      <c r="M38" s="4"/>
-      <c r="N38" s="4"/>
+      <c r="L38" s="4">
+        <f t="shared" si="29"/>
+        <v>0</v>
+      </c>
+      <c r="M38" s="4">
+        <f t="shared" si="30"/>
+        <v>100</v>
+      </c>
+      <c r="N38" s="4">
+        <f t="shared" si="31"/>
+        <v>5600</v>
+      </c>
       <c r="T38" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="24"/>
         <v>5700</v>
       </c>
-      <c r="U38" s="4"/>
-      <c r="V38" s="4"/>
-      <c r="W38" s="4"/>
-      <c r="X38" s="4"/>
-      <c r="Y38" s="4"/>
+      <c r="U38" s="4">
+        <f t="shared" si="32"/>
+        <v>5000</v>
+      </c>
+      <c r="V38" s="4">
+        <f t="shared" si="33"/>
+        <v>5000</v>
+      </c>
+      <c r="W38" s="4">
+        <f t="shared" si="34"/>
+        <v>400</v>
+      </c>
+      <c r="X38" s="4">
+        <f t="shared" si="35"/>
+        <v>300</v>
+      </c>
+      <c r="Y38" s="4">
+        <f t="shared" si="36"/>
+        <v>5100</v>
+      </c>
       <c r="AE38" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="25"/>
         <v>5700</v>
       </c>
-      <c r="AF38" s="4"/>
-      <c r="AG38" s="4"/>
-      <c r="AH38" s="4"/>
-      <c r="AI38" s="4"/>
-      <c r="AJ38" s="4"/>
+      <c r="AF38" s="4">
+        <f t="shared" si="37"/>
+        <v>0</v>
+      </c>
+      <c r="AG38" s="4">
+        <f t="shared" si="38"/>
+        <v>100</v>
+      </c>
+      <c r="AH38" s="4">
+        <f t="shared" si="39"/>
+        <v>400</v>
+      </c>
+      <c r="AI38" s="4">
+        <f t="shared" si="40"/>
+        <v>100</v>
+      </c>
+      <c r="AJ38" s="4">
+        <f t="shared" si="41"/>
+        <v>5300</v>
+      </c>
     </row>
     <row r="39" spans="2:38" x14ac:dyDescent="0.3">
       <c r="B39" s="4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="42"/>
         <v>5900</v>
       </c>
-      <c r="C39" s="4"/>
-      <c r="D39" s="4"/>
-      <c r="E39" s="4"/>
+      <c r="C39" s="4">
+        <f t="shared" si="26"/>
+        <v>900</v>
+      </c>
+      <c r="D39" s="4">
+        <f t="shared" si="27"/>
+        <v>100</v>
+      </c>
+      <c r="E39" s="4">
+        <f t="shared" si="44"/>
+        <v>5100</v>
+      </c>
       <c r="F39" s="4"/>
       <c r="G39" s="4"/>
       <c r="H39" s="4"/>
       <c r="I39" s="4"/>
       <c r="K39" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="43"/>
         <v>5900</v>
       </c>
-      <c r="L39" s="4"/>
-      <c r="M39" s="4"/>
-      <c r="N39" s="4"/>
+      <c r="L39" s="4">
+        <f t="shared" si="29"/>
+        <v>0</v>
+      </c>
+      <c r="M39" s="4">
+        <f t="shared" si="30"/>
+        <v>100</v>
+      </c>
+      <c r="N39" s="4">
+        <f t="shared" si="31"/>
+        <v>5800</v>
+      </c>
       <c r="T39" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="24"/>
         <v>5900</v>
       </c>
-      <c r="U39" s="4"/>
-      <c r="V39" s="4"/>
-      <c r="W39" s="4"/>
-      <c r="X39" s="4"/>
-      <c r="Y39" s="4"/>
+      <c r="U39" s="4">
+        <f t="shared" si="32"/>
+        <v>5000</v>
+      </c>
+      <c r="V39" s="4">
+        <f t="shared" si="33"/>
+        <v>5000</v>
+      </c>
+      <c r="W39" s="4">
+        <f t="shared" si="34"/>
+        <v>600</v>
+      </c>
+      <c r="X39" s="4">
+        <f t="shared" si="35"/>
+        <v>300</v>
+      </c>
+      <c r="Y39" s="4">
+        <f t="shared" si="36"/>
+        <v>5300</v>
+      </c>
       <c r="AE39" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="25"/>
         <v>5900</v>
       </c>
-      <c r="AF39" s="4"/>
-      <c r="AG39" s="4"/>
-      <c r="AH39" s="4"/>
-      <c r="AI39" s="4"/>
-      <c r="AJ39" s="4"/>
+      <c r="AF39" s="4">
+        <f t="shared" si="37"/>
+        <v>0</v>
+      </c>
+      <c r="AG39" s="4">
+        <f t="shared" si="38"/>
+        <v>100</v>
+      </c>
+      <c r="AH39" s="4">
+        <f t="shared" si="39"/>
+        <v>600</v>
+      </c>
+      <c r="AI39" s="4">
+        <f t="shared" si="40"/>
+        <v>100</v>
+      </c>
+      <c r="AJ39" s="4">
+        <f t="shared" si="41"/>
+        <v>5300</v>
+      </c>
     </row>
     <row r="40" spans="2:38" x14ac:dyDescent="0.3">
       <c r="B40" s="4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="42"/>
         <v>6100</v>
       </c>
-      <c r="C40" s="4"/>
-      <c r="D40" s="4"/>
-      <c r="E40" s="4"/>
+      <c r="C40" s="4">
+        <f t="shared" si="26"/>
+        <v>1100</v>
+      </c>
+      <c r="D40" s="4">
+        <f t="shared" si="27"/>
+        <v>100</v>
+      </c>
+      <c r="E40" s="4">
+        <f t="shared" si="44"/>
+        <v>5100</v>
+      </c>
       <c r="F40" s="4"/>
       <c r="G40" s="4"/>
       <c r="H40" s="4"/>
       <c r="I40" s="4"/>
       <c r="K40" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="43"/>
         <v>6100</v>
       </c>
-      <c r="L40" s="4"/>
-      <c r="M40" s="4"/>
-      <c r="N40" s="4"/>
+      <c r="L40" s="4">
+        <f t="shared" si="29"/>
+        <v>0</v>
+      </c>
+      <c r="M40" s="4">
+        <f t="shared" si="30"/>
+        <v>100</v>
+      </c>
+      <c r="N40" s="4">
+        <f t="shared" si="31"/>
+        <v>6000</v>
+      </c>
       <c r="T40" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="24"/>
         <v>6100</v>
       </c>
-      <c r="U40" s="4"/>
-      <c r="V40" s="4"/>
-      <c r="W40" s="4"/>
-      <c r="X40" s="4"/>
-      <c r="Y40" s="4"/>
+      <c r="U40" s="4">
+        <f t="shared" si="32"/>
+        <v>5000</v>
+      </c>
+      <c r="V40" s="4">
+        <f t="shared" si="33"/>
+        <v>5000</v>
+      </c>
+      <c r="W40" s="4">
+        <f t="shared" si="34"/>
+        <v>800</v>
+      </c>
+      <c r="X40" s="4">
+        <f t="shared" si="35"/>
+        <v>300</v>
+      </c>
+      <c r="Y40" s="4">
+        <f t="shared" si="36"/>
+        <v>5500</v>
+      </c>
       <c r="AE40" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="25"/>
         <v>6100</v>
       </c>
-      <c r="AF40" s="4"/>
-      <c r="AG40" s="4"/>
-      <c r="AH40" s="4"/>
-      <c r="AI40" s="4"/>
-      <c r="AJ40" s="4"/>
+      <c r="AF40" s="4">
+        <f t="shared" si="37"/>
+        <v>0</v>
+      </c>
+      <c r="AG40" s="4">
+        <f t="shared" si="38"/>
+        <v>100</v>
+      </c>
+      <c r="AH40" s="4">
+        <f t="shared" si="39"/>
+        <v>800</v>
+      </c>
+      <c r="AI40" s="4">
+        <f t="shared" si="40"/>
+        <v>100</v>
+      </c>
+      <c r="AJ40" s="4">
+        <f t="shared" si="41"/>
+        <v>5300</v>
+      </c>
     </row>
     <row r="41" spans="2:38" x14ac:dyDescent="0.3">
       <c r="B41" s="4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="42"/>
         <v>6300</v>
       </c>
-      <c r="C41" s="4"/>
-      <c r="D41" s="4"/>
-      <c r="E41" s="4"/>
+      <c r="C41" s="4">
+        <f t="shared" si="26"/>
+        <v>1300</v>
+      </c>
+      <c r="D41" s="4">
+        <f t="shared" si="27"/>
+        <v>100</v>
+      </c>
+      <c r="E41" s="4">
+        <f t="shared" si="28"/>
+        <v>5100</v>
+      </c>
       <c r="F41" s="4"/>
       <c r="G41" s="4"/>
       <c r="H41" s="4"/>
       <c r="I41" s="4"/>
       <c r="K41" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="43"/>
         <v>6300</v>
       </c>
-      <c r="L41" s="4"/>
-      <c r="M41" s="4"/>
-      <c r="N41" s="4"/>
+      <c r="L41" s="4">
+        <f t="shared" si="29"/>
+        <v>0</v>
+      </c>
+      <c r="M41" s="4">
+        <f t="shared" si="30"/>
+        <v>100</v>
+      </c>
+      <c r="N41" s="4">
+        <f t="shared" si="31"/>
+        <v>6200</v>
+      </c>
       <c r="T41" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="24"/>
         <v>6300</v>
       </c>
-      <c r="U41" s="4"/>
-      <c r="V41" s="4"/>
-      <c r="W41" s="4"/>
-      <c r="X41" s="4"/>
-      <c r="Y41" s="4"/>
+      <c r="U41" s="4">
+        <f t="shared" si="32"/>
+        <v>5000</v>
+      </c>
+      <c r="V41" s="4">
+        <f t="shared" si="33"/>
+        <v>5000</v>
+      </c>
+      <c r="W41" s="4">
+        <f t="shared" si="34"/>
+        <v>1000</v>
+      </c>
+      <c r="X41" s="4">
+        <f t="shared" si="35"/>
+        <v>300</v>
+      </c>
+      <c r="Y41" s="4">
+        <f t="shared" si="36"/>
+        <v>5700</v>
+      </c>
       <c r="AE41" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="25"/>
         <v>6300</v>
       </c>
-      <c r="AF41" s="4"/>
-      <c r="AG41" s="4"/>
-      <c r="AH41" s="4"/>
-      <c r="AI41" s="4"/>
-      <c r="AJ41" s="4"/>
+      <c r="AF41" s="4">
+        <f t="shared" si="37"/>
+        <v>0</v>
+      </c>
+      <c r="AG41" s="4">
+        <f t="shared" si="38"/>
+        <v>100</v>
+      </c>
+      <c r="AH41" s="4">
+        <f t="shared" si="39"/>
+        <v>1000</v>
+      </c>
+      <c r="AI41" s="4">
+        <f t="shared" si="40"/>
+        <v>100</v>
+      </c>
+      <c r="AJ41" s="4">
+        <f t="shared" si="41"/>
+        <v>5300</v>
+      </c>
     </row>
     <row r="42" spans="2:38" x14ac:dyDescent="0.3">
       <c r="B42" s="4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="42"/>
         <v>6500</v>
       </c>
-      <c r="C42" s="4"/>
-      <c r="D42" s="4"/>
-      <c r="E42" s="4"/>
+      <c r="C42" s="4">
+        <f t="shared" si="26"/>
+        <v>1500</v>
+      </c>
+      <c r="D42" s="4">
+        <f t="shared" si="27"/>
+        <v>100</v>
+      </c>
+      <c r="E42" s="4">
+        <f t="shared" si="28"/>
+        <v>5100</v>
+      </c>
       <c r="F42" s="4"/>
       <c r="G42" s="4"/>
       <c r="H42" s="4"/>
       <c r="I42" s="4"/>
       <c r="K42" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="43"/>
         <v>6500</v>
       </c>
-      <c r="L42" s="4"/>
-      <c r="M42" s="4"/>
-      <c r="N42" s="4"/>
+      <c r="L42" s="4">
+        <f t="shared" si="29"/>
+        <v>0</v>
+      </c>
+      <c r="M42" s="4">
+        <f t="shared" si="30"/>
+        <v>100</v>
+      </c>
+      <c r="N42" s="4">
+        <f t="shared" si="31"/>
+        <v>6400</v>
+      </c>
       <c r="T42" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="24"/>
         <v>6500</v>
       </c>
-      <c r="U42" s="4"/>
-      <c r="V42" s="4"/>
-      <c r="W42" s="4"/>
-      <c r="X42" s="4"/>
-      <c r="Y42" s="4"/>
+      <c r="U42" s="4">
+        <f t="shared" si="32"/>
+        <v>5000</v>
+      </c>
+      <c r="V42" s="4">
+        <f t="shared" si="33"/>
+        <v>5000</v>
+      </c>
+      <c r="W42" s="4">
+        <f t="shared" si="34"/>
+        <v>1200</v>
+      </c>
+      <c r="X42" s="4">
+        <f t="shared" si="35"/>
+        <v>300</v>
+      </c>
+      <c r="Y42" s="4">
+        <f t="shared" si="36"/>
+        <v>5900</v>
+      </c>
       <c r="AE42" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="25"/>
         <v>6500</v>
       </c>
-      <c r="AF42" s="4"/>
-      <c r="AG42" s="4"/>
-      <c r="AH42" s="4"/>
-      <c r="AI42" s="4"/>
-      <c r="AJ42" s="4"/>
+      <c r="AF42" s="4">
+        <f t="shared" si="37"/>
+        <v>0</v>
+      </c>
+      <c r="AG42" s="4">
+        <f t="shared" si="38"/>
+        <v>100</v>
+      </c>
+      <c r="AH42" s="4">
+        <f t="shared" si="39"/>
+        <v>1200</v>
+      </c>
+      <c r="AI42" s="4">
+        <f t="shared" si="40"/>
+        <v>100</v>
+      </c>
+      <c r="AJ42" s="4">
+        <f t="shared" si="41"/>
+        <v>5300</v>
+      </c>
     </row>
     <row r="43" spans="2:38" x14ac:dyDescent="0.3">
       <c r="B43" s="4"/>
@@ -24389,57 +27040,58 @@
       </c>
     </row>
     <row r="46" spans="2:38" s="8" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B46" s="15" t="s">
+      <c r="B46" s="16" t="s">
         <v>40</v>
       </c>
-      <c r="C46" s="15"/>
-      <c r="D46" s="15"/>
-      <c r="E46" s="15"/>
+      <c r="C46" s="16"/>
+      <c r="D46" s="16"/>
+      <c r="E46" s="16"/>
       <c r="F46" s="7"/>
-      <c r="G46" s="15" t="s">
+      <c r="G46" s="16" t="s">
         <v>41</v>
       </c>
-      <c r="H46" s="15"/>
-      <c r="I46" s="15"/>
-      <c r="K46" s="15" t="s">
+      <c r="H46" s="16"/>
+      <c r="I46" s="16"/>
+      <c r="K46" s="16" t="s">
         <v>42</v>
       </c>
-      <c r="L46" s="15"/>
-      <c r="M46" s="15"/>
-      <c r="N46" s="15"/>
-      <c r="P46" s="15" t="s">
+      <c r="L46" s="16"/>
+      <c r="M46" s="16"/>
+      <c r="N46" s="16"/>
+      <c r="O46" s="14"/>
+      <c r="P46" s="16" t="s">
         <v>19</v>
       </c>
-      <c r="Q46" s="15"/>
-      <c r="R46" s="15"/>
-      <c r="T46" s="15" t="s">
+      <c r="Q46" s="16"/>
+      <c r="R46" s="16"/>
+      <c r="T46" s="16" t="s">
         <v>43</v>
       </c>
-      <c r="U46" s="15"/>
-      <c r="V46" s="15"/>
-      <c r="W46" s="19" t="s">
+      <c r="U46" s="16"/>
+      <c r="V46" s="16"/>
+      <c r="W46" s="20" t="s">
         <v>24</v>
       </c>
-      <c r="X46" s="19"/>
-      <c r="Z46" s="15" t="s">
+      <c r="X46" s="20"/>
+      <c r="Z46" s="16" t="s">
         <v>41</v>
       </c>
-      <c r="AA46" s="15"/>
-      <c r="AB46" s="15"/>
-      <c r="AD46" s="15" t="s">
+      <c r="AA46" s="16"/>
+      <c r="AB46" s="16"/>
+      <c r="AD46" s="16" t="s">
         <v>44</v>
       </c>
-      <c r="AE46" s="15"/>
-      <c r="AF46" s="15"/>
-      <c r="AG46" s="19" t="s">
+      <c r="AE46" s="16"/>
+      <c r="AF46" s="16"/>
+      <c r="AG46" s="20" t="s">
         <v>24</v>
       </c>
-      <c r="AH46" s="19"/>
-      <c r="AJ46" s="15" t="s">
+      <c r="AH46" s="20"/>
+      <c r="AJ46" s="16" t="s">
         <v>41</v>
       </c>
-      <c r="AK46" s="15"/>
-      <c r="AL46" s="15"/>
+      <c r="AK46" s="16"/>
+      <c r="AL46" s="16"/>
     </row>
     <row r="47" spans="2:38" x14ac:dyDescent="0.3">
       <c r="B47" s="6" t="s">
@@ -24465,7 +27117,7 @@
         <v>15</v>
       </c>
       <c r="K47" s="6" t="s">
-        <v>9</v>
+        <v>72</v>
       </c>
       <c r="L47" s="6" t="s">
         <v>12</v>
@@ -24476,6 +27128,7 @@
       <c r="N47" s="6" t="s">
         <v>24</v>
       </c>
+      <c r="O47" s="5"/>
       <c r="P47" s="6" t="s">
         <v>8</v>
       </c>
@@ -24538,9 +27191,18 @@
       <c r="B48" s="4">
         <v>3500</v>
       </c>
-      <c r="C48" s="4"/>
-      <c r="D48" s="4"/>
-      <c r="E48" s="9"/>
+      <c r="C48" s="4">
+        <f>MAX(B48-$H$48,0)</f>
+        <v>0</v>
+      </c>
+      <c r="D48" s="4">
+        <f>$I$48</f>
+        <v>300</v>
+      </c>
+      <c r="E48" s="9">
+        <f>(($H$48*(1+$H$52))/MIN(B48,$H$48))/(1+($I$48/$H$48))-1</f>
+        <v>0.48247978436657668</v>
+      </c>
       <c r="F48" s="4"/>
       <c r="G48" s="1" t="s">
         <v>21</v>
@@ -24555,9 +27217,18 @@
         <f>B48</f>
         <v>3500</v>
       </c>
-      <c r="L48" s="4"/>
-      <c r="M48" s="4"/>
-      <c r="N48" s="9"/>
+      <c r="L48" s="4">
+        <f>MAX($Q$48-K48,0)</f>
+        <v>1500</v>
+      </c>
+      <c r="M48" s="4">
+        <f>$R$48</f>
+        <v>200</v>
+      </c>
+      <c r="N48" s="9">
+        <f t="shared" ref="N48:N50" si="45">((($P$52*(1+$Q$52))*MAX($Q$48,K48)))/($Q$48+$R$48)-1</f>
+        <v>-9.6153846153845812E-3</v>
+      </c>
       <c r="P48" s="1" t="s">
         <v>22</v>
       </c>
@@ -24570,10 +27241,22 @@
       <c r="T48" s="4">
         <v>3500</v>
       </c>
-      <c r="U48" s="4"/>
-      <c r="V48" s="4"/>
-      <c r="W48" s="9"/>
-      <c r="X48" s="9"/>
+      <c r="U48" s="4">
+        <f>MAX(T48-$AA$48,0)</f>
+        <v>0</v>
+      </c>
+      <c r="V48" s="4">
+        <f>$AB$48</f>
+        <v>300</v>
+      </c>
+      <c r="W48" s="9">
+        <f>(($AA$48+V48)*(1+$AA$52))/($AA$48+U48)-1</f>
+        <v>9.1800000000000104E-2</v>
+      </c>
+      <c r="X48" s="9">
+        <f>(($AA$48+V48)*(1+$AA$52))/($AA$48)-1</f>
+        <v>9.1800000000000104E-2</v>
+      </c>
       <c r="Z48" s="1" t="s">
         <v>25</v>
       </c>
@@ -24586,10 +27269,22 @@
       <c r="AD48" s="4">
         <v>3500</v>
       </c>
-      <c r="AE48" s="4"/>
-      <c r="AF48" s="4"/>
-      <c r="AG48" s="9"/>
-      <c r="AH48" s="9"/>
+      <c r="AE48" s="4">
+        <f>MAX($AA$48-AD48,0)</f>
+        <v>1500</v>
+      </c>
+      <c r="AF48" s="4">
+        <f>$AB$48</f>
+        <v>300</v>
+      </c>
+      <c r="AG48" s="9">
+        <f>(($AJ$52+$AL$48)*(1+$AK$52))/($AJ$52+AE48)-1</f>
+        <v>-0.10307692307692295</v>
+      </c>
+      <c r="AH48" s="9">
+        <f>(($AJ$52+$AL$48)*(1+$AK$52))/($AJ$52)-1</f>
+        <v>0.16600000000000015</v>
+      </c>
       <c r="AJ48" s="1" t="s">
         <v>26</v>
       </c>
@@ -24605,98 +27300,191 @@
         <f>B48+200</f>
         <v>3700</v>
       </c>
-      <c r="C49" s="4"/>
-      <c r="D49" s="4"/>
-      <c r="E49" s="9"/>
+      <c r="C49" s="4">
+        <f t="shared" ref="C49:C63" si="46">MAX(B49-$H$48,0)</f>
+        <v>0</v>
+      </c>
+      <c r="D49" s="4">
+        <f t="shared" ref="D49:D63" si="47">$I$48</f>
+        <v>300</v>
+      </c>
+      <c r="E49" s="9">
+        <f t="shared" ref="E49:E63" si="48">(($H$48*(1+$H$52))/MIN(B49,$H$48))/(1+($I$48/$H$48))-1</f>
+        <v>0.40234574196838335</v>
+      </c>
       <c r="F49" s="4"/>
       <c r="I49" s="4"/>
       <c r="K49" s="4">
         <f>K48+200</f>
         <v>3700</v>
       </c>
-      <c r="L49" s="4"/>
-      <c r="M49" s="4"/>
-      <c r="N49" s="9"/>
+      <c r="L49" s="4">
+        <f t="shared" ref="L49:L63" si="49">MAX($Q$48-K49,0)</f>
+        <v>1300</v>
+      </c>
+      <c r="M49" s="4">
+        <f t="shared" ref="M49:M63" si="50">$R$48</f>
+        <v>200</v>
+      </c>
+      <c r="N49" s="9">
+        <f t="shared" si="45"/>
+        <v>-9.6153846153845812E-3</v>
+      </c>
       <c r="T49" s="4">
         <f>T48+200</f>
         <v>3700</v>
       </c>
-      <c r="U49" s="4"/>
-      <c r="V49" s="4"/>
-      <c r="W49" s="9"/>
-      <c r="X49" s="9"/>
+      <c r="U49" s="4">
+        <f t="shared" ref="U49:U63" si="51">MAX(T49-$AA$48,0)</f>
+        <v>0</v>
+      </c>
+      <c r="V49" s="4">
+        <f t="shared" ref="V49:V63" si="52">$AB$48</f>
+        <v>300</v>
+      </c>
+      <c r="W49" s="9">
+        <f t="shared" ref="W49:W63" si="53">(($AA$48+V49)*(1+$AA$52))/($AA$48+U49)-1</f>
+        <v>9.1800000000000104E-2</v>
+      </c>
+      <c r="X49" s="9">
+        <f t="shared" ref="X49:X63" si="54">(($AA$48+V49)*(1+$AA$52))/($AA$48)-1</f>
+        <v>9.1800000000000104E-2</v>
+      </c>
       <c r="AB49" s="4"/>
       <c r="AD49" s="4">
         <f>AD48+200</f>
         <v>3700</v>
       </c>
-      <c r="AE49" s="4"/>
-      <c r="AF49" s="4"/>
-      <c r="AG49" s="9"/>
-      <c r="AH49" s="9"/>
+      <c r="AE49" s="4">
+        <f t="shared" ref="AE49:AE63" si="55">MAX($AA$48-AD49,0)</f>
+        <v>1300</v>
+      </c>
+      <c r="AF49" s="4">
+        <f t="shared" ref="AF49:AF63" si="56">$AB$48</f>
+        <v>300</v>
+      </c>
+      <c r="AG49" s="9">
+        <f t="shared" ref="AG49:AG63" si="57">(($AJ$52+$AL$48)*(1+$AK$52))/($AJ$52+AE49)-1</f>
+        <v>-7.4603174603174449E-2</v>
+      </c>
+      <c r="AH49" s="9">
+        <f t="shared" ref="AH49:AH63" si="58">(($AJ$52+$AL$48)*(1+$AK$52))/($AJ$52)-1</f>
+        <v>0.16600000000000015</v>
+      </c>
       <c r="AL49" s="4"/>
     </row>
     <row r="50" spans="2:38" x14ac:dyDescent="0.3">
       <c r="B50" s="4">
-        <f t="shared" ref="B50:B63" si="8">B49+200</f>
+        <f t="shared" ref="B50:B63" si="59">B49+200</f>
         <v>3900</v>
       </c>
-      <c r="C50" s="4"/>
-      <c r="D50" s="4"/>
-      <c r="E50" s="9"/>
+      <c r="C50" s="4">
+        <f t="shared" si="46"/>
+        <v>0</v>
+      </c>
+      <c r="D50" s="4">
+        <f t="shared" si="47"/>
+        <v>300</v>
+      </c>
+      <c r="E50" s="9">
+        <f t="shared" si="48"/>
+        <v>0.33043057571359458</v>
+      </c>
       <c r="F50" s="4"/>
-      <c r="G50" s="15" t="s">
+      <c r="G50" s="16" t="s">
         <v>47</v>
       </c>
-      <c r="H50" s="15"/>
-      <c r="I50" s="15"/>
+      <c r="H50" s="16"/>
+      <c r="I50" s="16"/>
       <c r="K50" s="4">
-        <f t="shared" ref="K50:K63" si="9">K49+200</f>
+        <f t="shared" ref="K50:K63" si="60">K49+200</f>
         <v>3900</v>
       </c>
-      <c r="L50" s="4"/>
-      <c r="M50" s="4"/>
-      <c r="N50" s="9"/>
-      <c r="P50" s="15" t="s">
+      <c r="L50" s="4">
+        <f t="shared" si="49"/>
+        <v>1100</v>
+      </c>
+      <c r="M50" s="4">
+        <f t="shared" si="50"/>
+        <v>200</v>
+      </c>
+      <c r="N50" s="9">
+        <f t="shared" si="45"/>
+        <v>-9.6153846153845812E-3</v>
+      </c>
+      <c r="P50" s="16" t="s">
         <v>48</v>
       </c>
-      <c r="Q50" s="15"/>
-      <c r="R50" s="15"/>
+      <c r="Q50" s="16"/>
+      <c r="R50" s="16"/>
       <c r="T50" s="4">
-        <f t="shared" ref="T50:T63" si="10">T49+200</f>
+        <f t="shared" ref="T50:T63" si="61">T49+200</f>
         <v>3900</v>
       </c>
-      <c r="U50" s="4"/>
-      <c r="V50" s="4"/>
-      <c r="W50" s="9"/>
-      <c r="X50" s="9"/>
-      <c r="Z50" s="15" t="s">
+      <c r="U50" s="4">
+        <f t="shared" si="51"/>
+        <v>0</v>
+      </c>
+      <c r="V50" s="4">
+        <f t="shared" si="52"/>
+        <v>300</v>
+      </c>
+      <c r="W50" s="9">
+        <f t="shared" si="53"/>
+        <v>9.1800000000000104E-2</v>
+      </c>
+      <c r="X50" s="9">
+        <f t="shared" si="54"/>
+        <v>9.1800000000000104E-2</v>
+      </c>
+      <c r="Z50" s="16" t="s">
         <v>48</v>
       </c>
-      <c r="AA50" s="15"/>
-      <c r="AB50" s="15"/>
+      <c r="AA50" s="16"/>
+      <c r="AB50" s="16"/>
       <c r="AD50" s="4">
-        <f t="shared" ref="AD50:AD63" si="11">AD49+200</f>
+        <f t="shared" ref="AD50:AD63" si="62">AD49+200</f>
         <v>3900</v>
       </c>
-      <c r="AE50" s="4"/>
-      <c r="AF50" s="4"/>
-      <c r="AG50" s="9"/>
-      <c r="AH50" s="9"/>
-      <c r="AJ50" s="15" t="s">
+      <c r="AE50" s="4">
+        <f t="shared" si="55"/>
+        <v>1100</v>
+      </c>
+      <c r="AF50" s="4">
+        <f t="shared" si="56"/>
+        <v>300</v>
+      </c>
+      <c r="AG50" s="9">
+        <f t="shared" si="57"/>
+        <v>-4.4262295081967107E-2</v>
+      </c>
+      <c r="AH50" s="9">
+        <f t="shared" si="58"/>
+        <v>0.16600000000000015</v>
+      </c>
+      <c r="AJ50" s="16" t="s">
         <v>47</v>
       </c>
-      <c r="AK50" s="15"/>
-      <c r="AL50" s="15"/>
+      <c r="AK50" s="16"/>
+      <c r="AL50" s="16"/>
     </row>
     <row r="51" spans="2:38" x14ac:dyDescent="0.3">
       <c r="B51" s="4">
-        <f t="shared" si="8"/>
+        <f t="shared" si="59"/>
         <v>4100</v>
       </c>
-      <c r="C51" s="4"/>
-      <c r="D51" s="4"/>
-      <c r="E51" s="9"/>
+      <c r="C51" s="4">
+        <f t="shared" si="46"/>
+        <v>0</v>
+      </c>
+      <c r="D51" s="4">
+        <f t="shared" si="47"/>
+        <v>300</v>
+      </c>
+      <c r="E51" s="9">
+        <f t="shared" si="48"/>
+        <v>0.26553152323976081</v>
+      </c>
       <c r="F51" s="4"/>
       <c r="G51" s="6" t="s">
         <v>49</v>
@@ -24708,12 +27496,21 @@
         <v>6</v>
       </c>
       <c r="K51" s="4">
-        <f t="shared" si="9"/>
+        <f t="shared" si="60"/>
         <v>4100</v>
       </c>
-      <c r="L51" s="4"/>
-      <c r="M51" s="4"/>
-      <c r="N51" s="9"/>
+      <c r="L51" s="4">
+        <f t="shared" si="49"/>
+        <v>900</v>
+      </c>
+      <c r="M51" s="4">
+        <f t="shared" si="50"/>
+        <v>200</v>
+      </c>
+      <c r="N51" s="9">
+        <f>((($P$52*(1+$Q$52))*MAX($Q$48,K51)))/($Q$48+$R$48)-1</f>
+        <v>-9.6153846153845812E-3</v>
+      </c>
       <c r="P51" s="6" t="s">
         <v>49</v>
       </c>
@@ -24724,13 +27521,25 @@
         <v>6</v>
       </c>
       <c r="T51" s="4">
-        <f t="shared" si="10"/>
+        <f t="shared" si="61"/>
         <v>4100</v>
       </c>
-      <c r="U51" s="4"/>
-      <c r="V51" s="4"/>
-      <c r="W51" s="9"/>
-      <c r="X51" s="9"/>
+      <c r="U51" s="4">
+        <f t="shared" si="51"/>
+        <v>0</v>
+      </c>
+      <c r="V51" s="4">
+        <f t="shared" si="52"/>
+        <v>300</v>
+      </c>
+      <c r="W51" s="9">
+        <f t="shared" si="53"/>
+        <v>9.1800000000000104E-2</v>
+      </c>
+      <c r="X51" s="9">
+        <f t="shared" si="54"/>
+        <v>9.1800000000000104E-2</v>
+      </c>
       <c r="Z51" s="6" t="s">
         <v>49</v>
       </c>
@@ -24741,13 +27550,25 @@
         <v>6</v>
       </c>
       <c r="AD51" s="4">
-        <f t="shared" si="11"/>
+        <f t="shared" si="62"/>
         <v>4100</v>
       </c>
-      <c r="AE51" s="4"/>
-      <c r="AF51" s="4"/>
-      <c r="AG51" s="9"/>
-      <c r="AH51" s="9"/>
+      <c r="AE51" s="4">
+        <f t="shared" si="55"/>
+        <v>900</v>
+      </c>
+      <c r="AF51" s="4">
+        <f t="shared" si="56"/>
+        <v>300</v>
+      </c>
+      <c r="AG51" s="9">
+        <f t="shared" si="57"/>
+        <v>-1.186440677966083E-2</v>
+      </c>
+      <c r="AH51" s="9">
+        <f t="shared" si="58"/>
+        <v>0.16600000000000015</v>
+      </c>
       <c r="AJ51" s="6" t="s">
         <v>49</v>
       </c>
@@ -24760,12 +27581,21 @@
     </row>
     <row r="52" spans="2:38" x14ac:dyDescent="0.3">
       <c r="B52" s="4">
-        <f t="shared" si="8"/>
+        <f t="shared" si="59"/>
         <v>4300</v>
       </c>
-      <c r="C52" s="4"/>
-      <c r="D52" s="4"/>
-      <c r="E52" s="9"/>
+      <c r="C52" s="4">
+        <f t="shared" si="46"/>
+        <v>0</v>
+      </c>
+      <c r="D52" s="4">
+        <f t="shared" si="47"/>
+        <v>300</v>
+      </c>
+      <c r="E52" s="9">
+        <f t="shared" si="48"/>
+        <v>0.20666959192628354</v>
+      </c>
       <c r="F52" s="4"/>
       <c r="G52" s="4">
         <v>5000</v>
@@ -24777,14 +27607,23 @@
         <v>5</v>
       </c>
       <c r="K52" s="4">
-        <f t="shared" si="9"/>
+        <f t="shared" si="60"/>
         <v>4300</v>
       </c>
-      <c r="L52" s="4"/>
-      <c r="M52" s="4"/>
-      <c r="N52" s="9"/>
+      <c r="L52" s="4">
+        <f t="shared" si="49"/>
+        <v>700</v>
+      </c>
+      <c r="M52" s="4">
+        <f t="shared" si="50"/>
+        <v>200</v>
+      </c>
+      <c r="N52" s="9">
+        <f t="shared" ref="N52:N63" si="63">((($P$52*(1+$Q$52))*MAX($Q$48,K52)))/($Q$48+$R$48)-1</f>
+        <v>-9.6153846153845812E-3</v>
+      </c>
       <c r="P52" s="4">
-        <v>5000</v>
+        <v>1</v>
       </c>
       <c r="Q52" s="11">
         <v>0.03</v>
@@ -24793,13 +27632,25 @@
         <v>5</v>
       </c>
       <c r="T52" s="4">
-        <f t="shared" si="10"/>
+        <f t="shared" si="61"/>
         <v>4300</v>
       </c>
-      <c r="U52" s="4"/>
-      <c r="V52" s="4"/>
-      <c r="W52" s="9"/>
-      <c r="X52" s="9"/>
+      <c r="U52" s="4">
+        <f t="shared" si="51"/>
+        <v>0</v>
+      </c>
+      <c r="V52" s="4">
+        <f t="shared" si="52"/>
+        <v>300</v>
+      </c>
+      <c r="W52" s="9">
+        <f t="shared" si="53"/>
+        <v>9.1800000000000104E-2</v>
+      </c>
+      <c r="X52" s="9">
+        <f t="shared" si="54"/>
+        <v>9.1800000000000104E-2</v>
+      </c>
       <c r="Z52" s="4">
         <v>5000</v>
       </c>
@@ -24810,13 +27661,25 @@
         <v>5</v>
       </c>
       <c r="AD52" s="4">
-        <f t="shared" si="11"/>
+        <f t="shared" si="62"/>
         <v>4300</v>
       </c>
-      <c r="AE52" s="4"/>
-      <c r="AF52" s="4"/>
-      <c r="AG52" s="9"/>
-      <c r="AH52" s="9"/>
+      <c r="AE52" s="4">
+        <f t="shared" si="55"/>
+        <v>700</v>
+      </c>
+      <c r="AF52" s="4">
+        <f t="shared" si="56"/>
+        <v>300</v>
+      </c>
+      <c r="AG52" s="9">
+        <f t="shared" si="57"/>
+        <v>2.280701754385972E-2</v>
+      </c>
+      <c r="AH52" s="9">
+        <f t="shared" si="58"/>
+        <v>0.16600000000000015</v>
+      </c>
       <c r="AJ52" s="4">
         <v>5000</v>
       </c>
@@ -24829,462 +27692,924 @@
     </row>
     <row r="53" spans="2:38" x14ac:dyDescent="0.3">
       <c r="B53" s="4">
-        <f t="shared" si="8"/>
+        <f t="shared" si="59"/>
         <v>4500</v>
       </c>
-      <c r="C53" s="4"/>
-      <c r="D53" s="4"/>
-      <c r="E53" s="9"/>
+      <c r="C53" s="4">
+        <f t="shared" si="46"/>
+        <v>0</v>
+      </c>
+      <c r="D53" s="4">
+        <f t="shared" si="47"/>
+        <v>300</v>
+      </c>
+      <c r="E53" s="9">
+        <f t="shared" si="48"/>
+        <v>0.15303983228511542</v>
+      </c>
       <c r="F53" s="4"/>
       <c r="G53" s="4"/>
       <c r="H53" s="4"/>
       <c r="I53" s="4"/>
       <c r="K53" s="4">
-        <f t="shared" si="9"/>
+        <f t="shared" si="60"/>
         <v>4500</v>
       </c>
-      <c r="L53" s="4"/>
-      <c r="M53" s="4"/>
-      <c r="N53" s="9"/>
+      <c r="L53" s="4">
+        <f t="shared" si="49"/>
+        <v>500</v>
+      </c>
+      <c r="M53" s="4">
+        <f t="shared" si="50"/>
+        <v>200</v>
+      </c>
+      <c r="N53" s="9">
+        <f t="shared" si="63"/>
+        <v>-9.6153846153845812E-3</v>
+      </c>
       <c r="T53" s="4">
-        <f t="shared" si="10"/>
+        <f t="shared" si="61"/>
         <v>4500</v>
       </c>
-      <c r="U53" s="4"/>
-      <c r="V53" s="4"/>
-      <c r="W53" s="9"/>
-      <c r="X53" s="9"/>
+      <c r="U53" s="4">
+        <f t="shared" si="51"/>
+        <v>0</v>
+      </c>
+      <c r="V53" s="4">
+        <f t="shared" si="52"/>
+        <v>300</v>
+      </c>
+      <c r="W53" s="9">
+        <f t="shared" si="53"/>
+        <v>9.1800000000000104E-2</v>
+      </c>
+      <c r="X53" s="9">
+        <f t="shared" si="54"/>
+        <v>9.1800000000000104E-2</v>
+      </c>
       <c r="Y53" s="4"/>
       <c r="Z53" s="4"/>
       <c r="AA53" s="4"/>
       <c r="AD53" s="4">
-        <f t="shared" si="11"/>
+        <f t="shared" si="62"/>
         <v>4500</v>
       </c>
-      <c r="AE53" s="4"/>
-      <c r="AF53" s="4"/>
-      <c r="AG53" s="9"/>
-      <c r="AH53" s="9"/>
+      <c r="AE53" s="4">
+        <f t="shared" si="55"/>
+        <v>500</v>
+      </c>
+      <c r="AF53" s="4">
+        <f t="shared" si="56"/>
+        <v>300</v>
+      </c>
+      <c r="AG53" s="9">
+        <f t="shared" si="57"/>
+        <v>6.0000000000000275E-2</v>
+      </c>
+      <c r="AH53" s="9">
+        <f t="shared" si="58"/>
+        <v>0.16600000000000015</v>
+      </c>
       <c r="AI53" s="4"/>
       <c r="AJ53" s="4"/>
       <c r="AK53" s="4"/>
     </row>
     <row r="54" spans="2:38" x14ac:dyDescent="0.3">
       <c r="B54" s="4">
-        <f t="shared" si="8"/>
+        <f t="shared" si="59"/>
         <v>4700</v>
       </c>
-      <c r="C54" s="4"/>
-      <c r="D54" s="4"/>
-      <c r="E54" s="9"/>
+      <c r="C54" s="4">
+        <f t="shared" si="46"/>
+        <v>0</v>
+      </c>
+      <c r="D54" s="4">
+        <f t="shared" si="47"/>
+        <v>300</v>
+      </c>
+      <c r="E54" s="9">
+        <f t="shared" si="48"/>
+        <v>0.10397430750702519</v>
+      </c>
       <c r="F54" s="4"/>
       <c r="G54" s="4"/>
       <c r="H54" s="4"/>
       <c r="I54" s="4"/>
       <c r="K54" s="4">
-        <f t="shared" si="9"/>
+        <f t="shared" si="60"/>
         <v>4700</v>
       </c>
-      <c r="L54" s="4"/>
-      <c r="M54" s="4"/>
-      <c r="N54" s="9"/>
+      <c r="L54" s="4">
+        <f t="shared" si="49"/>
+        <v>300</v>
+      </c>
+      <c r="M54" s="4">
+        <f t="shared" si="50"/>
+        <v>200</v>
+      </c>
+      <c r="N54" s="9">
+        <f t="shared" si="63"/>
+        <v>-9.6153846153845812E-3</v>
+      </c>
       <c r="T54" s="4">
-        <f t="shared" si="10"/>
+        <f t="shared" si="61"/>
         <v>4700</v>
       </c>
-      <c r="U54" s="4"/>
-      <c r="V54" s="4"/>
-      <c r="W54" s="9"/>
-      <c r="X54" s="9"/>
+      <c r="U54" s="4">
+        <f t="shared" si="51"/>
+        <v>0</v>
+      </c>
+      <c r="V54" s="4">
+        <f t="shared" si="52"/>
+        <v>300</v>
+      </c>
+      <c r="W54" s="9">
+        <f t="shared" si="53"/>
+        <v>9.1800000000000104E-2</v>
+      </c>
+      <c r="X54" s="9">
+        <f t="shared" si="54"/>
+        <v>9.1800000000000104E-2</v>
+      </c>
       <c r="Y54" s="4"/>
       <c r="Z54" s="4"/>
       <c r="AA54" s="4"/>
       <c r="AD54" s="4">
-        <f t="shared" si="11"/>
+        <f t="shared" si="62"/>
         <v>4700</v>
       </c>
-      <c r="AE54" s="4"/>
-      <c r="AF54" s="4"/>
-      <c r="AG54" s="9"/>
-      <c r="AH54" s="9"/>
+      <c r="AE54" s="4">
+        <f t="shared" si="55"/>
+        <v>300</v>
+      </c>
+      <c r="AF54" s="4">
+        <f t="shared" si="56"/>
+        <v>300</v>
+      </c>
+      <c r="AG54" s="9">
+        <f t="shared" si="57"/>
+        <v>0.10000000000000009</v>
+      </c>
+      <c r="AH54" s="9">
+        <f t="shared" si="58"/>
+        <v>0.16600000000000015</v>
+      </c>
       <c r="AI54" s="4"/>
       <c r="AJ54" s="4"/>
       <c r="AK54" s="4"/>
     </row>
     <row r="55" spans="2:38" x14ac:dyDescent="0.3">
       <c r="B55" s="4">
-        <f t="shared" si="8"/>
+        <f t="shared" si="59"/>
         <v>4900</v>
       </c>
-      <c r="C55" s="4"/>
-      <c r="D55" s="4"/>
-      <c r="E55" s="9"/>
+      <c r="C55" s="4">
+        <f t="shared" si="46"/>
+        <v>0</v>
+      </c>
+      <c r="D55" s="4">
+        <f t="shared" si="47"/>
+        <v>300</v>
+      </c>
+      <c r="E55" s="9">
+        <f t="shared" si="48"/>
+        <v>5.891413169041182E-2</v>
+      </c>
       <c r="F55" s="4"/>
       <c r="G55" s="4"/>
       <c r="H55" s="4"/>
       <c r="I55" s="4"/>
       <c r="K55" s="4">
-        <f t="shared" si="9"/>
+        <f t="shared" si="60"/>
         <v>4900</v>
       </c>
-      <c r="L55" s="4"/>
-      <c r="M55" s="4"/>
-      <c r="N55" s="9"/>
+      <c r="L55" s="4">
+        <f t="shared" si="49"/>
+        <v>100</v>
+      </c>
+      <c r="M55" s="4">
+        <f t="shared" si="50"/>
+        <v>200</v>
+      </c>
+      <c r="N55" s="9">
+        <f t="shared" si="63"/>
+        <v>-9.6153846153845812E-3</v>
+      </c>
       <c r="T55" s="4">
-        <f t="shared" si="10"/>
+        <f t="shared" si="61"/>
         <v>4900</v>
       </c>
-      <c r="U55" s="4"/>
-      <c r="V55" s="4"/>
-      <c r="W55" s="9"/>
-      <c r="X55" s="9"/>
+      <c r="U55" s="4">
+        <f t="shared" si="51"/>
+        <v>0</v>
+      </c>
+      <c r="V55" s="4">
+        <f t="shared" si="52"/>
+        <v>300</v>
+      </c>
+      <c r="W55" s="9">
+        <f t="shared" si="53"/>
+        <v>9.1800000000000104E-2</v>
+      </c>
+      <c r="X55" s="9">
+        <f t="shared" si="54"/>
+        <v>9.1800000000000104E-2</v>
+      </c>
       <c r="Y55" s="4"/>
       <c r="Z55" s="4"/>
       <c r="AA55" s="4"/>
       <c r="AD55" s="4">
-        <f t="shared" si="11"/>
+        <f t="shared" si="62"/>
         <v>4900</v>
       </c>
-      <c r="AE55" s="4"/>
-      <c r="AF55" s="4"/>
-      <c r="AG55" s="9"/>
-      <c r="AH55" s="9"/>
+      <c r="AE55" s="4">
+        <f t="shared" si="55"/>
+        <v>100</v>
+      </c>
+      <c r="AF55" s="4">
+        <f t="shared" si="56"/>
+        <v>300</v>
+      </c>
+      <c r="AG55" s="9">
+        <f t="shared" si="57"/>
+        <v>0.14313725490196094</v>
+      </c>
+      <c r="AH55" s="9">
+        <f t="shared" si="58"/>
+        <v>0.16600000000000015</v>
+      </c>
       <c r="AI55" s="4"/>
       <c r="AJ55" s="4"/>
       <c r="AK55" s="4"/>
     </row>
     <row r="56" spans="2:38" x14ac:dyDescent="0.3">
       <c r="B56" s="4">
-        <f t="shared" si="8"/>
+        <f t="shared" si="59"/>
         <v>5100</v>
       </c>
-      <c r="C56" s="4"/>
-      <c r="D56" s="4"/>
-      <c r="E56" s="9"/>
+      <c r="C56" s="4">
+        <f t="shared" si="46"/>
+        <v>100</v>
+      </c>
+      <c r="D56" s="4">
+        <f t="shared" si="47"/>
+        <v>300</v>
+      </c>
+      <c r="E56" s="9">
+        <f t="shared" si="48"/>
+        <v>3.7735849056603765E-2</v>
+      </c>
       <c r="F56" s="4"/>
       <c r="G56" s="4"/>
       <c r="H56" s="4"/>
       <c r="I56" s="4"/>
       <c r="K56" s="4">
-        <f t="shared" si="9"/>
+        <f t="shared" si="60"/>
         <v>5100</v>
       </c>
-      <c r="L56" s="4"/>
-      <c r="M56" s="4"/>
-      <c r="N56" s="9"/>
+      <c r="L56" s="4">
+        <f t="shared" si="49"/>
+        <v>0</v>
+      </c>
+      <c r="M56" s="4">
+        <f t="shared" si="50"/>
+        <v>200</v>
+      </c>
+      <c r="N56" s="9">
+        <f t="shared" si="63"/>
+        <v>1.0192307692307612E-2</v>
+      </c>
       <c r="T56" s="4">
-        <f t="shared" si="10"/>
+        <f t="shared" si="61"/>
         <v>5100</v>
       </c>
-      <c r="U56" s="4"/>
-      <c r="V56" s="4"/>
-      <c r="W56" s="9"/>
-      <c r="X56" s="9"/>
+      <c r="U56" s="4">
+        <f t="shared" si="51"/>
+        <v>100</v>
+      </c>
+      <c r="V56" s="4">
+        <f t="shared" si="52"/>
+        <v>300</v>
+      </c>
+      <c r="W56" s="9">
+        <f t="shared" si="53"/>
+        <v>7.0392156862745026E-2</v>
+      </c>
+      <c r="X56" s="9">
+        <f t="shared" si="54"/>
+        <v>9.1800000000000104E-2</v>
+      </c>
       <c r="Y56" s="4"/>
       <c r="Z56" s="4"/>
       <c r="AA56" s="4"/>
       <c r="AD56" s="4">
-        <f t="shared" si="11"/>
+        <f t="shared" si="62"/>
         <v>5100</v>
       </c>
-      <c r="AE56" s="4"/>
-      <c r="AF56" s="4"/>
-      <c r="AG56" s="9"/>
-      <c r="AH56" s="9"/>
+      <c r="AE56" s="4">
+        <f t="shared" si="55"/>
+        <v>0</v>
+      </c>
+      <c r="AF56" s="4">
+        <f t="shared" si="56"/>
+        <v>300</v>
+      </c>
+      <c r="AG56" s="9">
+        <f t="shared" si="57"/>
+        <v>0.16600000000000015</v>
+      </c>
+      <c r="AH56" s="9">
+        <f t="shared" si="58"/>
+        <v>0.16600000000000015</v>
+      </c>
       <c r="AI56" s="4"/>
       <c r="AJ56" s="4"/>
       <c r="AK56" s="4"/>
     </row>
     <row r="57" spans="2:38" x14ac:dyDescent="0.3">
       <c r="B57" s="4">
-        <f t="shared" si="8"/>
+        <f t="shared" si="59"/>
         <v>5300</v>
       </c>
-      <c r="C57" s="4"/>
-      <c r="D57" s="4"/>
-      <c r="E57" s="9"/>
+      <c r="C57" s="4">
+        <f t="shared" si="46"/>
+        <v>300</v>
+      </c>
+      <c r="D57" s="4">
+        <f t="shared" si="47"/>
+        <v>300</v>
+      </c>
+      <c r="E57" s="9">
+        <f t="shared" si="48"/>
+        <v>3.7735849056603765E-2</v>
+      </c>
       <c r="F57" s="4"/>
       <c r="G57" s="4"/>
       <c r="H57" s="4"/>
       <c r="I57" s="4"/>
       <c r="K57" s="4">
-        <f t="shared" si="9"/>
+        <f t="shared" si="60"/>
         <v>5300</v>
       </c>
-      <c r="L57" s="4"/>
-      <c r="M57" s="4"/>
-      <c r="N57" s="9"/>
+      <c r="L57" s="4">
+        <f t="shared" si="49"/>
+        <v>0</v>
+      </c>
+      <c r="M57" s="4">
+        <f t="shared" si="50"/>
+        <v>200</v>
+      </c>
+      <c r="N57" s="9">
+        <f t="shared" si="63"/>
+        <v>4.980769230769222E-2</v>
+      </c>
       <c r="T57" s="4">
-        <f t="shared" si="10"/>
+        <f t="shared" si="61"/>
         <v>5300</v>
       </c>
-      <c r="U57" s="4"/>
-      <c r="V57" s="4"/>
-      <c r="W57" s="9"/>
-      <c r="X57" s="9"/>
+      <c r="U57" s="4">
+        <f t="shared" si="51"/>
+        <v>300</v>
+      </c>
+      <c r="V57" s="4">
+        <f t="shared" si="52"/>
+        <v>300</v>
+      </c>
+      <c r="W57" s="9">
+        <f t="shared" si="53"/>
+        <v>3.0000000000000027E-2</v>
+      </c>
+      <c r="X57" s="9">
+        <f t="shared" si="54"/>
+        <v>9.1800000000000104E-2</v>
+      </c>
       <c r="Y57" s="4"/>
       <c r="Z57" s="4"/>
       <c r="AA57" s="4"/>
       <c r="AD57" s="4">
-        <f t="shared" si="11"/>
+        <f t="shared" si="62"/>
         <v>5300</v>
       </c>
-      <c r="AE57" s="4"/>
-      <c r="AF57" s="4"/>
-      <c r="AG57" s="9"/>
-      <c r="AH57" s="9"/>
+      <c r="AE57" s="4">
+        <f t="shared" si="55"/>
+        <v>0</v>
+      </c>
+      <c r="AF57" s="4">
+        <f t="shared" si="56"/>
+        <v>300</v>
+      </c>
+      <c r="AG57" s="9">
+        <f t="shared" si="57"/>
+        <v>0.16600000000000015</v>
+      </c>
+      <c r="AH57" s="9">
+        <f t="shared" si="58"/>
+        <v>0.16600000000000015</v>
+      </c>
       <c r="AI57" s="4"/>
       <c r="AJ57" s="4"/>
       <c r="AK57" s="4"/>
     </row>
     <row r="58" spans="2:38" x14ac:dyDescent="0.3">
       <c r="B58" s="4">
-        <f t="shared" si="8"/>
+        <f t="shared" si="59"/>
         <v>5500</v>
       </c>
-      <c r="C58" s="4"/>
-      <c r="D58" s="4"/>
-      <c r="E58" s="9"/>
+      <c r="C58" s="4">
+        <f t="shared" si="46"/>
+        <v>500</v>
+      </c>
+      <c r="D58" s="4">
+        <f t="shared" si="47"/>
+        <v>300</v>
+      </c>
+      <c r="E58" s="9">
+        <f t="shared" si="48"/>
+        <v>3.7735849056603765E-2</v>
+      </c>
       <c r="F58" s="4"/>
       <c r="G58" s="4"/>
       <c r="H58" s="4"/>
       <c r="I58" s="4"/>
       <c r="K58" s="4">
-        <f t="shared" si="9"/>
+        <f t="shared" si="60"/>
         <v>5500</v>
       </c>
-      <c r="L58" s="4"/>
-      <c r="M58" s="4"/>
-      <c r="N58" s="9"/>
+      <c r="L58" s="4">
+        <f t="shared" si="49"/>
+        <v>0</v>
+      </c>
+      <c r="M58" s="4">
+        <f t="shared" si="50"/>
+        <v>200</v>
+      </c>
+      <c r="N58" s="9">
+        <f t="shared" si="63"/>
+        <v>8.9423076923076827E-2</v>
+      </c>
       <c r="T58" s="4">
-        <f t="shared" si="10"/>
+        <f t="shared" si="61"/>
         <v>5500</v>
       </c>
-      <c r="U58" s="4"/>
-      <c r="V58" s="4"/>
-      <c r="W58" s="9"/>
-      <c r="X58" s="9"/>
+      <c r="U58" s="4">
+        <f t="shared" si="51"/>
+        <v>500</v>
+      </c>
+      <c r="V58" s="4">
+        <f t="shared" si="52"/>
+        <v>300</v>
+      </c>
+      <c r="W58" s="9">
+        <f t="shared" si="53"/>
+        <v>-7.4545454545454914E-3</v>
+      </c>
+      <c r="X58" s="9">
+        <f t="shared" si="54"/>
+        <v>9.1800000000000104E-2</v>
+      </c>
       <c r="Y58" s="4"/>
       <c r="Z58" s="4"/>
       <c r="AA58" s="4"/>
       <c r="AD58" s="4">
-        <f t="shared" si="11"/>
+        <f t="shared" si="62"/>
         <v>5500</v>
       </c>
-      <c r="AE58" s="4"/>
-      <c r="AF58" s="4"/>
-      <c r="AG58" s="9"/>
-      <c r="AH58" s="9"/>
+      <c r="AE58" s="4">
+        <f t="shared" si="55"/>
+        <v>0</v>
+      </c>
+      <c r="AF58" s="4">
+        <f t="shared" si="56"/>
+        <v>300</v>
+      </c>
+      <c r="AG58" s="9">
+        <f t="shared" si="57"/>
+        <v>0.16600000000000015</v>
+      </c>
+      <c r="AH58" s="9">
+        <f t="shared" si="58"/>
+        <v>0.16600000000000015</v>
+      </c>
       <c r="AI58" s="4"/>
       <c r="AJ58" s="4"/>
       <c r="AK58" s="4"/>
     </row>
     <row r="59" spans="2:38" x14ac:dyDescent="0.3">
       <c r="B59" s="4">
-        <f t="shared" si="8"/>
+        <f t="shared" si="59"/>
         <v>5700</v>
       </c>
-      <c r="C59" s="4"/>
-      <c r="D59" s="4"/>
-      <c r="E59" s="9"/>
+      <c r="C59" s="4">
+        <f t="shared" si="46"/>
+        <v>700</v>
+      </c>
+      <c r="D59" s="4">
+        <f t="shared" si="47"/>
+        <v>300</v>
+      </c>
+      <c r="E59" s="9">
+        <f t="shared" si="48"/>
+        <v>3.7735849056603765E-2</v>
+      </c>
       <c r="F59" s="4"/>
       <c r="G59" s="4"/>
       <c r="H59" s="4"/>
       <c r="I59" s="4"/>
       <c r="K59" s="4">
-        <f t="shared" si="9"/>
+        <f t="shared" si="60"/>
         <v>5700</v>
       </c>
-      <c r="L59" s="4"/>
-      <c r="M59" s="4"/>
-      <c r="N59" s="9"/>
+      <c r="L59" s="4">
+        <f t="shared" si="49"/>
+        <v>0</v>
+      </c>
+      <c r="M59" s="4">
+        <f t="shared" si="50"/>
+        <v>200</v>
+      </c>
+      <c r="N59" s="9">
+        <f t="shared" si="63"/>
+        <v>0.12903846153846144</v>
+      </c>
       <c r="T59" s="4">
-        <f t="shared" si="10"/>
+        <f t="shared" si="61"/>
         <v>5700</v>
       </c>
-      <c r="U59" s="4"/>
-      <c r="V59" s="4"/>
-      <c r="W59" s="9"/>
-      <c r="X59" s="9"/>
+      <c r="U59" s="4">
+        <f t="shared" si="51"/>
+        <v>700</v>
+      </c>
+      <c r="V59" s="4">
+        <f t="shared" si="52"/>
+        <v>300</v>
+      </c>
+      <c r="W59" s="9">
+        <f t="shared" si="53"/>
+        <v>-4.2280701754385919E-2</v>
+      </c>
+      <c r="X59" s="9">
+        <f t="shared" si="54"/>
+        <v>9.1800000000000104E-2</v>
+      </c>
       <c r="Y59" s="4"/>
       <c r="Z59" s="4"/>
       <c r="AA59" s="4"/>
       <c r="AD59" s="4">
-        <f t="shared" si="11"/>
+        <f t="shared" si="62"/>
         <v>5700</v>
       </c>
-      <c r="AE59" s="4"/>
-      <c r="AF59" s="4"/>
-      <c r="AG59" s="9"/>
-      <c r="AH59" s="9"/>
+      <c r="AE59" s="4">
+        <f t="shared" si="55"/>
+        <v>0</v>
+      </c>
+      <c r="AF59" s="4">
+        <f t="shared" si="56"/>
+        <v>300</v>
+      </c>
+      <c r="AG59" s="9">
+        <f t="shared" si="57"/>
+        <v>0.16600000000000015</v>
+      </c>
+      <c r="AH59" s="9">
+        <f t="shared" si="58"/>
+        <v>0.16600000000000015</v>
+      </c>
       <c r="AI59" s="4"/>
       <c r="AJ59" s="4"/>
       <c r="AK59" s="4"/>
     </row>
     <row r="60" spans="2:38" x14ac:dyDescent="0.3">
       <c r="B60" s="4">
-        <f t="shared" si="8"/>
+        <f t="shared" si="59"/>
         <v>5900</v>
       </c>
-      <c r="C60" s="4"/>
-      <c r="D60" s="4"/>
-      <c r="E60" s="9"/>
+      <c r="C60" s="4">
+        <f t="shared" si="46"/>
+        <v>900</v>
+      </c>
+      <c r="D60" s="4">
+        <f t="shared" si="47"/>
+        <v>300</v>
+      </c>
+      <c r="E60" s="9">
+        <f t="shared" si="48"/>
+        <v>3.7735849056603765E-2</v>
+      </c>
       <c r="F60" s="4"/>
       <c r="G60" s="4"/>
       <c r="H60" s="4"/>
       <c r="I60" s="4"/>
       <c r="K60" s="4">
-        <f t="shared" si="9"/>
+        <f t="shared" si="60"/>
         <v>5900</v>
       </c>
-      <c r="L60" s="4"/>
-      <c r="M60" s="4"/>
-      <c r="N60" s="9"/>
+      <c r="L60" s="4">
+        <f t="shared" si="49"/>
+        <v>0</v>
+      </c>
+      <c r="M60" s="4">
+        <f t="shared" si="50"/>
+        <v>200</v>
+      </c>
+      <c r="N60" s="9">
+        <f t="shared" si="63"/>
+        <v>0.16865384615384604</v>
+      </c>
       <c r="T60" s="4">
-        <f t="shared" si="10"/>
+        <f t="shared" si="61"/>
         <v>5900</v>
       </c>
-      <c r="U60" s="4"/>
-      <c r="V60" s="4"/>
-      <c r="W60" s="9"/>
-      <c r="X60" s="9"/>
+      <c r="U60" s="4">
+        <f t="shared" si="51"/>
+        <v>900</v>
+      </c>
+      <c r="V60" s="4">
+        <f t="shared" si="52"/>
+        <v>300</v>
+      </c>
+      <c r="W60" s="9">
+        <f t="shared" si="53"/>
+        <v>-7.4745762711864394E-2</v>
+      </c>
+      <c r="X60" s="9">
+        <f t="shared" si="54"/>
+        <v>9.1800000000000104E-2</v>
+      </c>
       <c r="Y60" s="4"/>
       <c r="Z60" s="4"/>
       <c r="AA60" s="4"/>
       <c r="AD60" s="4">
-        <f t="shared" si="11"/>
+        <f t="shared" si="62"/>
         <v>5900</v>
       </c>
-      <c r="AE60" s="4"/>
-      <c r="AF60" s="4"/>
-      <c r="AG60" s="9"/>
-      <c r="AH60" s="9"/>
+      <c r="AE60" s="4">
+        <f t="shared" si="55"/>
+        <v>0</v>
+      </c>
+      <c r="AF60" s="4">
+        <f t="shared" si="56"/>
+        <v>300</v>
+      </c>
+      <c r="AG60" s="9">
+        <f t="shared" si="57"/>
+        <v>0.16600000000000015</v>
+      </c>
+      <c r="AH60" s="9">
+        <f t="shared" si="58"/>
+        <v>0.16600000000000015</v>
+      </c>
       <c r="AI60" s="4"/>
       <c r="AJ60" s="4"/>
       <c r="AK60" s="4"/>
     </row>
     <row r="61" spans="2:38" x14ac:dyDescent="0.3">
       <c r="B61" s="4">
-        <f t="shared" si="8"/>
+        <f t="shared" si="59"/>
         <v>6100</v>
       </c>
-      <c r="C61" s="4"/>
-      <c r="D61" s="4"/>
-      <c r="E61" s="9"/>
+      <c r="C61" s="4">
+        <f t="shared" si="46"/>
+        <v>1100</v>
+      </c>
+      <c r="D61" s="4">
+        <f t="shared" si="47"/>
+        <v>300</v>
+      </c>
+      <c r="E61" s="9">
+        <f t="shared" si="48"/>
+        <v>3.7735849056603765E-2</v>
+      </c>
       <c r="F61" s="4"/>
       <c r="G61" s="4"/>
       <c r="H61" s="4"/>
       <c r="I61" s="4"/>
       <c r="K61" s="4">
-        <f t="shared" si="9"/>
+        <f t="shared" si="60"/>
         <v>6100</v>
       </c>
-      <c r="L61" s="4"/>
-      <c r="M61" s="4"/>
-      <c r="N61" s="9"/>
+      <c r="L61" s="4">
+        <f t="shared" si="49"/>
+        <v>0</v>
+      </c>
+      <c r="M61" s="4">
+        <f t="shared" si="50"/>
+        <v>200</v>
+      </c>
+      <c r="N61" s="9">
+        <f t="shared" si="63"/>
+        <v>0.20826923076923087</v>
+      </c>
       <c r="T61" s="4">
-        <f t="shared" si="10"/>
+        <f t="shared" si="61"/>
         <v>6100</v>
       </c>
-      <c r="U61" s="4"/>
-      <c r="V61" s="4"/>
-      <c r="W61" s="9"/>
-      <c r="X61" s="9"/>
+      <c r="U61" s="4">
+        <f t="shared" si="51"/>
+        <v>1100</v>
+      </c>
+      <c r="V61" s="4">
+        <f t="shared" si="52"/>
+        <v>300</v>
+      </c>
+      <c r="W61" s="9">
+        <f t="shared" si="53"/>
+        <v>-0.1050819672131148</v>
+      </c>
+      <c r="X61" s="9">
+        <f t="shared" si="54"/>
+        <v>9.1800000000000104E-2</v>
+      </c>
       <c r="Y61" s="4"/>
       <c r="Z61" s="4"/>
       <c r="AA61" s="4"/>
       <c r="AD61" s="4">
-        <f t="shared" si="11"/>
+        <f t="shared" si="62"/>
         <v>6100</v>
       </c>
-      <c r="AE61" s="4"/>
-      <c r="AF61" s="4"/>
-      <c r="AG61" s="9"/>
-      <c r="AH61" s="9"/>
+      <c r="AE61" s="4">
+        <f t="shared" si="55"/>
+        <v>0</v>
+      </c>
+      <c r="AF61" s="4">
+        <f t="shared" si="56"/>
+        <v>300</v>
+      </c>
+      <c r="AG61" s="9">
+        <f t="shared" si="57"/>
+        <v>0.16600000000000015</v>
+      </c>
+      <c r="AH61" s="9">
+        <f t="shared" si="58"/>
+        <v>0.16600000000000015</v>
+      </c>
       <c r="AI61" s="4"/>
       <c r="AJ61" s="4"/>
       <c r="AK61" s="4"/>
     </row>
     <row r="62" spans="2:38" x14ac:dyDescent="0.3">
       <c r="B62" s="4">
-        <f t="shared" si="8"/>
+        <f t="shared" si="59"/>
         <v>6300</v>
       </c>
-      <c r="C62" s="4"/>
-      <c r="D62" s="4"/>
-      <c r="E62" s="9"/>
+      <c r="C62" s="4">
+        <f t="shared" si="46"/>
+        <v>1300</v>
+      </c>
+      <c r="D62" s="4">
+        <f t="shared" si="47"/>
+        <v>300</v>
+      </c>
+      <c r="E62" s="9">
+        <f t="shared" si="48"/>
+        <v>3.7735849056603765E-2</v>
+      </c>
       <c r="F62" s="4"/>
       <c r="G62" s="4"/>
       <c r="H62" s="4"/>
       <c r="I62" s="4"/>
       <c r="K62" s="4">
-        <f t="shared" si="9"/>
+        <f t="shared" si="60"/>
         <v>6300</v>
       </c>
-      <c r="L62" s="4"/>
-      <c r="M62" s="4"/>
-      <c r="N62" s="9"/>
+      <c r="L62" s="4">
+        <f t="shared" si="49"/>
+        <v>0</v>
+      </c>
+      <c r="M62" s="4">
+        <f t="shared" si="50"/>
+        <v>200</v>
+      </c>
+      <c r="N62" s="9">
+        <f t="shared" si="63"/>
+        <v>0.24788461538461548</v>
+      </c>
       <c r="T62" s="4">
-        <f t="shared" si="10"/>
+        <f t="shared" si="61"/>
         <v>6300</v>
       </c>
-      <c r="U62" s="4"/>
-      <c r="V62" s="4"/>
-      <c r="W62" s="9"/>
-      <c r="X62" s="9"/>
+      <c r="U62" s="4">
+        <f t="shared" si="51"/>
+        <v>1300</v>
+      </c>
+      <c r="V62" s="4">
+        <f t="shared" si="52"/>
+        <v>300</v>
+      </c>
+      <c r="W62" s="9">
+        <f t="shared" si="53"/>
+        <v>-0.13349206349206344</v>
+      </c>
+      <c r="X62" s="9">
+        <f t="shared" si="54"/>
+        <v>9.1800000000000104E-2</v>
+      </c>
       <c r="Y62" s="4"/>
       <c r="Z62" s="4"/>
       <c r="AA62" s="4"/>
       <c r="AD62" s="4">
-        <f t="shared" si="11"/>
+        <f t="shared" si="62"/>
         <v>6300</v>
       </c>
-      <c r="AE62" s="4"/>
-      <c r="AF62" s="4"/>
-      <c r="AG62" s="9"/>
-      <c r="AH62" s="9"/>
+      <c r="AE62" s="4">
+        <f t="shared" si="55"/>
+        <v>0</v>
+      </c>
+      <c r="AF62" s="4">
+        <f t="shared" si="56"/>
+        <v>300</v>
+      </c>
+      <c r="AG62" s="9">
+        <f t="shared" si="57"/>
+        <v>0.16600000000000015</v>
+      </c>
+      <c r="AH62" s="9">
+        <f t="shared" si="58"/>
+        <v>0.16600000000000015</v>
+      </c>
       <c r="AI62" s="4"/>
       <c r="AJ62" s="4"/>
       <c r="AK62" s="4"/>
     </row>
     <row r="63" spans="2:38" x14ac:dyDescent="0.3">
       <c r="B63" s="4">
-        <f t="shared" si="8"/>
+        <f t="shared" si="59"/>
         <v>6500</v>
       </c>
-      <c r="C63" s="4"/>
-      <c r="D63" s="4"/>
-      <c r="E63" s="9"/>
+      <c r="C63" s="4">
+        <f t="shared" si="46"/>
+        <v>1500</v>
+      </c>
+      <c r="D63" s="4">
+        <f t="shared" si="47"/>
+        <v>300</v>
+      </c>
+      <c r="E63" s="9">
+        <f t="shared" si="48"/>
+        <v>3.7735849056603765E-2</v>
+      </c>
       <c r="F63" s="4"/>
       <c r="G63" s="4"/>
       <c r="H63" s="4"/>
       <c r="I63" s="4"/>
       <c r="K63" s="4">
-        <f t="shared" si="9"/>
+        <f t="shared" si="60"/>
         <v>6500</v>
       </c>
-      <c r="L63" s="4"/>
-      <c r="M63" s="4"/>
-      <c r="N63" s="9"/>
+      <c r="L63" s="4">
+        <f t="shared" si="49"/>
+        <v>0</v>
+      </c>
+      <c r="M63" s="4">
+        <f t="shared" si="50"/>
+        <v>200</v>
+      </c>
+      <c r="N63" s="9">
+        <f t="shared" si="63"/>
+        <v>0.28750000000000009</v>
+      </c>
       <c r="T63" s="4">
-        <f t="shared" si="10"/>
+        <f t="shared" si="61"/>
         <v>6500</v>
       </c>
-      <c r="U63" s="4"/>
-      <c r="V63" s="4"/>
-      <c r="W63" s="9"/>
-      <c r="X63" s="9"/>
+      <c r="U63" s="4">
+        <f t="shared" si="51"/>
+        <v>1500</v>
+      </c>
+      <c r="V63" s="4">
+        <f t="shared" si="52"/>
+        <v>300</v>
+      </c>
+      <c r="W63" s="9">
+        <f t="shared" si="53"/>
+        <v>-0.1601538461538462</v>
+      </c>
+      <c r="X63" s="9">
+        <f t="shared" si="54"/>
+        <v>9.1800000000000104E-2</v>
+      </c>
       <c r="Y63" s="4"/>
       <c r="Z63" s="4"/>
       <c r="AA63" s="4"/>
       <c r="AD63" s="4">
-        <f t="shared" si="11"/>
+        <f t="shared" si="62"/>
         <v>6500</v>
       </c>
-      <c r="AE63" s="4"/>
-      <c r="AF63" s="4"/>
-      <c r="AG63" s="9"/>
-      <c r="AH63" s="9"/>
+      <c r="AE63" s="4">
+        <f t="shared" si="55"/>
+        <v>0</v>
+      </c>
+      <c r="AF63" s="4">
+        <f t="shared" si="56"/>
+        <v>300</v>
+      </c>
+      <c r="AG63" s="9">
+        <f t="shared" si="57"/>
+        <v>0.16600000000000015</v>
+      </c>
+      <c r="AH63" s="9">
+        <f t="shared" si="58"/>
+        <v>0.16600000000000015</v>
+      </c>
       <c r="AI63" s="4"/>
       <c r="AJ63" s="4"/>
       <c r="AK63" s="4"/>
@@ -25311,28 +28636,28 @@
       <c r="L66" s="4"/>
     </row>
     <row r="67" spans="2:16" s="8" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B67" s="15" t="s">
+      <c r="B67" s="16" t="s">
         <v>51</v>
       </c>
-      <c r="C67" s="15"/>
-      <c r="D67" s="15"/>
-      <c r="E67" s="15"/>
-      <c r="F67" s="15" t="s">
+      <c r="C67" s="16"/>
+      <c r="D67" s="16"/>
+      <c r="E67" s="16"/>
+      <c r="F67" s="16" t="s">
         <v>19</v>
       </c>
-      <c r="G67" s="15"/>
-      <c r="H67" s="15"/>
-      <c r="J67" s="15" t="s">
+      <c r="G67" s="16"/>
+      <c r="H67" s="16"/>
+      <c r="J67" s="16" t="s">
         <v>52</v>
       </c>
-      <c r="K67" s="15"/>
-      <c r="L67" s="15"/>
-      <c r="M67" s="15"/>
-      <c r="N67" s="15" t="s">
+      <c r="K67" s="16"/>
+      <c r="L67" s="16"/>
+      <c r="M67" s="16"/>
+      <c r="N67" s="16" t="s">
         <v>19</v>
       </c>
-      <c r="O67" s="15"/>
-      <c r="P67" s="15"/>
+      <c r="O67" s="16"/>
+      <c r="P67" s="16"/>
     </row>
     <row r="68" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B68" s="6" t="s">
@@ -25360,10 +28685,10 @@
         <v>9</v>
       </c>
       <c r="K68" s="6" t="s">
-        <v>53</v>
+        <v>73</v>
       </c>
       <c r="L68" s="6" t="s">
-        <v>54</v>
+        <v>74</v>
       </c>
       <c r="M68" s="6" t="s">
         <v>24</v>
@@ -25382,9 +28707,18 @@
       <c r="B69" s="4">
         <v>3500</v>
       </c>
-      <c r="C69" s="4"/>
-      <c r="D69" s="4"/>
-      <c r="E69" s="9"/>
+      <c r="C69" s="4">
+        <f>MAX(B69-$G$69,)</f>
+        <v>0</v>
+      </c>
+      <c r="D69" s="4">
+        <f>MAX(B69-$G$70,)</f>
+        <v>0</v>
+      </c>
+      <c r="E69" s="9">
+        <f>(((5000-($H$69-$H$70))*(1+$G$74))+C69-D69)/$F$74-1</f>
+        <v>7.8000000000000069E-2</v>
+      </c>
       <c r="F69" s="1" t="s">
         <v>21</v>
       </c>
@@ -25398,9 +28732,18 @@
         <f>B69</f>
         <v>3500</v>
       </c>
-      <c r="K69" s="4"/>
-      <c r="L69" s="4"/>
-      <c r="M69" s="9"/>
+      <c r="K69" s="4">
+        <f>MAX($O$69-J69,0)</f>
+        <v>1800</v>
+      </c>
+      <c r="L69" s="4">
+        <f>MAX($O$70-J69,0)</f>
+        <v>1500</v>
+      </c>
+      <c r="M69" s="9">
+        <f>((($N$74-$P$69+$P$70)*(1+$O$74))+K69-L69)/$N$74-1</f>
+        <v>0.1160000000000001</v>
+      </c>
       <c r="N69" s="1" t="s">
         <v>22</v>
       </c>
@@ -25416,9 +28759,18 @@
         <f>B69+200</f>
         <v>3700</v>
       </c>
-      <c r="C70" s="4"/>
-      <c r="D70" s="4"/>
-      <c r="E70" s="9"/>
+      <c r="C70" s="4">
+        <f t="shared" ref="C70:C84" si="64">MAX(B70-$G$69,)</f>
+        <v>0</v>
+      </c>
+      <c r="D70" s="4">
+        <f t="shared" ref="D70:D84" si="65">MAX(B70-$G$70,)</f>
+        <v>0</v>
+      </c>
+      <c r="E70" s="9">
+        <f t="shared" ref="E70:E84" si="66">(((5000-($H$69-$H$70))*(1+$G$74))+C70-D70)/$F$74-1</f>
+        <v>7.8000000000000069E-2</v>
+      </c>
       <c r="F70" s="1" t="s">
         <v>25</v>
       </c>
@@ -25432,9 +28784,18 @@
         <f>J69+200</f>
         <v>3700</v>
       </c>
-      <c r="K70" s="4"/>
-      <c r="L70" s="4"/>
-      <c r="M70" s="9"/>
+      <c r="K70" s="4">
+        <f t="shared" ref="K70:K84" si="67">MAX($O$69-J70,0)</f>
+        <v>1600</v>
+      </c>
+      <c r="L70" s="4">
+        <f t="shared" ref="L70:L84" si="68">MAX($O$70-J70,0)</f>
+        <v>1300</v>
+      </c>
+      <c r="M70" s="9">
+        <f t="shared" ref="M70:M84" si="69">((($N$74-$P$69+$P$70)*(1+$O$74))+K70-L70)/$N$74-1</f>
+        <v>0.1160000000000001</v>
+      </c>
       <c r="N70" s="1" t="s">
         <v>26</v>
       </c>
@@ -25447,60 +28808,105 @@
     </row>
     <row r="71" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B71" s="4">
-        <f t="shared" ref="B71:B84" si="12">B70+200</f>
+        <f t="shared" ref="B71:B84" si="70">B70+200</f>
         <v>3900</v>
       </c>
-      <c r="C71" s="4"/>
-      <c r="D71" s="4"/>
-      <c r="E71" s="9"/>
+      <c r="C71" s="4">
+        <f t="shared" si="64"/>
+        <v>0</v>
+      </c>
+      <c r="D71" s="4">
+        <f t="shared" si="65"/>
+        <v>0</v>
+      </c>
+      <c r="E71" s="9">
+        <f t="shared" si="66"/>
+        <v>7.8000000000000069E-2</v>
+      </c>
       <c r="F71" s="12"/>
       <c r="G71" s="12"/>
       <c r="H71" s="4"/>
       <c r="J71" s="4">
-        <f t="shared" ref="J71:J84" si="13">J70+200</f>
+        <f t="shared" ref="J71:J84" si="71">J70+200</f>
         <v>3900</v>
       </c>
-      <c r="K71" s="4"/>
-      <c r="L71" s="4"/>
-      <c r="M71" s="9"/>
+      <c r="K71" s="4">
+        <f t="shared" si="67"/>
+        <v>1400</v>
+      </c>
+      <c r="L71" s="4">
+        <f t="shared" si="68"/>
+        <v>1100</v>
+      </c>
+      <c r="M71" s="9">
+        <f t="shared" si="69"/>
+        <v>0.1160000000000001</v>
+      </c>
       <c r="N71" s="12"/>
       <c r="O71" s="12"/>
       <c r="P71" s="4"/>
     </row>
     <row r="72" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B72" s="4">
-        <f t="shared" si="12"/>
+        <f t="shared" si="70"/>
         <v>4100</v>
       </c>
-      <c r="C72" s="4"/>
-      <c r="D72" s="4"/>
-      <c r="E72" s="9"/>
-      <c r="F72" s="15" t="s">
+      <c r="C72" s="4">
+        <f t="shared" si="64"/>
+        <v>0</v>
+      </c>
+      <c r="D72" s="4">
+        <f t="shared" si="65"/>
+        <v>0</v>
+      </c>
+      <c r="E72" s="9">
+        <f t="shared" si="66"/>
+        <v>7.8000000000000069E-2</v>
+      </c>
+      <c r="F72" s="16" t="s">
         <v>47</v>
       </c>
-      <c r="G72" s="15"/>
-      <c r="H72" s="15"/>
+      <c r="G72" s="16"/>
+      <c r="H72" s="16"/>
       <c r="J72" s="4">
-        <f t="shared" si="13"/>
+        <f t="shared" si="71"/>
         <v>4100</v>
       </c>
-      <c r="K72" s="4"/>
-      <c r="L72" s="4"/>
-      <c r="M72" s="9"/>
-      <c r="N72" s="15" t="s">
+      <c r="K72" s="4">
+        <f t="shared" si="67"/>
+        <v>1200</v>
+      </c>
+      <c r="L72" s="4">
+        <f t="shared" si="68"/>
+        <v>900</v>
+      </c>
+      <c r="M72" s="9">
+        <f t="shared" si="69"/>
+        <v>0.1160000000000001</v>
+      </c>
+      <c r="N72" s="16" t="s">
         <v>47</v>
       </c>
-      <c r="O72" s="15"/>
-      <c r="P72" s="15"/>
+      <c r="O72" s="16"/>
+      <c r="P72" s="16"/>
     </row>
     <row r="73" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B73" s="4">
-        <f t="shared" si="12"/>
+        <f t="shared" si="70"/>
         <v>4300</v>
       </c>
-      <c r="C73" s="4"/>
-      <c r="D73" s="4"/>
-      <c r="E73" s="9"/>
+      <c r="C73" s="4">
+        <f t="shared" si="64"/>
+        <v>0</v>
+      </c>
+      <c r="D73" s="4">
+        <f t="shared" si="65"/>
+        <v>0</v>
+      </c>
+      <c r="E73" s="9">
+        <f t="shared" si="66"/>
+        <v>7.8000000000000069E-2</v>
+      </c>
       <c r="F73" s="6" t="s">
         <v>49</v>
       </c>
@@ -25511,12 +28917,21 @@
         <v>6</v>
       </c>
       <c r="J73" s="4">
-        <f t="shared" si="13"/>
+        <f t="shared" si="71"/>
         <v>4300</v>
       </c>
-      <c r="K73" s="4"/>
-      <c r="L73" s="4"/>
-      <c r="M73" s="9"/>
+      <c r="K73" s="4">
+        <f t="shared" si="67"/>
+        <v>1000</v>
+      </c>
+      <c r="L73" s="4">
+        <f t="shared" si="68"/>
+        <v>700</v>
+      </c>
+      <c r="M73" s="9">
+        <f t="shared" si="69"/>
+        <v>0.1160000000000001</v>
+      </c>
       <c r="N73" s="6" t="s">
         <v>49</v>
       </c>
@@ -25529,12 +28944,21 @@
     </row>
     <row r="74" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B74" s="4">
-        <f t="shared" si="12"/>
+        <f t="shared" si="70"/>
         <v>4500</v>
       </c>
-      <c r="C74" s="4"/>
-      <c r="D74" s="4"/>
-      <c r="E74" s="9"/>
+      <c r="C74" s="4">
+        <f t="shared" si="64"/>
+        <v>0</v>
+      </c>
+      <c r="D74" s="4">
+        <f t="shared" si="65"/>
+        <v>0</v>
+      </c>
+      <c r="E74" s="9">
+        <f t="shared" si="66"/>
+        <v>7.8000000000000069E-2</v>
+      </c>
       <c r="F74" s="4">
         <v>5000</v>
       </c>
@@ -25545,12 +28969,21 @@
         <v>5</v>
       </c>
       <c r="J74" s="4">
-        <f t="shared" si="13"/>
+        <f t="shared" si="71"/>
         <v>4500</v>
       </c>
-      <c r="K74" s="4"/>
-      <c r="L74" s="4"/>
-      <c r="M74" s="9"/>
+      <c r="K74" s="4">
+        <f t="shared" si="67"/>
+        <v>800</v>
+      </c>
+      <c r="L74" s="4">
+        <f t="shared" si="68"/>
+        <v>500</v>
+      </c>
+      <c r="M74" s="9">
+        <f t="shared" si="69"/>
+        <v>0.1160000000000001</v>
+      </c>
       <c r="N74" s="4">
         <v>5000</v>
       </c>
@@ -25563,193 +28996,373 @@
     </row>
     <row r="75" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B75" s="4">
-        <f t="shared" si="12"/>
+        <f t="shared" si="70"/>
         <v>4700</v>
       </c>
-      <c r="C75" s="4"/>
-      <c r="D75" s="4"/>
-      <c r="E75" s="9"/>
+      <c r="C75" s="4">
+        <f t="shared" si="64"/>
+        <v>0</v>
+      </c>
+      <c r="D75" s="4">
+        <f t="shared" si="65"/>
+        <v>0</v>
+      </c>
+      <c r="E75" s="9">
+        <f t="shared" si="66"/>
+        <v>7.8000000000000069E-2</v>
+      </c>
       <c r="F75" s="4"/>
       <c r="G75" s="4"/>
       <c r="H75" s="4"/>
       <c r="J75" s="4">
-        <f t="shared" si="13"/>
+        <f t="shared" si="71"/>
         <v>4700</v>
       </c>
-      <c r="K75" s="4"/>
-      <c r="L75" s="4"/>
-      <c r="M75" s="9"/>
+      <c r="K75" s="4">
+        <f t="shared" si="67"/>
+        <v>600</v>
+      </c>
+      <c r="L75" s="4">
+        <f t="shared" si="68"/>
+        <v>300</v>
+      </c>
+      <c r="M75" s="9">
+        <f t="shared" si="69"/>
+        <v>0.1160000000000001</v>
+      </c>
     </row>
     <row r="76" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B76" s="4">
-        <f t="shared" si="12"/>
+        <f t="shared" si="70"/>
         <v>4900</v>
       </c>
-      <c r="C76" s="4"/>
-      <c r="D76" s="4"/>
-      <c r="E76" s="9"/>
+      <c r="C76" s="4">
+        <f t="shared" si="64"/>
+        <v>0</v>
+      </c>
+      <c r="D76" s="4">
+        <f t="shared" si="65"/>
+        <v>0</v>
+      </c>
+      <c r="E76" s="9">
+        <f t="shared" si="66"/>
+        <v>7.8000000000000069E-2</v>
+      </c>
       <c r="F76" s="4"/>
       <c r="G76" s="4"/>
       <c r="H76" s="4"/>
       <c r="J76" s="4">
-        <f t="shared" si="13"/>
+        <f t="shared" si="71"/>
         <v>4900</v>
       </c>
-      <c r="K76" s="4"/>
-      <c r="L76" s="4"/>
-      <c r="M76" s="9"/>
+      <c r="K76" s="4">
+        <f t="shared" si="67"/>
+        <v>400</v>
+      </c>
+      <c r="L76" s="4">
+        <f t="shared" si="68"/>
+        <v>100</v>
+      </c>
+      <c r="M76" s="9">
+        <f t="shared" si="69"/>
+        <v>0.1160000000000001</v>
+      </c>
     </row>
     <row r="77" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B77" s="4">
-        <f t="shared" si="12"/>
+        <f t="shared" si="70"/>
         <v>5100</v>
       </c>
-      <c r="C77" s="4"/>
-      <c r="D77" s="4"/>
-      <c r="E77" s="9"/>
+      <c r="C77" s="4">
+        <f t="shared" si="64"/>
+        <v>100</v>
+      </c>
+      <c r="D77" s="4">
+        <f t="shared" si="65"/>
+        <v>0</v>
+      </c>
+      <c r="E77" s="9">
+        <f t="shared" si="66"/>
+        <v>9.8000000000000087E-2</v>
+      </c>
       <c r="F77" s="4"/>
       <c r="G77" s="4"/>
       <c r="H77" s="4"/>
       <c r="J77" s="4">
-        <f t="shared" si="13"/>
+        <f t="shared" si="71"/>
         <v>5100</v>
       </c>
-      <c r="K77" s="4"/>
-      <c r="L77" s="4"/>
-      <c r="M77" s="9"/>
+      <c r="K77" s="4">
+        <f t="shared" si="67"/>
+        <v>200</v>
+      </c>
+      <c r="L77" s="4">
+        <f t="shared" si="68"/>
+        <v>0</v>
+      </c>
+      <c r="M77" s="9">
+        <f t="shared" si="69"/>
+        <v>9.6000000000000085E-2</v>
+      </c>
     </row>
     <row r="78" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B78" s="4">
-        <f t="shared" si="12"/>
+        <f t="shared" si="70"/>
         <v>5300</v>
       </c>
-      <c r="C78" s="4"/>
-      <c r="D78" s="4"/>
-      <c r="E78" s="9"/>
+      <c r="C78" s="4">
+        <f t="shared" si="64"/>
+        <v>300</v>
+      </c>
+      <c r="D78" s="4">
+        <f t="shared" si="65"/>
+        <v>0</v>
+      </c>
+      <c r="E78" s="9">
+        <f t="shared" si="66"/>
+        <v>0.1379999999999999</v>
+      </c>
       <c r="F78" s="4"/>
       <c r="G78" s="4"/>
       <c r="H78" s="4"/>
       <c r="J78" s="4">
-        <f t="shared" si="13"/>
+        <f t="shared" si="71"/>
         <v>5300</v>
       </c>
-      <c r="K78" s="4"/>
-      <c r="L78" s="4"/>
-      <c r="M78" s="9"/>
+      <c r="K78" s="4">
+        <f t="shared" si="67"/>
+        <v>0</v>
+      </c>
+      <c r="L78" s="4">
+        <f t="shared" si="68"/>
+        <v>0</v>
+      </c>
+      <c r="M78" s="9">
+        <f t="shared" si="69"/>
+        <v>5.600000000000005E-2</v>
+      </c>
     </row>
     <row r="79" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B79" s="4">
-        <f t="shared" si="12"/>
+        <f t="shared" si="70"/>
         <v>5500</v>
       </c>
-      <c r="C79" s="4"/>
-      <c r="D79" s="4"/>
-      <c r="E79" s="9"/>
+      <c r="C79" s="4">
+        <f t="shared" si="64"/>
+        <v>500</v>
+      </c>
+      <c r="D79" s="4">
+        <f t="shared" si="65"/>
+        <v>200</v>
+      </c>
+      <c r="E79" s="9">
+        <f t="shared" si="66"/>
+        <v>0.1379999999999999</v>
+      </c>
       <c r="F79" s="4"/>
       <c r="G79" s="4"/>
       <c r="H79" s="4"/>
       <c r="J79" s="4">
-        <f t="shared" si="13"/>
+        <f t="shared" si="71"/>
         <v>5500</v>
       </c>
-      <c r="K79" s="4"/>
-      <c r="L79" s="4"/>
-      <c r="M79" s="9"/>
+      <c r="K79" s="4">
+        <f t="shared" si="67"/>
+        <v>0</v>
+      </c>
+      <c r="L79" s="4">
+        <f t="shared" si="68"/>
+        <v>0</v>
+      </c>
+      <c r="M79" s="9">
+        <f t="shared" si="69"/>
+        <v>5.600000000000005E-2</v>
+      </c>
     </row>
     <row r="80" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B80" s="4">
-        <f t="shared" si="12"/>
+        <f t="shared" si="70"/>
         <v>5700</v>
       </c>
-      <c r="C80" s="4"/>
-      <c r="D80" s="4"/>
-      <c r="E80" s="9"/>
+      <c r="C80" s="4">
+        <f t="shared" si="64"/>
+        <v>700</v>
+      </c>
+      <c r="D80" s="4">
+        <f t="shared" si="65"/>
+        <v>400</v>
+      </c>
+      <c r="E80" s="9">
+        <f t="shared" si="66"/>
+        <v>0.1379999999999999</v>
+      </c>
       <c r="F80" s="4"/>
       <c r="G80" s="4"/>
       <c r="H80" s="4"/>
       <c r="J80" s="4">
-        <f t="shared" si="13"/>
+        <f t="shared" si="71"/>
         <v>5700</v>
       </c>
-      <c r="K80" s="4"/>
-      <c r="L80" s="4"/>
-      <c r="M80" s="9"/>
+      <c r="K80" s="4">
+        <f t="shared" si="67"/>
+        <v>0</v>
+      </c>
+      <c r="L80" s="4">
+        <f t="shared" si="68"/>
+        <v>0</v>
+      </c>
+      <c r="M80" s="9">
+        <f t="shared" si="69"/>
+        <v>5.600000000000005E-2</v>
+      </c>
     </row>
     <row r="81" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B81" s="4">
-        <f t="shared" si="12"/>
+        <f t="shared" si="70"/>
         <v>5900</v>
       </c>
-      <c r="C81" s="4"/>
-      <c r="D81" s="4"/>
-      <c r="E81" s="9"/>
+      <c r="C81" s="4">
+        <f t="shared" si="64"/>
+        <v>900</v>
+      </c>
+      <c r="D81" s="4">
+        <f t="shared" si="65"/>
+        <v>600</v>
+      </c>
+      <c r="E81" s="9">
+        <f t="shared" si="66"/>
+        <v>0.1379999999999999</v>
+      </c>
       <c r="F81" s="4"/>
       <c r="G81" s="4"/>
       <c r="H81" s="4"/>
       <c r="J81" s="4">
-        <f t="shared" si="13"/>
+        <f t="shared" si="71"/>
         <v>5900</v>
       </c>
-      <c r="K81" s="4"/>
-      <c r="L81" s="4"/>
-      <c r="M81" s="9"/>
+      <c r="K81" s="4">
+        <f t="shared" si="67"/>
+        <v>0</v>
+      </c>
+      <c r="L81" s="4">
+        <f t="shared" si="68"/>
+        <v>0</v>
+      </c>
+      <c r="M81" s="9">
+        <f t="shared" si="69"/>
+        <v>5.600000000000005E-2</v>
+      </c>
     </row>
     <row r="82" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B82" s="4">
-        <f t="shared" si="12"/>
+        <f t="shared" si="70"/>
         <v>6100</v>
       </c>
-      <c r="C82" s="4"/>
-      <c r="D82" s="4"/>
-      <c r="E82" s="9"/>
+      <c r="C82" s="4">
+        <f t="shared" si="64"/>
+        <v>1100</v>
+      </c>
+      <c r="D82" s="4">
+        <f t="shared" si="65"/>
+        <v>800</v>
+      </c>
+      <c r="E82" s="9">
+        <f t="shared" si="66"/>
+        <v>0.1379999999999999</v>
+      </c>
       <c r="F82" s="4"/>
       <c r="G82" s="4"/>
       <c r="H82" s="4"/>
       <c r="J82" s="4">
-        <f t="shared" si="13"/>
+        <f t="shared" si="71"/>
         <v>6100</v>
       </c>
-      <c r="K82" s="4"/>
-      <c r="L82" s="4"/>
-      <c r="M82" s="9"/>
+      <c r="K82" s="4">
+        <f t="shared" si="67"/>
+        <v>0</v>
+      </c>
+      <c r="L82" s="4">
+        <f t="shared" si="68"/>
+        <v>0</v>
+      </c>
+      <c r="M82" s="9">
+        <f t="shared" si="69"/>
+        <v>5.600000000000005E-2</v>
+      </c>
     </row>
     <row r="83" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B83" s="4">
-        <f t="shared" si="12"/>
+        <f t="shared" si="70"/>
         <v>6300</v>
       </c>
-      <c r="C83" s="4"/>
-      <c r="D83" s="4"/>
-      <c r="E83" s="9"/>
+      <c r="C83" s="4">
+        <f t="shared" si="64"/>
+        <v>1300</v>
+      </c>
+      <c r="D83" s="4">
+        <f t="shared" si="65"/>
+        <v>1000</v>
+      </c>
+      <c r="E83" s="9">
+        <f t="shared" si="66"/>
+        <v>0.1379999999999999</v>
+      </c>
       <c r="F83" s="4"/>
       <c r="G83" s="4"/>
       <c r="H83" s="4"/>
       <c r="J83" s="4">
-        <f t="shared" si="13"/>
+        <f t="shared" si="71"/>
         <v>6300</v>
       </c>
-      <c r="K83" s="4"/>
-      <c r="L83" s="4"/>
-      <c r="M83" s="9"/>
+      <c r="K83" s="4">
+        <f t="shared" si="67"/>
+        <v>0</v>
+      </c>
+      <c r="L83" s="4">
+        <f t="shared" si="68"/>
+        <v>0</v>
+      </c>
+      <c r="M83" s="9">
+        <f t="shared" si="69"/>
+        <v>5.600000000000005E-2</v>
+      </c>
     </row>
     <row r="84" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B84" s="4">
-        <f t="shared" si="12"/>
+        <f t="shared" si="70"/>
         <v>6500</v>
       </c>
-      <c r="C84" s="4"/>
-      <c r="D84" s="4"/>
-      <c r="E84" s="9"/>
+      <c r="C84" s="4">
+        <f t="shared" si="64"/>
+        <v>1500</v>
+      </c>
+      <c r="D84" s="4">
+        <f t="shared" si="65"/>
+        <v>1200</v>
+      </c>
+      <c r="E84" s="9">
+        <f t="shared" si="66"/>
+        <v>0.1379999999999999</v>
+      </c>
       <c r="F84" s="4"/>
       <c r="G84" s="4"/>
       <c r="H84" s="4"/>
       <c r="J84" s="4">
-        <f t="shared" si="13"/>
+        <f t="shared" si="71"/>
         <v>6500</v>
       </c>
-      <c r="K84" s="4"/>
-      <c r="L84" s="4"/>
-      <c r="M84" s="9"/>
+      <c r="K84" s="4">
+        <f t="shared" si="67"/>
+        <v>0</v>
+      </c>
+      <c r="L84" s="4">
+        <f t="shared" si="68"/>
+        <v>0</v>
+      </c>
+      <c r="M84" s="9">
+        <f t="shared" si="69"/>
+        <v>5.600000000000005E-2</v>
+      </c>
     </row>
     <row r="85" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B85" s="4"/>
@@ -25770,48 +29383,48 @@
       </c>
     </row>
     <row r="88" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B88" s="16" t="s">
+      <c r="B88" s="17" t="s">
         <v>55</v>
       </c>
-      <c r="C88" s="16"/>
-      <c r="D88" s="16"/>
-      <c r="E88" s="16"/>
-      <c r="F88" s="16"/>
-      <c r="G88" s="16"/>
-      <c r="H88" s="16"/>
+      <c r="C88" s="17"/>
+      <c r="D88" s="17"/>
+      <c r="E88" s="17"/>
+      <c r="F88" s="17"/>
+      <c r="G88" s="17"/>
+      <c r="H88" s="17"/>
     </row>
     <row r="89" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B89" s="17" t="s">
+      <c r="B89" s="18" t="s">
         <v>9</v>
       </c>
-      <c r="C89" s="19" t="s">
+      <c r="C89" s="20" t="s">
         <v>21</v>
       </c>
-      <c r="D89" s="19"/>
-      <c r="E89" s="19" t="s">
+      <c r="D89" s="20"/>
+      <c r="E89" s="20" t="s">
         <v>22</v>
       </c>
-      <c r="F89" s="19"/>
-      <c r="G89" s="20" t="s">
+      <c r="F89" s="20"/>
+      <c r="G89" s="21" t="s">
         <v>56</v>
       </c>
-      <c r="H89" s="17" t="s">
+      <c r="H89" s="18" t="s">
         <v>24</v>
       </c>
       <c r="I89" s="8"/>
-      <c r="J89" s="15" t="s">
+      <c r="J89" s="16" t="s">
         <v>57</v>
       </c>
-      <c r="K89" s="15"/>
-      <c r="L89" s="15"/>
-      <c r="N89" s="15" t="s">
+      <c r="K89" s="16"/>
+      <c r="L89" s="16"/>
+      <c r="N89" s="16" t="s">
         <v>58</v>
       </c>
-      <c r="O89" s="15"/>
-      <c r="P89" s="15"/>
+      <c r="O89" s="16"/>
+      <c r="P89" s="16"/>
     </row>
     <row r="90" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B90" s="18"/>
+      <c r="B90" s="19"/>
       <c r="C90" s="6" t="s">
         <v>12</v>
       </c>
@@ -25824,8 +29437,8 @@
       <c r="F90" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="G90" s="21"/>
-      <c r="H90" s="18"/>
+      <c r="G90" s="22"/>
+      <c r="H90" s="19"/>
       <c r="J90" s="6" t="s">
         <v>8</v>
       </c>
@@ -25849,11 +29462,30 @@
       <c r="B91" s="4">
         <v>4200</v>
       </c>
-      <c r="C91" s="4"/>
-      <c r="D91" s="4"/>
-      <c r="E91" s="4"/>
-      <c r="G91" s="4"/>
-      <c r="H91" s="9"/>
+      <c r="C91" s="4">
+        <f>MAX(B91-$K$91,0)</f>
+        <v>0</v>
+      </c>
+      <c r="D91" s="4">
+        <f>$L$91</f>
+        <v>200</v>
+      </c>
+      <c r="E91" s="4">
+        <f>MAX($K$91-B91,0)</f>
+        <v>800</v>
+      </c>
+      <c r="F91" s="1">
+        <f>$L$92</f>
+        <v>100</v>
+      </c>
+      <c r="G91" s="4">
+        <f>C91+E91</f>
+        <v>800</v>
+      </c>
+      <c r="H91" s="9">
+        <f>((($N$91-(F91+D91))*(1+$O$91))+G91)/$N$91-1</f>
+        <v>0.15640000000000009</v>
+      </c>
       <c r="J91" s="1" t="s">
         <v>21</v>
       </c>
@@ -25867,7 +29499,7 @@
         <v>5000</v>
       </c>
       <c r="O91" s="11">
-        <v>0.05</v>
+        <v>0.06</v>
       </c>
       <c r="P91" s="4" t="s">
         <v>5</v>
@@ -25878,11 +29510,30 @@
         <f>B91+100</f>
         <v>4300</v>
       </c>
-      <c r="C92" s="4"/>
-      <c r="D92" s="4"/>
-      <c r="E92" s="4"/>
-      <c r="G92" s="4"/>
-      <c r="H92" s="9"/>
+      <c r="C92" s="4">
+        <f t="shared" ref="C92:C106" si="72">MAX(B92-$K$91,0)</f>
+        <v>0</v>
+      </c>
+      <c r="D92" s="4">
+        <f t="shared" ref="D92:D106" si="73">$L$91</f>
+        <v>200</v>
+      </c>
+      <c r="E92" s="4">
+        <f t="shared" ref="E92:E106" si="74">MAX($K$91-B92,0)</f>
+        <v>700</v>
+      </c>
+      <c r="F92" s="1">
+        <f t="shared" ref="F92:F106" si="75">$L$92</f>
+        <v>100</v>
+      </c>
+      <c r="G92" s="4">
+        <f t="shared" ref="G92:G106" si="76">C92+E92</f>
+        <v>700</v>
+      </c>
+      <c r="H92" s="9">
+        <f t="shared" ref="H92:H106" si="77">((($N$91-(F92+D92))*(1+$O$91))+G92)/$N$91-1</f>
+        <v>0.13640000000000008</v>
+      </c>
       <c r="J92" s="1" t="s">
         <v>22</v>
       </c>
@@ -25896,157 +29547,423 @@
     </row>
     <row r="93" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B93" s="4">
-        <f t="shared" ref="B93:B106" si="14">B92+100</f>
+        <f t="shared" ref="B93:B106" si="78">B92+100</f>
         <v>4400</v>
       </c>
-      <c r="C93" s="4"/>
-      <c r="D93" s="4"/>
-      <c r="E93" s="4"/>
-      <c r="G93" s="4"/>
-      <c r="H93" s="9"/>
+      <c r="C93" s="4">
+        <f t="shared" si="72"/>
+        <v>0</v>
+      </c>
+      <c r="D93" s="4">
+        <f t="shared" si="73"/>
+        <v>200</v>
+      </c>
+      <c r="E93" s="4">
+        <f t="shared" si="74"/>
+        <v>600</v>
+      </c>
+      <c r="F93" s="1">
+        <f t="shared" si="75"/>
+        <v>100</v>
+      </c>
+      <c r="G93" s="4">
+        <f t="shared" si="76"/>
+        <v>600</v>
+      </c>
+      <c r="H93" s="9">
+        <f t="shared" si="77"/>
+        <v>0.11640000000000006</v>
+      </c>
     </row>
     <row r="94" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B94" s="4">
-        <f t="shared" si="14"/>
+        <f t="shared" si="78"/>
         <v>4500</v>
       </c>
-      <c r="C94" s="4"/>
-      <c r="D94" s="4"/>
-      <c r="E94" s="4"/>
-      <c r="G94" s="4"/>
-      <c r="H94" s="9"/>
+      <c r="C94" s="4">
+        <f t="shared" si="72"/>
+        <v>0</v>
+      </c>
+      <c r="D94" s="4">
+        <f t="shared" si="73"/>
+        <v>200</v>
+      </c>
+      <c r="E94" s="4">
+        <f t="shared" si="74"/>
+        <v>500</v>
+      </c>
+      <c r="F94" s="1">
+        <f t="shared" si="75"/>
+        <v>100</v>
+      </c>
+      <c r="G94" s="4">
+        <f t="shared" si="76"/>
+        <v>500</v>
+      </c>
+      <c r="H94" s="9">
+        <f t="shared" si="77"/>
+        <v>9.6400000000000041E-2</v>
+      </c>
     </row>
     <row r="95" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B95" s="4">
-        <f t="shared" si="14"/>
+        <f t="shared" si="78"/>
         <v>4600</v>
       </c>
-      <c r="C95" s="4"/>
-      <c r="D95" s="4"/>
-      <c r="E95" s="4"/>
-      <c r="G95" s="4"/>
-      <c r="H95" s="9"/>
+      <c r="C95" s="4">
+        <f t="shared" si="72"/>
+        <v>0</v>
+      </c>
+      <c r="D95" s="4">
+        <f t="shared" si="73"/>
+        <v>200</v>
+      </c>
+      <c r="E95" s="4">
+        <f t="shared" si="74"/>
+        <v>400</v>
+      </c>
+      <c r="F95" s="1">
+        <f t="shared" si="75"/>
+        <v>100</v>
+      </c>
+      <c r="G95" s="4">
+        <f t="shared" si="76"/>
+        <v>400</v>
+      </c>
+      <c r="H95" s="9">
+        <f t="shared" si="77"/>
+        <v>7.6400000000000023E-2</v>
+      </c>
     </row>
     <row r="96" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B96" s="4">
-        <f t="shared" si="14"/>
+        <f t="shared" si="78"/>
         <v>4700</v>
       </c>
-      <c r="C96" s="4"/>
-      <c r="D96" s="4"/>
-      <c r="E96" s="4"/>
-      <c r="G96" s="4"/>
-      <c r="H96" s="9"/>
+      <c r="C96" s="4">
+        <f t="shared" si="72"/>
+        <v>0</v>
+      </c>
+      <c r="D96" s="4">
+        <f t="shared" si="73"/>
+        <v>200</v>
+      </c>
+      <c r="E96" s="4">
+        <f t="shared" si="74"/>
+        <v>300</v>
+      </c>
+      <c r="F96" s="1">
+        <f t="shared" si="75"/>
+        <v>100</v>
+      </c>
+      <c r="G96" s="4">
+        <f t="shared" si="76"/>
+        <v>300</v>
+      </c>
+      <c r="H96" s="9">
+        <f t="shared" si="77"/>
+        <v>5.6400000000000006E-2</v>
+      </c>
     </row>
     <row r="97" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B97" s="4">
-        <f t="shared" si="14"/>
+        <f t="shared" si="78"/>
         <v>4800</v>
       </c>
-      <c r="C97" s="4"/>
-      <c r="D97" s="4"/>
-      <c r="E97" s="4"/>
-      <c r="G97" s="4"/>
-      <c r="H97" s="9"/>
+      <c r="C97" s="4">
+        <f t="shared" si="72"/>
+        <v>0</v>
+      </c>
+      <c r="D97" s="4">
+        <f t="shared" si="73"/>
+        <v>200</v>
+      </c>
+      <c r="E97" s="4">
+        <f t="shared" si="74"/>
+        <v>200</v>
+      </c>
+      <c r="F97" s="1">
+        <f t="shared" si="75"/>
+        <v>100</v>
+      </c>
+      <c r="G97" s="4">
+        <f t="shared" si="76"/>
+        <v>200</v>
+      </c>
+      <c r="H97" s="9">
+        <f t="shared" si="77"/>
+        <v>3.6399999999999988E-2</v>
+      </c>
     </row>
     <row r="98" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B98" s="4">
-        <f t="shared" si="14"/>
+        <f t="shared" si="78"/>
         <v>4900</v>
       </c>
-      <c r="C98" s="4"/>
-      <c r="D98" s="4"/>
-      <c r="E98" s="4"/>
-      <c r="G98" s="4"/>
-      <c r="H98" s="9"/>
+      <c r="C98" s="4">
+        <f t="shared" si="72"/>
+        <v>0</v>
+      </c>
+      <c r="D98" s="4">
+        <f t="shared" si="73"/>
+        <v>200</v>
+      </c>
+      <c r="E98" s="4">
+        <f t="shared" si="74"/>
+        <v>100</v>
+      </c>
+      <c r="F98" s="1">
+        <f t="shared" si="75"/>
+        <v>100</v>
+      </c>
+      <c r="G98" s="4">
+        <f t="shared" si="76"/>
+        <v>100</v>
+      </c>
+      <c r="H98" s="9">
+        <f t="shared" si="77"/>
+        <v>1.639999999999997E-2</v>
+      </c>
     </row>
     <row r="99" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B99" s="4">
-        <f t="shared" si="14"/>
+        <f t="shared" si="78"/>
         <v>5000</v>
       </c>
-      <c r="C99" s="4"/>
-      <c r="D99" s="4"/>
-      <c r="E99" s="4"/>
-      <c r="G99" s="4"/>
-      <c r="H99" s="9"/>
+      <c r="C99" s="4">
+        <f t="shared" si="72"/>
+        <v>0</v>
+      </c>
+      <c r="D99" s="4">
+        <f t="shared" si="73"/>
+        <v>200</v>
+      </c>
+      <c r="E99" s="4">
+        <f t="shared" si="74"/>
+        <v>0</v>
+      </c>
+      <c r="F99" s="1">
+        <f t="shared" si="75"/>
+        <v>100</v>
+      </c>
+      <c r="G99" s="4">
+        <f t="shared" si="76"/>
+        <v>0</v>
+      </c>
+      <c r="H99" s="9">
+        <f t="shared" si="77"/>
+        <v>-3.6000000000000476E-3</v>
+      </c>
     </row>
     <row r="100" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B100" s="4">
-        <f t="shared" si="14"/>
+        <f t="shared" si="78"/>
         <v>5100</v>
       </c>
-      <c r="C100" s="4"/>
-      <c r="D100" s="4"/>
-      <c r="E100" s="4"/>
-      <c r="G100" s="4"/>
-      <c r="H100" s="9"/>
+      <c r="C100" s="4">
+        <f t="shared" si="72"/>
+        <v>100</v>
+      </c>
+      <c r="D100" s="4">
+        <f t="shared" si="73"/>
+        <v>200</v>
+      </c>
+      <c r="E100" s="4">
+        <f t="shared" si="74"/>
+        <v>0</v>
+      </c>
+      <c r="F100" s="1">
+        <f t="shared" si="75"/>
+        <v>100</v>
+      </c>
+      <c r="G100" s="4">
+        <f t="shared" si="76"/>
+        <v>100</v>
+      </c>
+      <c r="H100" s="9">
+        <f t="shared" si="77"/>
+        <v>1.639999999999997E-2</v>
+      </c>
     </row>
     <row r="101" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B101" s="4">
-        <f t="shared" si="14"/>
+        <f t="shared" si="78"/>
         <v>5200</v>
       </c>
-      <c r="C101" s="4"/>
-      <c r="D101" s="4"/>
-      <c r="E101" s="4"/>
-      <c r="G101" s="4"/>
-      <c r="H101" s="9"/>
+      <c r="C101" s="4">
+        <f t="shared" si="72"/>
+        <v>200</v>
+      </c>
+      <c r="D101" s="4">
+        <f t="shared" si="73"/>
+        <v>200</v>
+      </c>
+      <c r="E101" s="4">
+        <f t="shared" si="74"/>
+        <v>0</v>
+      </c>
+      <c r="F101" s="1">
+        <f t="shared" si="75"/>
+        <v>100</v>
+      </c>
+      <c r="G101" s="4">
+        <f t="shared" si="76"/>
+        <v>200</v>
+      </c>
+      <c r="H101" s="9">
+        <f t="shared" si="77"/>
+        <v>3.6399999999999988E-2</v>
+      </c>
     </row>
     <row r="102" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B102" s="4">
-        <f t="shared" si="14"/>
+        <f t="shared" si="78"/>
         <v>5300</v>
       </c>
-      <c r="C102" s="4"/>
-      <c r="D102" s="4"/>
-      <c r="E102" s="4"/>
-      <c r="G102" s="4"/>
-      <c r="H102" s="9"/>
+      <c r="C102" s="4">
+        <f t="shared" si="72"/>
+        <v>300</v>
+      </c>
+      <c r="D102" s="4">
+        <f t="shared" si="73"/>
+        <v>200</v>
+      </c>
+      <c r="E102" s="4">
+        <f t="shared" si="74"/>
+        <v>0</v>
+      </c>
+      <c r="F102" s="1">
+        <f t="shared" si="75"/>
+        <v>100</v>
+      </c>
+      <c r="G102" s="4">
+        <f t="shared" si="76"/>
+        <v>300</v>
+      </c>
+      <c r="H102" s="9">
+        <f t="shared" si="77"/>
+        <v>5.6400000000000006E-2</v>
+      </c>
     </row>
     <row r="103" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B103" s="4">
-        <f t="shared" si="14"/>
+        <f t="shared" si="78"/>
         <v>5400</v>
       </c>
-      <c r="C103" s="4"/>
-      <c r="D103" s="4"/>
-      <c r="E103" s="4"/>
-      <c r="G103" s="4"/>
-      <c r="H103" s="9"/>
+      <c r="C103" s="4">
+        <f t="shared" si="72"/>
+        <v>400</v>
+      </c>
+      <c r="D103" s="4">
+        <f t="shared" si="73"/>
+        <v>200</v>
+      </c>
+      <c r="E103" s="4">
+        <f t="shared" si="74"/>
+        <v>0</v>
+      </c>
+      <c r="F103" s="1">
+        <f t="shared" si="75"/>
+        <v>100</v>
+      </c>
+      <c r="G103" s="4">
+        <f t="shared" si="76"/>
+        <v>400</v>
+      </c>
+      <c r="H103" s="9">
+        <f t="shared" si="77"/>
+        <v>7.6400000000000023E-2</v>
+      </c>
     </row>
     <row r="104" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B104" s="4">
-        <f t="shared" si="14"/>
+        <f t="shared" si="78"/>
         <v>5500</v>
       </c>
-      <c r="C104" s="4"/>
-      <c r="D104" s="4"/>
-      <c r="E104" s="4"/>
-      <c r="G104" s="4"/>
-      <c r="H104" s="9"/>
+      <c r="C104" s="4">
+        <f t="shared" si="72"/>
+        <v>500</v>
+      </c>
+      <c r="D104" s="4">
+        <f t="shared" si="73"/>
+        <v>200</v>
+      </c>
+      <c r="E104" s="4">
+        <f t="shared" si="74"/>
+        <v>0</v>
+      </c>
+      <c r="F104" s="1">
+        <f t="shared" si="75"/>
+        <v>100</v>
+      </c>
+      <c r="G104" s="4">
+        <f t="shared" si="76"/>
+        <v>500</v>
+      </c>
+      <c r="H104" s="9">
+        <f t="shared" si="77"/>
+        <v>9.6400000000000041E-2</v>
+      </c>
     </row>
     <row r="105" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B105" s="4">
-        <f t="shared" si="14"/>
+        <f t="shared" si="78"/>
         <v>5600</v>
       </c>
-      <c r="C105" s="4"/>
-      <c r="D105" s="4"/>
-      <c r="E105" s="4"/>
-      <c r="G105" s="4"/>
-      <c r="H105" s="9"/>
+      <c r="C105" s="4">
+        <f t="shared" si="72"/>
+        <v>600</v>
+      </c>
+      <c r="D105" s="4">
+        <f t="shared" si="73"/>
+        <v>200</v>
+      </c>
+      <c r="E105" s="4">
+        <f t="shared" si="74"/>
+        <v>0</v>
+      </c>
+      <c r="F105" s="1">
+        <f t="shared" si="75"/>
+        <v>100</v>
+      </c>
+      <c r="G105" s="4">
+        <f t="shared" si="76"/>
+        <v>600</v>
+      </c>
+      <c r="H105" s="9">
+        <f t="shared" si="77"/>
+        <v>0.11640000000000006</v>
+      </c>
     </row>
     <row r="106" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B106" s="4">
-        <f t="shared" si="14"/>
+        <f t="shared" si="78"/>
         <v>5700</v>
       </c>
-      <c r="C106" s="4"/>
-      <c r="D106" s="4"/>
-      <c r="E106" s="4"/>
-      <c r="G106" s="4"/>
-      <c r="H106" s="9"/>
+      <c r="C106" s="4">
+        <f t="shared" si="72"/>
+        <v>700</v>
+      </c>
+      <c r="D106" s="4">
+        <f t="shared" si="73"/>
+        <v>200</v>
+      </c>
+      <c r="E106" s="4">
+        <f t="shared" si="74"/>
+        <v>0</v>
+      </c>
+      <c r="F106" s="1">
+        <f t="shared" si="75"/>
+        <v>100</v>
+      </c>
+      <c r="G106" s="4">
+        <f t="shared" si="76"/>
+        <v>700</v>
+      </c>
+      <c r="H106" s="9">
+        <f t="shared" si="77"/>
+        <v>0.13640000000000008</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="64">
@@ -26118,6 +30035,7 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" verticalDpi="597" r:id="rId1"/>
   <drawing r:id="rId2"/>
+  <legacyDrawing r:id="rId3"/>
 </worksheet>
 </file>
 
@@ -26126,10 +30044,10 @@
   <sheetPr>
     <tabColor rgb="FFFFC000"/>
   </sheetPr>
-  <dimension ref="B2:D39"/>
+  <dimension ref="B2:D35"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="B18" sqref="B18"/>
+      <selection activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -26204,68 +30122,62 @@
       <c r="B14" s="5"/>
     </row>
     <row r="15" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B15" s="5" t="s">
+      <c r="B15" s="3" t="s">
         <v>3</v>
+      </c>
+    </row>
+    <row r="16" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B16" s="2" t="s">
+        <v>75</v>
       </c>
     </row>
     <row r="17" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B17" s="3" t="s">
-        <v>72</v>
-      </c>
+      <c r="B17" s="5"/>
+    </row>
+    <row r="18" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B18" s="5"/>
     </row>
     <row r="19" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B19" s="3"/>
+      <c r="B19" s="5"/>
       <c r="C19" s="3"/>
     </row>
-    <row r="20" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B20" s="2"/>
-    </row>
     <row r="21" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B21" s="5"/>
-    </row>
-    <row r="22" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B22" s="5"/>
+      <c r="B21" s="13"/>
     </row>
     <row r="23" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B23" s="5"/>
+      <c r="B23" s="3"/>
+    </row>
+    <row r="24" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B24" s="2"/>
     </row>
     <row r="25" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B25" s="13"/>
+      <c r="B25" s="5"/>
+    </row>
+    <row r="26" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B26" s="5"/>
     </row>
     <row r="27" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B27" s="3"/>
+      <c r="B27" s="5"/>
       <c r="C27" s="3"/>
-    </row>
-    <row r="28" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B28" s="2"/>
     </row>
     <row r="29" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B29" s="5"/>
     </row>
-    <row r="30" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B30" s="5"/>
+    <row r="31" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B31" s="3"/>
     </row>
-    <row r="31" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B31" s="5"/>
+    <row r="32" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B32" s="2"/>
     </row>
     <row r="33" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B33" s="5"/>
     </row>
+    <row r="34" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B34" s="5"/>
+    </row>
     <row r="35" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B35" s="3"/>
+      <c r="B35" s="5"/>
       <c r="C35" s="3"/>
-    </row>
-    <row r="36" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B36" s="2"/>
-    </row>
-    <row r="37" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B37" s="5"/>
-    </row>
-    <row r="38" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B38" s="5"/>
-    </row>
-    <row r="39" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B39" s="5"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
